--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090EEA47-1C5E-814E-B9C3-052C648CC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357976E-95ED-431B-A23F-276D28427285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="32680" windowHeight="19320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Total Costs Buyers</t>
   </si>
   <si>
-    <t>Total Profits Sellers</t>
-  </si>
-  <si>
     <t>Ratio of Sellers</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">I will include winter </t>
+  </si>
+  <si>
+    <t>Total Profits Prosumers</t>
   </si>
 </sst>
 </file>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -328,12 +328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,16 +337,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,20 +368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,50 +684,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
   <dimension ref="C2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="24">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30">
         <v>0.25</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="30">
         <v>0.5</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30">
         <v>0.75</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="27" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="13">
+      <c r="D3" s="24"/>
+      <c r="E3" s="10">
         <v>40</v>
       </c>
       <c r="F3" s="9">
@@ -750,7 +744,7 @@
       <c r="I3" s="9">
         <v>200</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>40</v>
       </c>
       <c r="K3" s="9">
@@ -765,7 +759,7 @@
       <c r="N3" s="9">
         <v>200</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <v>40</v>
       </c>
       <c r="P3" s="9">
@@ -777,16 +771,16 @@
       <c r="R3" s="9">
         <v>160</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
-        <v>8</v>
+    <row r="4" spans="3:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>46.908262029716099</v>
@@ -834,10 +828,10 @@
         <v>52.4340589274927</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="23"/>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="26"/>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:S5" si="0">100-E4</f>
@@ -900,63 +894,63 @@
         <v>47.5659410725073</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="30" t="s">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="19">
+        <v>48.75</v>
+      </c>
+      <c r="F6" s="20">
+        <v>47.7083333333333</v>
+      </c>
+      <c r="G6" s="20">
+        <v>48.1944444444444</v>
+      </c>
+      <c r="H6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="I6" s="21">
+        <v>47.5833333333333</v>
+      </c>
+      <c r="J6" s="19">
+        <v>47.7083333333333</v>
+      </c>
+      <c r="K6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="L6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="M6" s="20">
+        <v>47.8645833333333</v>
+      </c>
+      <c r="N6" s="21">
+        <v>47.6666666666666</v>
+      </c>
+      <c r="O6" s="19">
+        <v>48.1944444444444</v>
+      </c>
+      <c r="P6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>47.592592592592503</v>
+      </c>
+      <c r="R6" s="20">
+        <v>47.6736111111111</v>
+      </c>
+      <c r="S6" s="21">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32">
-        <v>48.75</v>
-      </c>
-      <c r="F6" s="33">
-        <v>47.7083333333333</v>
-      </c>
-      <c r="G6" s="33">
-        <v>48.1944444444444</v>
-      </c>
-      <c r="H6" s="33">
-        <v>47.5</v>
-      </c>
-      <c r="I6" s="34">
-        <v>47.5833333333333</v>
-      </c>
-      <c r="J6" s="32">
-        <v>47.7083333333333</v>
-      </c>
-      <c r="K6" s="33">
-        <v>47.5</v>
-      </c>
-      <c r="L6" s="33">
-        <v>47.5</v>
-      </c>
-      <c r="M6" s="33">
-        <v>47.8645833333333</v>
-      </c>
-      <c r="N6" s="34">
-        <v>47.6666666666666</v>
-      </c>
-      <c r="O6" s="32">
-        <v>48.1944444444444</v>
-      </c>
-      <c r="P6" s="33">
-        <v>47.5</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>47.592592592592503</v>
-      </c>
-      <c r="R6" s="33">
-        <v>47.6736111111111</v>
-      </c>
-      <c r="S6" s="34">
-        <v>47.75</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="22" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>18.2758035069842</v>
@@ -1004,10 +998,10 @@
         <v>12.797417560660501</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="23"/>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="26"/>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="5">
         <f>100 -E7</f>
@@ -1071,48 +1065,48 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30">
         <v>0.25</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="24">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="30">
         <v>0.5</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24">
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="30">
         <v>0.75</v>
       </c>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C14" s="27" t="s">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="10">
         <v>40</v>
       </c>
@@ -1159,12 +1153,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="s">
-        <v>8</v>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
         <v>95.339746556256799</v>
@@ -1212,10 +1206,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="23"/>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
       <c r="D16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ref="E16:S16" si="2">100-E15</f>
@@ -1278,63 +1272,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="30" t="s">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="F17" s="22">
+        <v>8.125</v>
+      </c>
+      <c r="G17" s="22">
+        <v>10</v>
+      </c>
+      <c r="H17" s="22">
+        <v>9.0625</v>
+      </c>
+      <c r="I17" s="22">
+        <v>8.75</v>
+      </c>
+      <c r="J17" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="K17" s="22">
+        <v>2.1875</v>
+      </c>
+      <c r="L17" s="22">
+        <v>2.01388888888888</v>
+      </c>
+      <c r="M17" s="22">
+        <v>2.2395833333333299</v>
+      </c>
+      <c r="N17" s="22">
+        <v>2.0416666666666599</v>
+      </c>
+      <c r="O17" s="22">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="P17" s="22">
+        <v>1.5277777777777699</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>1.43518518518518</v>
+      </c>
+      <c r="R17" s="22">
+        <v>1.38888888888888</v>
+      </c>
+      <c r="S17" s="22">
+        <v>1.13888888888888</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35">
-        <v>9.5833333333333304</v>
-      </c>
-      <c r="F17" s="35">
-        <v>8.125</v>
-      </c>
-      <c r="G17" s="35">
-        <v>10</v>
-      </c>
-      <c r="H17" s="35">
-        <v>9.0625</v>
-      </c>
-      <c r="I17" s="35">
-        <v>8.75</v>
-      </c>
-      <c r="J17" s="35">
-        <v>1.25</v>
-      </c>
-      <c r="K17" s="35">
-        <v>2.1875</v>
-      </c>
-      <c r="L17" s="35">
-        <v>2.01388888888888</v>
-      </c>
-      <c r="M17" s="35">
-        <v>2.2395833333333299</v>
-      </c>
-      <c r="N17" s="35">
-        <v>2.0416666666666599</v>
-      </c>
-      <c r="O17" s="35">
-        <v>2.0833333333333299</v>
-      </c>
-      <c r="P17" s="35">
-        <v>1.5277777777777699</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>1.43518518518518</v>
-      </c>
-      <c r="R17" s="35">
-        <v>1.38888888888888</v>
-      </c>
-      <c r="S17" s="35">
-        <v>1.13888888888888</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="22" t="s">
-        <v>10</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>30.2555080933959</v>
@@ -1382,10 +1376,10 @@
         <v>57.474110862417398</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="23"/>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="26"/>
       <c r="D19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5">
         <f>100 -E18</f>
@@ -1448,38 +1442,33 @@
         <v>42.525889137582602</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1491,6 +1480,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1500,48 +1494,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
   <dimension ref="C2:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="15">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="13">
         <v>0.25</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13">
         <v>0.5</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13">
         <v>0.75</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="13">
+      <c r="D3" s="17"/>
+      <c r="E3" s="10">
         <v>40</v>
       </c>
       <c r="F3" s="9">
@@ -1556,7 +1550,7 @@
       <c r="I3" s="9">
         <v>200</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>40</v>
       </c>
       <c r="K3" s="9">
@@ -1571,7 +1565,7 @@
       <c r="N3" s="9">
         <v>200</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <v>40</v>
       </c>
       <c r="P3" s="9">
@@ -1583,16 +1577,16 @@
       <c r="R3" s="9">
         <v>160</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
-        <v>13</v>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -1610,8 +1604,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="23"/>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="26"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1631,12 +1625,12 @@
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="22" t="s">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
@@ -1654,8 +1648,8 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="23"/>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="26"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1675,12 +1669,12 @@
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
@@ -1698,8 +1692,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="23"/>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="26"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1719,44 +1713,44 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="15">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13">
         <v>0.25</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13">
         <v>0.5</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13">
         <v>0.75</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13">
+      <c r="D16" s="17"/>
+      <c r="E16" s="10">
         <v>40</v>
       </c>
       <c r="F16" s="9">
@@ -1771,7 +1765,7 @@
       <c r="I16" s="9">
         <v>200</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>40</v>
       </c>
       <c r="K16" s="9">
@@ -1786,7 +1780,7 @@
       <c r="N16" s="9">
         <v>200</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <v>40</v>
       </c>
       <c r="P16" s="9">
@@ -1798,16 +1792,16 @@
       <c r="R16" s="9">
         <v>160</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="22" t="s">
-        <v>13</v>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -1825,8 +1819,8 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="23"/>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -1846,12 +1840,12 @@
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
@@ -1869,8 +1863,8 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="23"/>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="26"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -1890,12 +1884,12 @@
       <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="22" t="s">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
@@ -1913,8 +1907,8 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="23"/>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -1934,17 +1928,17 @@
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C25" s="21" t="s">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C26" s="21" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357976E-95ED-431B-A23F-276D28427285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272ACDF-86B7-459C-8FFE-B87723FD1602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="1170" yWindow="270" windowWidth="27825" windowHeight="15435" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -344,7 +344,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,16 +368,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,37 +702,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30">
+      <c r="D2" s="27"/>
+      <c r="E2" s="23">
         <v>0.25</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="30">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23">
         <v>0.5</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="23">
         <v>0.75</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="10">
         <v>40</v>
       </c>
@@ -776,7 +780,7 @@
       </c>
     </row>
     <row r="4" spans="3:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -829,7 +833,7 @@
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="26"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -895,10 +899,10 @@
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -946,7 +950,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -999,7 +1003,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -1076,37 +1080,37 @@
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30">
+      <c r="D13" s="27"/>
+      <c r="E13" s="23">
         <v>0.25</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="30">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23">
         <v>0.5</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="30">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23">
         <v>0.75</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="10">
         <v>40</v>
       </c>
@@ -1154,7 +1158,7 @@
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1207,7 +1211,7 @@
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1273,10 +1277,10 @@
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -1324,7 +1328,7 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1377,7 +1381,7 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="12" t="s">
         <v>11</v>
       </c>
@@ -1469,6 +1473,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1480,11 +1489,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1492,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
-  <dimension ref="C2:S26"/>
+  <dimension ref="C2:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1586,7 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1605,7 +1609,7 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="26"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1630,7 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1649,7 +1653,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1674,7 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1693,7 +1697,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1796,8 +1800,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="25" t="s">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -1819,8 +1823,8 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -1840,31 +1844,61 @@
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="25" t="s">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="E19" s="34">
+        <v>22.698527030173398</v>
+      </c>
+      <c r="F19" s="35">
+        <v>47.552968896774303</v>
+      </c>
+      <c r="G19" s="35">
+        <v>14.934081187215799</v>
+      </c>
+      <c r="H19" s="35">
+        <v>52.118679353938603</v>
+      </c>
+      <c r="I19" s="36">
+        <v>56.778878146255401</v>
+      </c>
+      <c r="J19" s="34">
+        <v>555.54457455157899</v>
+      </c>
+      <c r="K19" s="35">
+        <v>1013.73767963563</v>
+      </c>
+      <c r="L19" s="35">
+        <v>1595.93645065949</v>
+      </c>
+      <c r="M19" s="35">
+        <v>2051.1645001492602</v>
+      </c>
+      <c r="N19" s="36">
+        <v>2614.4518990163801</v>
+      </c>
+      <c r="O19" s="34">
+        <v>909.05494089398996</v>
+      </c>
+      <c r="P19" s="35">
+        <v>1919.93839665982</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>2876.2734537462302</v>
+      </c>
+      <c r="R19" s="35">
+        <v>3784.6201459302602</v>
+      </c>
+      <c r="S19" s="36">
+        <v>4802.4634537894499</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="30"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -1884,8 +1918,8 @@
       <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1907,8 +1941,8 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +1962,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
@@ -1936,10 +1970,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1951,5 +2002,6 @@
     <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272ACDF-86B7-459C-8FFE-B87723FD1602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9F1426-F960-4451-B6F6-9EB86502C9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="270" windowWidth="27825" windowHeight="15435" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
   <dimension ref="C2:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,21 +1636,51 @@
       <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
+      <c r="E6" s="34">
+        <v>3.24747753241755</v>
+      </c>
+      <c r="F6" s="35">
+        <v>8.9530405006292302</v>
+      </c>
+      <c r="G6" s="35">
+        <v>14.427920566485</v>
+      </c>
+      <c r="H6" s="35">
+        <v>20.7175351347299</v>
+      </c>
+      <c r="I6" s="36">
+        <v>23.4633731941259</v>
+      </c>
+      <c r="J6" s="34">
+        <v>8.4647249283319699</v>
+      </c>
+      <c r="K6" s="35">
+        <v>19.783153126063599</v>
+      </c>
+      <c r="L6" s="35">
+        <v>29.137278176142701</v>
+      </c>
+      <c r="M6" s="35">
+        <v>0.13999999999999899</v>
+      </c>
+      <c r="N6" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="O6" s="34">
+        <v>11.628992034518699</v>
+      </c>
+      <c r="P6" s="35">
+        <v>25.3202451663829</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>0.13988589113091299</v>
+      </c>
+      <c r="R6" s="35">
+        <v>0.90894887884187203</v>
+      </c>
+      <c r="S6" s="36">
+        <v>1.01059770490547</v>
+      </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="30"/>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9F1426-F960-4451-B6F6-9EB86502C9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926F7F3-69DE-4D41-803D-A2FC87D841C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="270" windowWidth="27825" windowHeight="15435" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="60" yWindow="75" windowWidth="28560" windowHeight="15450" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="profits_costs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -110,6 +110,36 @@
   </si>
   <si>
     <t>Total Profits Prosumers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total from supp.</t>
+  </si>
+  <si>
+    <t>Total from P2P</t>
+  </si>
+  <si>
+    <t>Cons.</t>
+  </si>
+  <si>
+    <t>Total to P2P</t>
+  </si>
+  <si>
+    <t>Total to supp.</t>
+  </si>
+  <si>
+    <t>Total from self gen.</t>
+  </si>
+  <si>
+    <t>Total from self gen. + Batt</t>
+  </si>
+  <si>
+    <t>Sellers % Ratio in Prosumers</t>
+  </si>
+  <si>
+    <t>Sellers</t>
   </si>
 </sst>
 </file>
@@ -308,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -344,17 +374,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,10 +392,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,50 +721,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
-  <dimension ref="C2:T29"/>
+  <dimension ref="C2:T59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="6.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.125" hidden="1" customWidth="1"/>
     <col min="12" max="19" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="23">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34">
         <v>0.25</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="23">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="34">
         <v>0.5</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="23">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34">
         <v>0.75</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="28"/>
@@ -1069,426 +1104,1055 @@
       </c>
       <c r="T8" s="4"/>
     </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="26" t="s">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34">
         <v>0.25</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34">
         <v>0.5</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34">
         <v>0.75</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="26" t="s">
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="10">
+      <c r="D17" s="28"/>
+      <c r="E17" s="10">
         <v>40</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F17" s="9">
         <v>80</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G17" s="9">
         <v>120</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H17" s="9">
         <v>160</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I17" s="9">
         <v>200</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J17" s="10">
         <v>40</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K17" s="9">
         <v>80</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L17" s="9">
         <v>120</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M17" s="9">
         <v>160</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N17" s="9">
         <v>200</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O17" s="10">
         <v>40</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P17" s="9">
         <v>80</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q17" s="9">
         <v>120</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R17" s="9">
         <v>160</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S17" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="29" t="s">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E18" s="1">
         <v>95.339746556256799</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F18" s="2">
         <v>95.236301776194495</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G18" s="2">
         <v>94.951416141428993</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H18" s="2">
         <v>95.213545370067706</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I18" s="3">
         <v>94.603454592772593</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J18" s="1">
         <v>100</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K18" s="2">
         <v>100</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L18" s="2">
         <v>100</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M18" s="2">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O18" s="1">
         <v>100</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P18" s="2">
         <v>100</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q18" s="2">
         <v>100</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R18" s="2">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="30"/>
-      <c r="D16" s="8" t="s">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:S16" si="2">100-E15</f>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:S19" si="2">100-E18</f>
         <v>4.6602534437432013</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
         <v>4.7636982238055054</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>5.048583858571007</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>4.7864546299322939</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I19" s="6">
         <f t="shared" si="2"/>
         <v>5.3965454072274071</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J19" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O19" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S19" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="31" t="s">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="22">
+      <c r="D20" s="32"/>
+      <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F20" s="22">
         <v>8.125</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G20" s="22">
         <v>10</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H20" s="22">
         <v>9.0625</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I20" s="22">
         <v>8.75</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J20" s="22">
         <v>1.25</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K20" s="22">
         <v>2.1875</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L20" s="22">
         <v>2.01388888888888</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M20" s="22">
         <v>2.2395833333333299</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N20" s="22">
         <v>2.0416666666666599</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O20" s="22">
         <v>2.0833333333333299</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P20" s="22">
         <v>1.5277777777777699</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q20" s="22">
         <v>1.43518518518518</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R20" s="22">
         <v>1.38888888888888</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S20" s="22">
         <v>1.13888888888888</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="29" t="s">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E21" s="1">
         <v>30.2555080933959</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F21" s="2">
         <v>22.9915734558809</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G21" s="2">
         <v>26.542391631025701</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H21" s="2">
         <v>27.1493428025498</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I21" s="3">
         <v>24.9939989033867</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J21" s="1">
         <v>31.4444893693639</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K21" s="2">
         <v>38.443509138519801</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L21" s="2">
         <v>42.461627256396199</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M21" s="2">
         <v>42.849986391997199</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N21" s="3">
         <v>44.206614573216399</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O21" s="1">
         <v>52.042744265118202</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P21" s="2">
         <v>54.849193678186303</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q21" s="2">
         <v>56.252546286901001</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R21" s="2">
         <v>56.788186778684199</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S21" s="3">
         <v>57.474110862417398</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="30"/>
-      <c r="D19" s="12" t="s">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="30"/>
+      <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5">
-        <f>100 -E18</f>
+      <c r="E22" s="5">
+        <f>100 -E21</f>
         <v>69.744491906604097</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19:S19" si="3">100 -F18</f>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:S22" si="3">100 -F21</f>
         <v>77.008426544119104</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G22" s="6">
         <f t="shared" si="3"/>
         <v>73.457608368974292</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="3"/>
         <v>72.850657197450204</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I22" s="6">
         <f t="shared" si="3"/>
         <v>75.006001096613304</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>68.555510630636093</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K22" s="6">
         <f t="shared" si="3"/>
         <v>61.556490861480199</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L22" s="6">
         <f t="shared" si="3"/>
         <v>57.538372743603801</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M22" s="6">
         <f t="shared" si="3"/>
         <v>57.150013608002801</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N22" s="6">
         <f t="shared" si="3"/>
         <v>55.793385426783601</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O22" s="5">
         <f t="shared" si="3"/>
         <v>47.957255734881798</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P22" s="6">
         <f t="shared" si="3"/>
         <v>45.150806321813697</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q22" s="6">
         <f t="shared" si="3"/>
         <v>43.747453713098999</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R22" s="6">
         <f t="shared" si="3"/>
         <v>43.211813221315801</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S22" s="7">
         <f t="shared" si="3"/>
         <v>42.525889137582602</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="10">
+        <v>40</v>
+      </c>
+      <c r="F38" s="9">
+        <v>80</v>
+      </c>
+      <c r="G38" s="9">
+        <v>120</v>
+      </c>
+      <c r="H38" s="9">
+        <v>160</v>
+      </c>
+      <c r="I38" s="9">
+        <v>200</v>
+      </c>
+      <c r="J38" s="10">
+        <v>40</v>
+      </c>
+      <c r="K38" s="9">
+        <v>80</v>
+      </c>
+      <c r="L38" s="9">
+        <v>120</v>
+      </c>
+      <c r="M38" s="9">
+        <v>160</v>
+      </c>
+      <c r="N38" s="9">
+        <v>200</v>
+      </c>
+      <c r="O38" s="10">
+        <v>40</v>
+      </c>
+      <c r="P38" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>120</v>
+      </c>
+      <c r="R38" s="9">
+        <v>160</v>
+      </c>
+      <c r="S38" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="30"/>
+      <c r="D40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="19">
+        <v>51.25</v>
+      </c>
+      <c r="F41" s="20">
+        <v>52.2916666666667</v>
+      </c>
+      <c r="G41" s="20">
+        <v>51.8055555555556</v>
+      </c>
+      <c r="H41" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="I41" s="21">
+        <v>52.4166666666667</v>
+      </c>
+      <c r="J41" s="19">
+        <v>52.2916666666667</v>
+      </c>
+      <c r="K41" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="L41" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="M41" s="20">
+        <v>52.1354166666667</v>
+      </c>
+      <c r="N41" s="21">
+        <v>52.3333333333334</v>
+      </c>
+      <c r="O41" s="19">
+        <v>51.8055555555556</v>
+      </c>
+      <c r="P41" s="20">
+        <v>52.5</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>52.407407407407497</v>
+      </c>
+      <c r="R41" s="20">
+        <v>52.3263888888889</v>
+      </c>
+      <c r="S41" s="21">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C44" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C49" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C51" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="36"/>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C52" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="10">
+        <v>40</v>
+      </c>
+      <c r="F52" s="9">
+        <v>80</v>
+      </c>
+      <c r="G52" s="9">
+        <v>120</v>
+      </c>
+      <c r="H52" s="9">
+        <v>160</v>
+      </c>
+      <c r="I52" s="9">
+        <v>200</v>
+      </c>
+      <c r="J52" s="10">
+        <v>40</v>
+      </c>
+      <c r="K52" s="9">
+        <v>80</v>
+      </c>
+      <c r="L52" s="9">
+        <v>120</v>
+      </c>
+      <c r="M52" s="9">
+        <v>160</v>
+      </c>
+      <c r="N52" s="9">
+        <v>200</v>
+      </c>
+      <c r="O52" s="10">
+        <v>40</v>
+      </c>
+      <c r="P52" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>120</v>
+      </c>
+      <c r="R52" s="9">
+        <v>160</v>
+      </c>
+      <c r="S52" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C53" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C54" s="30"/>
+      <c r="D54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C55" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="22">
+        <v>90.4166666666667</v>
+      </c>
+      <c r="F55" s="22">
+        <v>91.875</v>
+      </c>
+      <c r="G55" s="22">
+        <v>90</v>
+      </c>
+      <c r="H55" s="22">
+        <v>90.9375</v>
+      </c>
+      <c r="I55" s="22">
+        <v>91.25</v>
+      </c>
+      <c r="J55" s="22">
+        <v>98.75</v>
+      </c>
+      <c r="K55" s="22">
+        <v>97.8125</v>
+      </c>
+      <c r="L55" s="22">
+        <v>97.986111111111114</v>
+      </c>
+      <c r="M55" s="22">
+        <v>97.760416666666671</v>
+      </c>
+      <c r="N55" s="22">
+        <v>97.958333333333343</v>
+      </c>
+      <c r="O55" s="22">
+        <v>97.916666666666671</v>
+      </c>
+      <c r="P55" s="22">
+        <v>98.472222222222229</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>98.564814814814824</v>
+      </c>
+      <c r="R55" s="22">
+        <v>98.611111111111114</v>
+      </c>
+      <c r="S55" s="21">
+        <v>98.861111111111114</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C56" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C57" s="30"/>
+      <c r="D57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C59" s="30"/>
+      <c r="D59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="34">
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1499,7 +2163,7 @@
   <dimension ref="C2:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,49 +2300,49 @@
       <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="24">
         <v>3.24747753241755</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="25">
         <v>8.9530405006292302</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="25">
         <v>14.427920566485</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="25">
         <v>20.7175351347299</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="26">
         <v>23.4633731941259</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="24">
         <v>8.4647249283319699</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="25">
         <v>19.783153126063599</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="25">
         <v>29.137278176142701</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="25">
         <v>0.13999999999999899</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="26">
         <v>0.62</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="24">
         <v>11.628992034518699</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="25">
         <v>25.3202451663829</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="25">
         <v>0.13988589113091299</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="25">
         <v>0.90894887884187203</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="26">
         <v>1.01059770490547</v>
       </c>
     </row>
@@ -1881,49 +2545,49 @@
       <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="24">
         <v>22.698527030173398</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="25">
         <v>47.552968896774303</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="25">
         <v>14.934081187215799</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="25">
         <v>52.118679353938603</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="26">
         <v>56.778878146255401</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="24">
         <v>555.54457455157899</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="25">
         <v>1013.73767963563</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="25">
         <v>1595.93645065949</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="25">
         <v>2051.1645001492602</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="26">
         <v>2614.4518990163801</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="24">
         <v>909.05494089398996</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="25">
         <v>1919.93839665982</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="25">
         <v>2876.2734537462302</v>
       </c>
-      <c r="R19" s="35">
+      <c r="R19" s="25">
         <v>3784.6201459302602</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="26">
         <v>4802.4634537894499</v>
       </c>
     </row>
@@ -2005,22 +2669,27 @@
         <v>18</v>
       </c>
     </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926F7F3-69DE-4D41-803D-A2FC87D841C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCC1F27-9BEF-4985-B29C-FB6B93E4ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="75" windowWidth="28560" windowHeight="15450" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="26880" windowHeight="15480" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -378,20 +378,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,11 +398,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
   <dimension ref="C2:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:S60"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -737,37 +735,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34">
+      <c r="D2" s="31"/>
+      <c r="E2" s="32">
         <v>0.25</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="34">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32">
         <v>0.5</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="34">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="32">
         <v>0.75</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="10">
         <v>40</v>
       </c>
@@ -815,7 +813,7 @@
       </c>
     </row>
     <row r="4" spans="3:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -868,7 +866,7 @@
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -934,10 +932,10 @@
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -985,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1038,7 +1036,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="30"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -1105,64 +1103,16 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1175,37 +1125,37 @@
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32">
         <v>0.25</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="34">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32">
         <v>0.5</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="34">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="32">
         <v>0.75</v>
       </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="10">
         <v>40</v>
       </c>
@@ -1253,7 +1203,7 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1306,7 +1256,7 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1372,10 +1322,10 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -1423,7 +1373,7 @@
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1476,7 +1426,7 @@
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
@@ -1567,37 +1517,37 @@
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34">
+      <c r="D37" s="31"/>
+      <c r="E37" s="32">
         <v>0.25</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="34">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="32">
         <v>0.5</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="34">
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="32">
         <v>0.75</v>
       </c>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="36"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="34"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="10">
         <v>40</v>
       </c>
@@ -1645,7 +1595,7 @@
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -1668,7 +1618,7 @@
       <c r="S39" s="3"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="30"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="8" t="s">
         <v>26</v>
       </c>
@@ -1689,58 +1639,28 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="19">
-        <v>51.25</v>
-      </c>
-      <c r="F41" s="20">
-        <v>52.2916666666667</v>
-      </c>
-      <c r="G41" s="20">
-        <v>51.8055555555556</v>
-      </c>
-      <c r="H41" s="20">
-        <v>52.5</v>
-      </c>
-      <c r="I41" s="21">
-        <v>52.4166666666667</v>
-      </c>
-      <c r="J41" s="19">
-        <v>52.2916666666667</v>
-      </c>
-      <c r="K41" s="20">
-        <v>52.5</v>
-      </c>
-      <c r="L41" s="20">
-        <v>52.5</v>
-      </c>
-      <c r="M41" s="20">
-        <v>52.1354166666667</v>
-      </c>
-      <c r="N41" s="21">
-        <v>52.3333333333334</v>
-      </c>
-      <c r="O41" s="19">
-        <v>51.8055555555556</v>
-      </c>
-      <c r="P41" s="20">
-        <v>52.5</v>
-      </c>
-      <c r="Q41" s="20">
-        <v>52.407407407407497</v>
-      </c>
-      <c r="R41" s="20">
-        <v>52.3263888888889</v>
-      </c>
-      <c r="S41" s="21">
-        <v>52.25</v>
-      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="21"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -1763,7 +1683,7 @@
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="8" t="s">
         <v>30</v>
       </c>
@@ -1784,7 +1704,7 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1807,7 +1727,7 @@
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="30"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="12" t="s">
         <v>26</v>
       </c>
@@ -1828,23 +1748,8 @@
       <c r="S45" s="7"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
@@ -1857,37 +1762,37 @@
       </c>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34">
+      <c r="D51" s="31"/>
+      <c r="E51" s="32">
         <v>0.25</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="34">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="32">
         <v>0.5</v>
       </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="34">
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="32">
         <v>0.75</v>
       </c>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="36"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="34"/>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="28"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="10">
         <v>40</v>
       </c>
@@ -1935,7 +1840,7 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1958,7 +1863,7 @@
       <c r="S53" s="3"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="30"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
@@ -1979,10 +1884,10 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="22">
         <v>90.4166666666667</v>
       </c>
@@ -2030,7 +1935,7 @@
       </c>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -2053,7 +1958,7 @@
       <c r="S56" s="3"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="30"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="8" t="s">
         <v>30</v>
       </c>
@@ -2074,7 +1979,7 @@
       <c r="S57" s="7"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -2097,7 +2002,7 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
@@ -2119,21 +2024,9 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="J37:N37"/>
     <mergeCell ref="O37:S37"/>
     <mergeCell ref="C38:D38"/>
@@ -2150,9 +2043,21 @@
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2250,7 +2155,7 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -2273,7 +2178,7 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2199,7 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2347,7 +2252,7 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="30"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2273,7 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2391,7 +2296,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2400,7 @@
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2518,7 +2423,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -2539,7 +2444,7 @@
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2592,7 +2497,7 @@
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2518,7 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2636,7 +2541,7 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCC1F27-9BEF-4985-B29C-FB6B93E4ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF22D02-95DB-C24B-B48C-1922B15DD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="26880" windowHeight="15480" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="26880" windowHeight="15480" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
-    <sheet name="profits_costs" sheetId="2" r:id="rId2"/>
+    <sheet name="distributions" sheetId="3" r:id="rId2"/>
+    <sheet name="profits_costs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -140,13 +141,25 @@
   </si>
   <si>
     <t>Sellers</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on April 21st, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on April 21st, 2016, when users are equipped battery</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on November 6th, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market on November 6th, 2016, when users are equipped battery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +174,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -338,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -381,6 +400,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,12 +424,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,51 +741,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
   <dimension ref="C2:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:S45"/>
+    <sheetView topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:S86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" hidden="1" customWidth="1"/>
-    <col min="12" max="19" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34">
         <v>0.25</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="34">
         <v>0.5</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="32">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34">
         <v>0.75</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="10">
         <v>40</v>
       </c>
@@ -812,8 +832,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -865,77 +885,77 @@
         <v>52.4340589274927</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="29"/>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:S5" si="0">100-E4</f>
+        <f>100-E4</f>
         <v>53.091737970283901</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-F4</f>
         <v>52.0185161933777</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-G4</f>
         <v>52.401453548423497</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-H4</f>
         <v>51.356450065726399</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-I4</f>
         <v>52.5056977444791</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
+        <f>100-J4</f>
         <v>46.073959825199303</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-K4</f>
         <v>49.878131415799501</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-L4</f>
         <v>47.750031389401599</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-M4</f>
         <v>48.453668327582697</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-N4</f>
         <v>47.637250130075103</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="0"/>
+        <f>100-O4</f>
         <v>43.952362256249202</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-P4</f>
         <v>44.856964489001598</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-Q4</f>
         <v>46.800937367690402</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" si="0"/>
+        <f>100-R4</f>
         <v>48.975663366269899</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="0"/>
+        <f>100-S4</f>
         <v>47.5659410725073</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="36" t="s">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -982,8 +1002,8 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1035,8 +1055,8 @@
         <v>12.797417560660501</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="29"/>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C8" s="31"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -1045,117 +1065,117 @@
         <v>81.724196493015796</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:S8" si="1">100 -F7</f>
+        <f>100 -F7</f>
         <v>85.572145842643494</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -G7</f>
         <v>84.164703756974504</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -H7</f>
         <v>85.802269425114304</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -I7</f>
         <v>86.716891745788402</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="1"/>
+        <f>100 -J7</f>
         <v>85.572145842643494</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -K7</f>
         <v>85.802269425114304</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -L7</f>
         <v>87.067112957632801</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -M7</f>
         <v>86.461857816655993</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -N7</f>
         <v>86.197093627610599</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="1"/>
+        <f>100 -O7</f>
         <v>84.164703756974504</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -P7</f>
         <v>87.067112957632801</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -Q7</f>
         <v>87.001981396231798</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="1"/>
+        <f>100 -R7</f>
         <v>86.4387991568437</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="1"/>
+        <f>100 -S7</f>
         <v>87.202582439339494</v>
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C9" s="27"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C10" s="27"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C11" s="27"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="30" t="s">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34">
         <v>0.25</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34">
         <v>0.5</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="32">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34">
         <v>0.75</v>
       </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="30" t="s">
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="10">
         <v>40</v>
       </c>
@@ -1202,8 +1222,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="28" t="s">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1255,77 +1275,77 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="31"/>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ref="E19:S19" si="2">100-E18</f>
+        <f>100-E18</f>
         <v>4.6602534437432013</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-F18</f>
         <v>4.7636982238055054</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-G18</f>
         <v>5.048583858571007</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-H18</f>
         <v>4.7864546299322939</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-I18</f>
         <v>5.3965454072274071</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="2"/>
+        <f>100-J18</f>
         <v>0</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-K18</f>
         <v>0</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-L18</f>
         <v>0</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-M18</f>
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-N18</f>
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="2"/>
+        <f>100-O18</f>
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-P18</f>
         <v>0</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-Q18</f>
         <v>0</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="2"/>
+        <f>100-R18</f>
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="2"/>
+        <f>100-S18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -1372,8 +1392,8 @@
         <v>1.13888888888888</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1425,8 +1445,8 @@
         <v>57.474110862417398</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
@@ -1435,119 +1455,119 @@
         <v>69.744491906604097</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:S22" si="3">100 -F21</f>
+        <f>100 -F21</f>
         <v>77.008426544119104</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -G21</f>
         <v>73.457608368974292</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -H21</f>
         <v>72.850657197450204</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -I21</f>
         <v>75.006001096613304</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f>100 -J21</f>
         <v>68.555510630636093</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -K21</f>
         <v>61.556490861480199</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -L21</f>
         <v>57.538372743603801</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -M21</f>
         <v>57.150013608002801</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -N21</f>
         <v>55.793385426783601</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="3"/>
+        <f>100 -O21</f>
         <v>47.957255734881798</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -P21</f>
         <v>45.150806321813697</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -Q21</f>
         <v>43.747453713098999</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="3"/>
+        <f>100 -R21</f>
         <v>43.211813221315801</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="3"/>
+        <f>100 -S21</f>
         <v>42.525889137582602</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="30" t="s">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32">
+      <c r="D37" s="33"/>
+      <c r="E37" s="34">
         <v>0.25</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="32">
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="34">
         <v>0.5</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="32">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="34">
         <v>0.75</v>
       </c>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="34"/>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="30" t="s">
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C38" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="10">
         <v>40</v>
       </c>
@@ -1594,8 +1614,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C39" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -1617,8 +1637,8 @@
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="29"/>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C40" s="31"/>
       <c r="D40" s="8" t="s">
         <v>26</v>
       </c>
@@ -1638,11 +1658,11 @@
       <c r="R40" s="6"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="36" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -1659,8 +1679,8 @@
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="28" t="s">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C42" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -1682,8 +1702,8 @@
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="29"/>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C43" s="31"/>
       <c r="D43" s="8" t="s">
         <v>30</v>
       </c>
@@ -1703,8 +1723,8 @@
       <c r="R43" s="6"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="28" t="s">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C44" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1726,8 +1746,8 @@
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="29"/>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C45" s="31"/>
       <c r="D45" s="12" t="s">
         <v>26</v>
       </c>
@@ -1747,52 +1767,52 @@
       <c r="R45" s="6"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" s="27"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="30" t="s">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C51" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32">
+      <c r="D51" s="33"/>
+      <c r="E51" s="34">
         <v>0.25</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="32">
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="34">
         <v>0.5</v>
       </c>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="32">
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="34">
         <v>0.75</v>
       </c>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="34"/>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="30" t="s">
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="36"/>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C52" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="35"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="10">
         <v>40</v>
       </c>
@@ -1839,8 +1859,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="28" t="s">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C53" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1862,8 +1882,8 @@
       <c r="R53" s="2"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="29"/>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C54" s="31"/>
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
@@ -1883,11 +1903,11 @@
       <c r="R54" s="6"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="36" t="s">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C55" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="37"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="22">
         <v>90.4166666666667</v>
       </c>
@@ -1934,8 +1954,8 @@
         <v>98.861111111111114</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="28" t="s">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C56" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -1957,8 +1977,8 @@
       <c r="R56" s="2"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="29"/>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C57" s="31"/>
       <c r="D57" s="8" t="s">
         <v>30</v>
       </c>
@@ -1978,8 +1998,8 @@
       <c r="R57" s="6"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="28" t="s">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -2001,8 +2021,8 @@
       <c r="R58" s="2"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="29"/>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C59" s="31"/>
       <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
@@ -2024,11 +2044,21 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
@@ -2043,40 +2073,1042 @@
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
+  <dimension ref="B2:R54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="10">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9">
+        <v>120</v>
+      </c>
+      <c r="G5" s="9">
+        <v>160</v>
+      </c>
+      <c r="H5" s="9">
+        <v>200</v>
+      </c>
+      <c r="I5" s="10">
+        <v>40</v>
+      </c>
+      <c r="J5" s="9">
+        <v>80</v>
+      </c>
+      <c r="K5" s="9">
+        <v>120</v>
+      </c>
+      <c r="L5" s="9">
+        <v>160</v>
+      </c>
+      <c r="M5" s="9">
+        <v>200</v>
+      </c>
+      <c r="N5" s="10">
+        <v>40</v>
+      </c>
+      <c r="O5" s="9">
+        <v>80</v>
+      </c>
+      <c r="P5" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>160</v>
+      </c>
+      <c r="R5" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="31"/>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="31"/>
+      <c r="C12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="16" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="10">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9">
+        <v>80</v>
+      </c>
+      <c r="F19" s="9">
+        <v>120</v>
+      </c>
+      <c r="G19" s="9">
+        <v>160</v>
+      </c>
+      <c r="H19" s="9">
+        <v>200</v>
+      </c>
+      <c r="I19" s="10">
+        <v>40</v>
+      </c>
+      <c r="J19" s="9">
+        <v>80</v>
+      </c>
+      <c r="K19" s="9">
+        <v>120</v>
+      </c>
+      <c r="L19" s="9">
+        <v>160</v>
+      </c>
+      <c r="M19" s="9">
+        <v>200</v>
+      </c>
+      <c r="N19" s="10">
+        <v>40</v>
+      </c>
+      <c r="O19" s="9">
+        <v>80</v>
+      </c>
+      <c r="P19" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>160</v>
+      </c>
+      <c r="R19" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="31"/>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="31"/>
+      <c r="C26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="38"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="10">
+        <v>40</v>
+      </c>
+      <c r="E33" s="9">
+        <v>80</v>
+      </c>
+      <c r="F33" s="9">
+        <v>120</v>
+      </c>
+      <c r="G33" s="9">
+        <v>160</v>
+      </c>
+      <c r="H33" s="9">
+        <v>200</v>
+      </c>
+      <c r="I33" s="10">
+        <v>40</v>
+      </c>
+      <c r="J33" s="9">
+        <v>80</v>
+      </c>
+      <c r="K33" s="9">
+        <v>120</v>
+      </c>
+      <c r="L33" s="9">
+        <v>160</v>
+      </c>
+      <c r="M33" s="9">
+        <v>200</v>
+      </c>
+      <c r="N33" s="10">
+        <v>40</v>
+      </c>
+      <c r="O33" s="9">
+        <v>80</v>
+      </c>
+      <c r="P33" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>160</v>
+      </c>
+      <c r="R33" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="31"/>
+      <c r="C35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="31"/>
+      <c r="C38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="31"/>
+      <c r="C40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="44" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="38"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="36"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="10">
+        <v>40</v>
+      </c>
+      <c r="E47" s="9">
+        <v>80</v>
+      </c>
+      <c r="F47" s="9">
+        <v>120</v>
+      </c>
+      <c r="G47" s="9">
+        <v>160</v>
+      </c>
+      <c r="H47" s="9">
+        <v>200</v>
+      </c>
+      <c r="I47" s="10">
+        <v>40</v>
+      </c>
+      <c r="J47" s="9">
+        <v>80</v>
+      </c>
+      <c r="K47" s="9">
+        <v>120</v>
+      </c>
+      <c r="L47" s="9">
+        <v>160</v>
+      </c>
+      <c r="M47" s="9">
+        <v>200</v>
+      </c>
+      <c r="N47" s="10">
+        <v>40</v>
+      </c>
+      <c r="O47" s="9">
+        <v>80</v>
+      </c>
+      <c r="P47" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>160</v>
+      </c>
+      <c r="R47" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="31"/>
+      <c r="C49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="21"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="31"/>
+      <c r="C52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="31"/>
+      <c r="C54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
   <dimension ref="C2:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +3135,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2154,8 +3186,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -2177,8 +3209,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="29"/>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2198,8 +3230,8 @@
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2251,8 +3283,8 @@
         <v>1.01059770490547</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="31"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -2272,8 +3304,8 @@
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="28" t="s">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2295,8 +3327,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="31"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -2316,12 +3348,12 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +3380,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
@@ -2399,8 +3431,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2422,8 +3454,8 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="29"/>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C18" s="31"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -2443,8 +3475,8 @@
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="28" t="s">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2496,8 +3528,8 @@
         <v>4802.4634537894499</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C20" s="31"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +3549,8 @@
       <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2540,8 +3572,8 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C22" s="31"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2561,7 +3593,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2569,17 +3601,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF22D02-95DB-C24B-B48C-1922B15DD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAFEE5-CD96-F640-BB67-7F5844E2740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="26880" windowHeight="15480" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
-    <sheet name="distributions" sheetId="3" r:id="rId2"/>
+    <sheet name="Distributions" sheetId="3" r:id="rId2"/>
     <sheet name="profits_costs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="45">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Distribution of energy within the P2P market on November 6th, 2016, when users are equipped battery</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in August, 2016, when users are equipped battery</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in August, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in January, 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in January, 2016, when users are equipped battery</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in 2016</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in 2016, when users are equipped battery</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
   <dimension ref="C2:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C62" sqref="C62:S86"/>
     </sheetView>
   </sheetViews>
@@ -2085,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:R54"/>
+  <dimension ref="B2:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3052,10 +3070,1498 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
     </row>
+    <row r="58" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="38"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="36"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="10">
+        <v>40</v>
+      </c>
+      <c r="E61" s="9">
+        <v>80</v>
+      </c>
+      <c r="F61" s="9">
+        <v>120</v>
+      </c>
+      <c r="G61" s="9">
+        <v>160</v>
+      </c>
+      <c r="H61" s="9">
+        <v>200</v>
+      </c>
+      <c r="I61" s="10">
+        <v>40</v>
+      </c>
+      <c r="J61" s="9">
+        <v>80</v>
+      </c>
+      <c r="K61" s="9">
+        <v>120</v>
+      </c>
+      <c r="L61" s="9">
+        <v>160</v>
+      </c>
+      <c r="M61" s="9">
+        <v>200</v>
+      </c>
+      <c r="N61" s="10">
+        <v>40</v>
+      </c>
+      <c r="O61" s="9">
+        <v>80</v>
+      </c>
+      <c r="P61" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>160</v>
+      </c>
+      <c r="R61" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="31"/>
+      <c r="C63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="7"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="21"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="31"/>
+      <c r="C66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="7"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="31"/>
+      <c r="C68" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="7"/>
+    </row>
+    <row r="72" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B72" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B73" s="38"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="36"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="10">
+        <v>40</v>
+      </c>
+      <c r="E75" s="9">
+        <v>80</v>
+      </c>
+      <c r="F75" s="9">
+        <v>120</v>
+      </c>
+      <c r="G75" s="9">
+        <v>160</v>
+      </c>
+      <c r="H75" s="9">
+        <v>200</v>
+      </c>
+      <c r="I75" s="10">
+        <v>40</v>
+      </c>
+      <c r="J75" s="9">
+        <v>80</v>
+      </c>
+      <c r="K75" s="9">
+        <v>120</v>
+      </c>
+      <c r="L75" s="9">
+        <v>160</v>
+      </c>
+      <c r="M75" s="9">
+        <v>200</v>
+      </c>
+      <c r="N75" s="10">
+        <v>40</v>
+      </c>
+      <c r="O75" s="9">
+        <v>80</v>
+      </c>
+      <c r="P75" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>160</v>
+      </c>
+      <c r="R75" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="31"/>
+      <c r="C77" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="7"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="21"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="31"/>
+      <c r="C80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="7"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B81" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B82" s="31"/>
+      <c r="C82" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="7"/>
+    </row>
+    <row r="86" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B86" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B87" s="38"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B88" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="33"/>
+      <c r="D88" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="36"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B89" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="37"/>
+      <c r="D89" s="10">
+        <v>40</v>
+      </c>
+      <c r="E89" s="9">
+        <v>80</v>
+      </c>
+      <c r="F89" s="9">
+        <v>120</v>
+      </c>
+      <c r="G89" s="9">
+        <v>160</v>
+      </c>
+      <c r="H89" s="9">
+        <v>200</v>
+      </c>
+      <c r="I89" s="10">
+        <v>40</v>
+      </c>
+      <c r="J89" s="9">
+        <v>80</v>
+      </c>
+      <c r="K89" s="9">
+        <v>120</v>
+      </c>
+      <c r="L89" s="9">
+        <v>160</v>
+      </c>
+      <c r="M89" s="9">
+        <v>200</v>
+      </c>
+      <c r="N89" s="10">
+        <v>40</v>
+      </c>
+      <c r="O89" s="9">
+        <v>80</v>
+      </c>
+      <c r="P89" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>160</v>
+      </c>
+      <c r="R89" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B90" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B91" s="31"/>
+      <c r="C91" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="7"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B92" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="21"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B93" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B94" s="31"/>
+      <c r="C94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="7"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B95" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B96" s="31"/>
+      <c r="C96" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="7"/>
+    </row>
+    <row r="100" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B100" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B101" s="38"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B102" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="33"/>
+      <c r="D102" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="36"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="37"/>
+      <c r="D103" s="10">
+        <v>40</v>
+      </c>
+      <c r="E103" s="9">
+        <v>80</v>
+      </c>
+      <c r="F103" s="9">
+        <v>120</v>
+      </c>
+      <c r="G103" s="9">
+        <v>160</v>
+      </c>
+      <c r="H103" s="9">
+        <v>200</v>
+      </c>
+      <c r="I103" s="10">
+        <v>40</v>
+      </c>
+      <c r="J103" s="9">
+        <v>80</v>
+      </c>
+      <c r="K103" s="9">
+        <v>120</v>
+      </c>
+      <c r="L103" s="9">
+        <v>160</v>
+      </c>
+      <c r="M103" s="9">
+        <v>200</v>
+      </c>
+      <c r="N103" s="10">
+        <v>40</v>
+      </c>
+      <c r="O103" s="9">
+        <v>80</v>
+      </c>
+      <c r="P103" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q103" s="9">
+        <v>160</v>
+      </c>
+      <c r="R103" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B105" s="31"/>
+      <c r="C105" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="7"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B106" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="21"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B107" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B108" s="31"/>
+      <c r="C108" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="7"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B109" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="3"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B110" s="31"/>
+      <c r="C110" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="7"/>
+    </row>
+    <row r="114" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B114" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B115" s="38"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B116" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="33"/>
+      <c r="D116" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="35"/>
+      <c r="N116" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O116" s="35"/>
+      <c r="P116" s="35"/>
+      <c r="Q116" s="35"/>
+      <c r="R116" s="36"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B117" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="37"/>
+      <c r="D117" s="10">
+        <v>40</v>
+      </c>
+      <c r="E117" s="9">
+        <v>80</v>
+      </c>
+      <c r="F117" s="9">
+        <v>120</v>
+      </c>
+      <c r="G117" s="9">
+        <v>160</v>
+      </c>
+      <c r="H117" s="9">
+        <v>200</v>
+      </c>
+      <c r="I117" s="10">
+        <v>40</v>
+      </c>
+      <c r="J117" s="9">
+        <v>80</v>
+      </c>
+      <c r="K117" s="9">
+        <v>120</v>
+      </c>
+      <c r="L117" s="9">
+        <v>160</v>
+      </c>
+      <c r="M117" s="9">
+        <v>200</v>
+      </c>
+      <c r="N117" s="10">
+        <v>40</v>
+      </c>
+      <c r="O117" s="9">
+        <v>80</v>
+      </c>
+      <c r="P117" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q117" s="9">
+        <v>160</v>
+      </c>
+      <c r="R117" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B118" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="3"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B119" s="31"/>
+      <c r="C119" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="7"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B120" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="29"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="20"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="21"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B121" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="3"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B122" s="31"/>
+      <c r="C122" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="7"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B123" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="3"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B124" s="31"/>
+      <c r="C124" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="7"/>
+    </row>
+    <row r="128" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B128" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B129" s="38"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B130" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="33"/>
+      <c r="D130" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="36"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B131" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="37"/>
+      <c r="D131" s="10">
+        <v>40</v>
+      </c>
+      <c r="E131" s="9">
+        <v>80</v>
+      </c>
+      <c r="F131" s="9">
+        <v>120</v>
+      </c>
+      <c r="G131" s="9">
+        <v>160</v>
+      </c>
+      <c r="H131" s="9">
+        <v>200</v>
+      </c>
+      <c r="I131" s="10">
+        <v>40</v>
+      </c>
+      <c r="J131" s="9">
+        <v>80</v>
+      </c>
+      <c r="K131" s="9">
+        <v>120</v>
+      </c>
+      <c r="L131" s="9">
+        <v>160</v>
+      </c>
+      <c r="M131" s="9">
+        <v>200</v>
+      </c>
+      <c r="N131" s="10">
+        <v>40</v>
+      </c>
+      <c r="O131" s="9">
+        <v>80</v>
+      </c>
+      <c r="P131" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q131" s="9">
+        <v>160</v>
+      </c>
+      <c r="R131" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B132" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="3"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B133" s="31"/>
+      <c r="C133" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="7"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B134" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="29"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="20"/>
+      <c r="R134" s="21"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B135" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="3"/>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B136" s="31"/>
+      <c r="C136" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="7"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B137" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="3"/>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B138" s="31"/>
+      <c r="C138" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="90">
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="I130:M130"/>
+    <mergeCell ref="N130:R130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:R102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="N60:R60"/>
     <mergeCell ref="D46:H46"/>
     <mergeCell ref="I46:M46"/>
     <mergeCell ref="N46:R46"/>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAFEE5-CD96-F640-BB67-7F5844E2740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDB678-0377-E445-91FD-184B9D5D7867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="26880" windowHeight="15480" activeTab="1" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ratios" sheetId="1" r:id="rId1"/>
-    <sheet name="Distributions" sheetId="3" r:id="rId2"/>
-    <sheet name="profits_costs" sheetId="2" r:id="rId3"/>
+    <sheet name="Distributions" sheetId="3" r:id="rId1"/>
+    <sheet name="profits_costs" sheetId="2" r:id="rId2"/>
+    <sheet name="Ratios" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="59">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -171,6 +194,48 @@
   </si>
   <si>
     <t>Distribution of energy within the P2P market in 2016, when users are equipped battery</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 23.068999999999996</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 38.18</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 70.01100000000002</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 102.06300000000003</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 132.15499999999994</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 152.11500000000004</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 210.26500000000001</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 263.2910000000002</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 231.09000000000012</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 313.6860000000003</t>
+  </si>
+  <si>
+    <t>prosumer_consumer_from_Supp 380.4750000000003</t>
+  </si>
+  <si>
+    <t>Finished!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total from self gen. </t>
+  </si>
+  <si>
+    <t>Total to grid.</t>
   </si>
 </sst>
 </file>
@@ -418,12 +483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,7 +502,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,1357 +821,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
-  <dimension ref="C2:T59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:S86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="10">
-        <v>40</v>
-      </c>
-      <c r="F3" s="9">
-        <v>80</v>
-      </c>
-      <c r="G3" s="9">
-        <v>120</v>
-      </c>
-      <c r="H3" s="9">
-        <v>160</v>
-      </c>
-      <c r="I3" s="9">
-        <v>200</v>
-      </c>
-      <c r="J3" s="10">
-        <v>40</v>
-      </c>
-      <c r="K3" s="9">
-        <v>80</v>
-      </c>
-      <c r="L3" s="9">
-        <v>120</v>
-      </c>
-      <c r="M3" s="9">
-        <v>160</v>
-      </c>
-      <c r="N3" s="9">
-        <v>200</v>
-      </c>
-      <c r="O3" s="10">
-        <v>40</v>
-      </c>
-      <c r="P3" s="9">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>120</v>
-      </c>
-      <c r="R3" s="9">
-        <v>160</v>
-      </c>
-      <c r="S3" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>46.908262029716099</v>
-      </c>
-      <c r="F4" s="2">
-        <v>47.9814838066223</v>
-      </c>
-      <c r="G4" s="2">
-        <v>47.598546451576503</v>
-      </c>
-      <c r="H4" s="2">
-        <v>48.643549934273601</v>
-      </c>
-      <c r="I4" s="3">
-        <v>47.4943022555209</v>
-      </c>
-      <c r="J4" s="1">
-        <v>53.926040174800697</v>
-      </c>
-      <c r="K4" s="2">
-        <v>50.121868584200499</v>
-      </c>
-      <c r="L4" s="2">
-        <v>52.249968610598401</v>
-      </c>
-      <c r="M4" s="2">
-        <v>51.546331672417303</v>
-      </c>
-      <c r="N4" s="3">
-        <v>52.362749869924897</v>
-      </c>
-      <c r="O4" s="1">
-        <v>56.047637743750798</v>
-      </c>
-      <c r="P4" s="2">
-        <v>55.143035510998402</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>53.199062632309598</v>
-      </c>
-      <c r="R4" s="2">
-        <v>51.024336633730101</v>
-      </c>
-      <c r="S4" s="3">
-        <v>52.4340589274927</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="31"/>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <f>100-E4</f>
-        <v>53.091737970283901</v>
-      </c>
-      <c r="F5" s="6">
-        <f>100-F4</f>
-        <v>52.0185161933777</v>
-      </c>
-      <c r="G5" s="6">
-        <f>100-G4</f>
-        <v>52.401453548423497</v>
-      </c>
-      <c r="H5" s="6">
-        <f>100-H4</f>
-        <v>51.356450065726399</v>
-      </c>
-      <c r="I5" s="6">
-        <f>100-I4</f>
-        <v>52.5056977444791</v>
-      </c>
-      <c r="J5" s="5">
-        <f>100-J4</f>
-        <v>46.073959825199303</v>
-      </c>
-      <c r="K5" s="6">
-        <f>100-K4</f>
-        <v>49.878131415799501</v>
-      </c>
-      <c r="L5" s="6">
-        <f>100-L4</f>
-        <v>47.750031389401599</v>
-      </c>
-      <c r="M5" s="6">
-        <f>100-M4</f>
-        <v>48.453668327582697</v>
-      </c>
-      <c r="N5" s="6">
-        <f>100-N4</f>
-        <v>47.637250130075103</v>
-      </c>
-      <c r="O5" s="5">
-        <f>100-O4</f>
-        <v>43.952362256249202</v>
-      </c>
-      <c r="P5" s="6">
-        <f>100-P4</f>
-        <v>44.856964489001598</v>
-      </c>
-      <c r="Q5" s="6">
-        <f>100-Q4</f>
-        <v>46.800937367690402</v>
-      </c>
-      <c r="R5" s="6">
-        <f>100-R4</f>
-        <v>48.975663366269899</v>
-      </c>
-      <c r="S5" s="7">
-        <f>100-S4</f>
-        <v>47.5659410725073</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="19">
-        <v>48.75</v>
-      </c>
-      <c r="F6" s="20">
-        <v>47.7083333333333</v>
-      </c>
-      <c r="G6" s="20">
-        <v>48.1944444444444</v>
-      </c>
-      <c r="H6" s="20">
-        <v>47.5</v>
-      </c>
-      <c r="I6" s="21">
-        <v>47.5833333333333</v>
-      </c>
-      <c r="J6" s="19">
-        <v>47.7083333333333</v>
-      </c>
-      <c r="K6" s="20">
-        <v>47.5</v>
-      </c>
-      <c r="L6" s="20">
-        <v>47.5</v>
-      </c>
-      <c r="M6" s="20">
-        <v>47.8645833333333</v>
-      </c>
-      <c r="N6" s="21">
-        <v>47.6666666666666</v>
-      </c>
-      <c r="O6" s="19">
-        <v>48.1944444444444</v>
-      </c>
-      <c r="P6" s="20">
-        <v>47.5</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>47.592592592592503</v>
-      </c>
-      <c r="R6" s="20">
-        <v>47.6736111111111</v>
-      </c>
-      <c r="S6" s="21">
-        <v>47.75</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>18.2758035069842</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14.427854157356499</v>
-      </c>
-      <c r="G7" s="2">
-        <v>15.8352962430255</v>
-      </c>
-      <c r="H7" s="2">
-        <v>14.1977305748857</v>
-      </c>
-      <c r="I7" s="3">
-        <v>13.2831082542116</v>
-      </c>
-      <c r="J7" s="1">
-        <v>14.427854157356499</v>
-      </c>
-      <c r="K7" s="2">
-        <v>14.1977305748857</v>
-      </c>
-      <c r="L7" s="2">
-        <v>12.9328870423672</v>
-      </c>
-      <c r="M7" s="2">
-        <v>13.538142183344</v>
-      </c>
-      <c r="N7" s="3">
-        <v>13.802906372389399</v>
-      </c>
-      <c r="O7" s="1">
-        <v>15.8352962430255</v>
-      </c>
-      <c r="P7" s="2">
-        <v>12.9328870423672</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>12.9980186037682</v>
-      </c>
-      <c r="R7" s="2">
-        <v>13.5612008431563</v>
-      </c>
-      <c r="S7" s="3">
-        <v>12.797417560660501</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="31"/>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5">
-        <f>100 -E7</f>
-        <v>81.724196493015796</v>
-      </c>
-      <c r="F8" s="6">
-        <f>100 -F7</f>
-        <v>85.572145842643494</v>
-      </c>
-      <c r="G8" s="6">
-        <f>100 -G7</f>
-        <v>84.164703756974504</v>
-      </c>
-      <c r="H8" s="6">
-        <f>100 -H7</f>
-        <v>85.802269425114304</v>
-      </c>
-      <c r="I8" s="6">
-        <f>100 -I7</f>
-        <v>86.716891745788402</v>
-      </c>
-      <c r="J8" s="5">
-        <f>100 -J7</f>
-        <v>85.572145842643494</v>
-      </c>
-      <c r="K8" s="6">
-        <f>100 -K7</f>
-        <v>85.802269425114304</v>
-      </c>
-      <c r="L8" s="6">
-        <f>100 -L7</f>
-        <v>87.067112957632801</v>
-      </c>
-      <c r="M8" s="6">
-        <f>100 -M7</f>
-        <v>86.461857816655993</v>
-      </c>
-      <c r="N8" s="6">
-        <f>100 -N7</f>
-        <v>86.197093627610599</v>
-      </c>
-      <c r="O8" s="5">
-        <f>100 -O7</f>
-        <v>84.164703756974504</v>
-      </c>
-      <c r="P8" s="6">
-        <f>100 -P7</f>
-        <v>87.067112957632801</v>
-      </c>
-      <c r="Q8" s="6">
-        <f>100 -Q7</f>
-        <v>87.001981396231798</v>
-      </c>
-      <c r="R8" s="6">
-        <f>100 -R7</f>
-        <v>86.4387991568437</v>
-      </c>
-      <c r="S8" s="7">
-        <f>100 -S7</f>
-        <v>87.202582439339494</v>
-      </c>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="27"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C10" s="27"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="27"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C14" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="10">
-        <v>40</v>
-      </c>
-      <c r="F17" s="9">
-        <v>80</v>
-      </c>
-      <c r="G17" s="9">
-        <v>120</v>
-      </c>
-      <c r="H17" s="9">
-        <v>160</v>
-      </c>
-      <c r="I17" s="9">
-        <v>200</v>
-      </c>
-      <c r="J17" s="10">
-        <v>40</v>
-      </c>
-      <c r="K17" s="9">
-        <v>80</v>
-      </c>
-      <c r="L17" s="9">
-        <v>120</v>
-      </c>
-      <c r="M17" s="9">
-        <v>160</v>
-      </c>
-      <c r="N17" s="9">
-        <v>200</v>
-      </c>
-      <c r="O17" s="10">
-        <v>40</v>
-      </c>
-      <c r="P17" s="9">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>120</v>
-      </c>
-      <c r="R17" s="9">
-        <v>160</v>
-      </c>
-      <c r="S17" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>95.339746556256799</v>
-      </c>
-      <c r="F18" s="2">
-        <v>95.236301776194495</v>
-      </c>
-      <c r="G18" s="2">
-        <v>94.951416141428993</v>
-      </c>
-      <c r="H18" s="2">
-        <v>95.213545370067706</v>
-      </c>
-      <c r="I18" s="3">
-        <v>94.603454592772593</v>
-      </c>
-      <c r="J18" s="1">
-        <v>100</v>
-      </c>
-      <c r="K18" s="2">
-        <v>100</v>
-      </c>
-      <c r="L18" s="2">
-        <v>100</v>
-      </c>
-      <c r="M18" s="2">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="1">
-        <v>100</v>
-      </c>
-      <c r="P18" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>100</v>
-      </c>
-      <c r="R18" s="2">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="31"/>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5">
-        <f>100-E18</f>
-        <v>4.6602534437432013</v>
-      </c>
-      <c r="F19" s="6">
-        <f>100-F18</f>
-        <v>4.7636982238055054</v>
-      </c>
-      <c r="G19" s="6">
-        <f>100-G18</f>
-        <v>5.048583858571007</v>
-      </c>
-      <c r="H19" s="6">
-        <f>100-H18</f>
-        <v>4.7864546299322939</v>
-      </c>
-      <c r="I19" s="6">
-        <f>100-I18</f>
-        <v>5.3965454072274071</v>
-      </c>
-      <c r="J19" s="5">
-        <f>100-J18</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <f>100-K18</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <f>100-L18</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <f>100-M18</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <f>100-N18</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <f>100-O18</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <f>100-P18</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <f>100-Q18</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <f>100-R18</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <f>100-S18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="22">
-        <v>9.5833333333333304</v>
-      </c>
-      <c r="F20" s="22">
-        <v>8.125</v>
-      </c>
-      <c r="G20" s="22">
-        <v>10</v>
-      </c>
-      <c r="H20" s="22">
-        <v>9.0625</v>
-      </c>
-      <c r="I20" s="22">
-        <v>8.75</v>
-      </c>
-      <c r="J20" s="22">
-        <v>1.25</v>
-      </c>
-      <c r="K20" s="22">
-        <v>2.1875</v>
-      </c>
-      <c r="L20" s="22">
-        <v>2.01388888888888</v>
-      </c>
-      <c r="M20" s="22">
-        <v>2.2395833333333299</v>
-      </c>
-      <c r="N20" s="22">
-        <v>2.0416666666666599</v>
-      </c>
-      <c r="O20" s="22">
-        <v>2.0833333333333299</v>
-      </c>
-      <c r="P20" s="22">
-        <v>1.5277777777777699</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>1.43518518518518</v>
-      </c>
-      <c r="R20" s="22">
-        <v>1.38888888888888</v>
-      </c>
-      <c r="S20" s="22">
-        <v>1.13888888888888</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1">
-        <v>30.2555080933959</v>
-      </c>
-      <c r="F21" s="2">
-        <v>22.9915734558809</v>
-      </c>
-      <c r="G21" s="2">
-        <v>26.542391631025701</v>
-      </c>
-      <c r="H21" s="2">
-        <v>27.1493428025498</v>
-      </c>
-      <c r="I21" s="3">
-        <v>24.9939989033867</v>
-      </c>
-      <c r="J21" s="1">
-        <v>31.4444893693639</v>
-      </c>
-      <c r="K21" s="2">
-        <v>38.443509138519801</v>
-      </c>
-      <c r="L21" s="2">
-        <v>42.461627256396199</v>
-      </c>
-      <c r="M21" s="2">
-        <v>42.849986391997199</v>
-      </c>
-      <c r="N21" s="3">
-        <v>44.206614573216399</v>
-      </c>
-      <c r="O21" s="1">
-        <v>52.042744265118202</v>
-      </c>
-      <c r="P21" s="2">
-        <v>54.849193678186303</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>56.252546286901001</v>
-      </c>
-      <c r="R21" s="2">
-        <v>56.788186778684199</v>
-      </c>
-      <c r="S21" s="3">
-        <v>57.474110862417398</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="31"/>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5">
-        <f>100 -E21</f>
-        <v>69.744491906604097</v>
-      </c>
-      <c r="F22" s="6">
-        <f>100 -F21</f>
-        <v>77.008426544119104</v>
-      </c>
-      <c r="G22" s="6">
-        <f>100 -G21</f>
-        <v>73.457608368974292</v>
-      </c>
-      <c r="H22" s="6">
-        <f>100 -H21</f>
-        <v>72.850657197450204</v>
-      </c>
-      <c r="I22" s="6">
-        <f>100 -I21</f>
-        <v>75.006001096613304</v>
-      </c>
-      <c r="J22" s="5">
-        <f>100 -J21</f>
-        <v>68.555510630636093</v>
-      </c>
-      <c r="K22" s="6">
-        <f>100 -K21</f>
-        <v>61.556490861480199</v>
-      </c>
-      <c r="L22" s="6">
-        <f>100 -L21</f>
-        <v>57.538372743603801</v>
-      </c>
-      <c r="M22" s="6">
-        <f>100 -M21</f>
-        <v>57.150013608002801</v>
-      </c>
-      <c r="N22" s="6">
-        <f>100 -N21</f>
-        <v>55.793385426783601</v>
-      </c>
-      <c r="O22" s="5">
-        <f>100 -O21</f>
-        <v>47.957255734881798</v>
-      </c>
-      <c r="P22" s="6">
-        <f>100 -P21</f>
-        <v>45.150806321813697</v>
-      </c>
-      <c r="Q22" s="6">
-        <f>100 -Q21</f>
-        <v>43.747453713098999</v>
-      </c>
-      <c r="R22" s="6">
-        <f>100 -R21</f>
-        <v>43.211813221315801</v>
-      </c>
-      <c r="S22" s="7">
-        <f>100 -S21</f>
-        <v>42.525889137582602</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C37" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="36"/>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="10">
-        <v>40</v>
-      </c>
-      <c r="F38" s="9">
-        <v>80</v>
-      </c>
-      <c r="G38" s="9">
-        <v>120</v>
-      </c>
-      <c r="H38" s="9">
-        <v>160</v>
-      </c>
-      <c r="I38" s="9">
-        <v>200</v>
-      </c>
-      <c r="J38" s="10">
-        <v>40</v>
-      </c>
-      <c r="K38" s="9">
-        <v>80</v>
-      </c>
-      <c r="L38" s="9">
-        <v>120</v>
-      </c>
-      <c r="M38" s="9">
-        <v>160</v>
-      </c>
-      <c r="N38" s="9">
-        <v>200</v>
-      </c>
-      <c r="O38" s="10">
-        <v>40</v>
-      </c>
-      <c r="P38" s="9">
-        <v>80</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>120</v>
-      </c>
-      <c r="R38" s="9">
-        <v>160</v>
-      </c>
-      <c r="S38" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="31"/>
-      <c r="D40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="7"/>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="21"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="31"/>
-      <c r="D43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="7"/>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="31"/>
-      <c r="D45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C46" s="27"/>
-      <c r="D46" s="18"/>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C49" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C51" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="34">
-        <v>0.75</v>
-      </c>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="36"/>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C52" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="10">
-        <v>40</v>
-      </c>
-      <c r="F52" s="9">
-        <v>80</v>
-      </c>
-      <c r="G52" s="9">
-        <v>120</v>
-      </c>
-      <c r="H52" s="9">
-        <v>160</v>
-      </c>
-      <c r="I52" s="9">
-        <v>200</v>
-      </c>
-      <c r="J52" s="10">
-        <v>40</v>
-      </c>
-      <c r="K52" s="9">
-        <v>80</v>
-      </c>
-      <c r="L52" s="9">
-        <v>120</v>
-      </c>
-      <c r="M52" s="9">
-        <v>160</v>
-      </c>
-      <c r="N52" s="9">
-        <v>200</v>
-      </c>
-      <c r="O52" s="10">
-        <v>40</v>
-      </c>
-      <c r="P52" s="9">
-        <v>80</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>120</v>
-      </c>
-      <c r="R52" s="9">
-        <v>160</v>
-      </c>
-      <c r="S52" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C53" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="3"/>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C54" s="31"/>
-      <c r="D54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="7"/>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C55" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="22">
-        <v>90.4166666666667</v>
-      </c>
-      <c r="F55" s="22">
-        <v>91.875</v>
-      </c>
-      <c r="G55" s="22">
-        <v>90</v>
-      </c>
-      <c r="H55" s="22">
-        <v>90.9375</v>
-      </c>
-      <c r="I55" s="22">
-        <v>91.25</v>
-      </c>
-      <c r="J55" s="22">
-        <v>98.75</v>
-      </c>
-      <c r="K55" s="22">
-        <v>97.8125</v>
-      </c>
-      <c r="L55" s="22">
-        <v>97.986111111111114</v>
-      </c>
-      <c r="M55" s="22">
-        <v>97.760416666666671</v>
-      </c>
-      <c r="N55" s="22">
-        <v>97.958333333333343</v>
-      </c>
-      <c r="O55" s="22">
-        <v>97.916666666666671</v>
-      </c>
-      <c r="P55" s="22">
-        <v>98.472222222222229</v>
-      </c>
-      <c r="Q55" s="22">
-        <v>98.564814814814824</v>
-      </c>
-      <c r="R55" s="22">
-        <v>98.611111111111114</v>
-      </c>
-      <c r="S55" s="21">
-        <v>98.861111111111114</v>
-      </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C56" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C57" s="31"/>
-      <c r="D57" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="7"/>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C58" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="3"/>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C59" s="31"/>
-      <c r="D59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:S37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:R138"/>
+  <dimension ref="B2:AJ138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,46 +833,95 @@
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+    <row r="3" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33">
         <v>0.25</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33">
         <v>0.5</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="34">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33">
         <v>0.75</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
+      <c r="T4">
+        <v>23.068999999999999</v>
+      </c>
+      <c r="V4" cm="1">
+        <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
+        <v>23.068999999999999</v>
+      </c>
+      <c r="W4">
+        <v>38.18</v>
+      </c>
+      <c r="X4">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>102.063</v>
+      </c>
+      <c r="Z4">
+        <v>132.15499999999901</v>
+      </c>
+      <c r="AA4">
+        <v>38.18</v>
+      </c>
+      <c r="AB4">
+        <v>102.063</v>
+      </c>
+      <c r="AC4">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="AD4">
+        <v>210.26499999999999</v>
+      </c>
+      <c r="AE4">
+        <v>263.291</v>
+      </c>
+      <c r="AF4">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="AG4">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="AH4">
+        <v>231.09</v>
+      </c>
+      <c r="AI4">
+        <v>313.68599999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>380.47500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="10">
         <v>40</v>
       </c>
@@ -2199,200 +967,458 @@
       <c r="R5" s="11">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="T5">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
+      <c r="D6" s="1">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="E6" s="2">
+        <v>162.74799999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="G6" s="2">
+        <v>294.63400000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>378.77199999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>58.515000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>111.81399999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>214.83699999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="N6" s="1">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="O6" s="2">
+        <v>60.058999999999898</v>
+      </c>
+      <c r="P6" s="2">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>113.94099999999899</v>
+      </c>
+      <c r="R6" s="3">
+        <v>143.09599999999901</v>
+      </c>
+      <c r="T6">
+        <v>70.010999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="D7" s="5">
+        <v>90.058999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <v>189.91899999999899</v>
+      </c>
+      <c r="F7" s="6">
+        <v>250.551999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>333.44899999999899</v>
+      </c>
+      <c r="H7" s="6">
+        <v>439.83199999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>59.173000000000002</v>
+      </c>
+      <c r="J7" s="6">
+        <v>118.097999999999</v>
+      </c>
+      <c r="K7" s="6">
+        <v>177.28799999999899</v>
+      </c>
+      <c r="L7" s="6">
+        <v>217.009999999999</v>
+      </c>
+      <c r="M7" s="6">
+        <v>253.658999999999</v>
+      </c>
+      <c r="N7" s="5">
+        <v>31.5259999999999</v>
+      </c>
+      <c r="O7" s="6">
+        <v>57.628999999999998</v>
+      </c>
+      <c r="P7" s="6">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>115.97099999999899</v>
+      </c>
+      <c r="R7" s="7">
+        <v>139.35499999999999</v>
+      </c>
+      <c r="T7">
+        <v>102.063</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="19">
+        <v>44.5833333333333</v>
+      </c>
+      <c r="E8" s="20">
+        <v>37.5</v>
+      </c>
+      <c r="F8" s="20">
+        <v>38.6111111111111</v>
+      </c>
+      <c r="G8" s="20">
+        <v>40.1041666666666</v>
+      </c>
+      <c r="H8" s="21">
+        <v>41.1666666666666</v>
+      </c>
+      <c r="I8" s="19">
+        <v>37.5</v>
+      </c>
+      <c r="J8" s="20">
+        <v>40.1041666666666</v>
+      </c>
+      <c r="K8" s="20">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="L8" s="20">
+        <v>41.3541666666666</v>
+      </c>
+      <c r="M8" s="21">
+        <v>42</v>
+      </c>
+      <c r="N8" s="19">
+        <v>38.6111111111111</v>
+      </c>
+      <c r="O8" s="20">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="P8" s="20">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>40.9375</v>
+      </c>
+      <c r="R8" s="21">
+        <v>39.9444444444444</v>
+      </c>
+      <c r="T8">
+        <v>132.15499999999901</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
+      <c r="D9" s="1">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="E9" s="2">
+        <v>162.74799999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="G9" s="2">
+        <v>294.63400000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>378.77199999999903</v>
+      </c>
+      <c r="I9" s="1">
+        <v>58.514999999999901</v>
+      </c>
+      <c r="J9" s="2">
+        <v>111.81399999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <v>214.83699999999899</v>
+      </c>
+      <c r="M9" s="3">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="N9" s="1">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <v>60.058999999999898</v>
+      </c>
+      <c r="P9" s="2">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>113.941</v>
+      </c>
+      <c r="R9" s="3">
+        <v>143.096</v>
+      </c>
+      <c r="T9">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="5">
+        <v>195.36699999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>381.154</v>
+      </c>
+      <c r="F10" s="6">
+        <v>579.78699999999901</v>
+      </c>
+      <c r="G10" s="6">
+        <v>762.29899999999895</v>
+      </c>
+      <c r="H10" s="6">
+        <v>945.03800000000001</v>
+      </c>
+      <c r="I10" s="5">
+        <v>485.387</v>
+      </c>
+      <c r="J10" s="6">
+        <v>945.11899999999901</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1417.0039999999899</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1892.183</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2384.942</v>
+      </c>
+      <c r="N10" s="5">
+        <v>761.87199999999905</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1532.3239999999901</v>
+      </c>
+      <c r="P10" s="6">
+        <v>2299.84</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>3068.0509999999999</v>
+      </c>
+      <c r="R10" s="7">
+        <v>3867.1559999999899</v>
+      </c>
+      <c r="T10">
+        <v>102.063</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
+      <c r="D11" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.855</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.5509999999999904</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.855</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7.4279999999999902</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="M11" s="3">
+        <v>11.442</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="O11" s="2">
+        <v>7.4279999999999902</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10.285</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>14.750999999999999</v>
+      </c>
+      <c r="R11" s="3">
+        <v>16.777999999999899</v>
+      </c>
+      <c r="T11">
+        <v>152.11500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B12" s="30"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="16" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="38" t="s">
+      <c r="D12" s="5">
+        <v>23.068999999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>38.18</v>
+      </c>
+      <c r="F12" s="6">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="G12" s="6">
+        <v>102.063</v>
+      </c>
+      <c r="H12" s="6">
+        <v>132.15499999999901</v>
+      </c>
+      <c r="I12" s="5">
+        <v>38.18</v>
+      </c>
+      <c r="J12" s="6">
+        <v>102.063</v>
+      </c>
+      <c r="K12" s="6">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>210.26499999999999</v>
+      </c>
+      <c r="M12" s="6">
+        <v>263.291</v>
+      </c>
+      <c r="N12" s="5">
+        <v>70.010999999999996</v>
+      </c>
+      <c r="O12" s="6">
+        <v>152.11500000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <v>231.09</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>313.68599999999998</v>
+      </c>
+      <c r="R12" s="7">
+        <v>380.47500000000002</v>
+      </c>
+      <c r="T12">
+        <v>210.26499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>263.291</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>70.010999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>152.11500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
+      <c r="T16">
+        <v>231.09</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="28"/>
+      <c r="T17">
+        <v>313.68599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33">
         <v>0.25</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33">
         <v>0.5</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="34">
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="33">
         <v>0.75</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+      <c r="T18">
+        <v>380.47500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="37"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="10">
         <v>40</v>
       </c>
@@ -2439,8 +1465,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2462,8 +1488,8 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="31"/>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -2483,11 +1509,11 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -2504,8 +1530,8 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2527,8 +1553,8 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
@@ -2548,12 +1574,12 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -2571,8 +1597,8 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="30"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
@@ -2592,46 +1618,46 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="30" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="38"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="32" t="s">
+    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34">
+      <c r="C32" s="32"/>
+      <c r="D32" s="33">
         <v>0.25</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="34">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="33">
         <v>0.5</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="34">
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="33">
         <v>0.75</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="36"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10">
         <v>40</v>
       </c>
@@ -2679,7 +1705,7 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2702,7 +1728,7 @@
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="31"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
@@ -2723,10 +1749,10 @@
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -2744,7 +1770,7 @@
       <c r="R36" s="21"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2767,7 +1793,7 @@
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="s">
         <v>30</v>
       </c>
@@ -2788,7 +1814,7 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2811,7 +1837,7 @@
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="31"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
@@ -2832,45 +1858,45 @@
       <c r="R40" s="7"/>
     </row>
     <row r="44" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="38"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="34">
+      <c r="C46" s="32"/>
+      <c r="D46" s="33">
         <v>0.25</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="34">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="33">
         <v>0.5</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="34">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="33">
         <v>0.75</v>
       </c>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="36"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="35"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="10">
         <v>40</v>
       </c>
@@ -2918,7 +1944,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -2941,7 +1967,7 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="31"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8" t="s">
         <v>26</v>
       </c>
@@ -2962,10 +1988,10 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2983,7 +2009,7 @@
       <c r="R50" s="21"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -3006,7 +2032,7 @@
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="31"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8" t="s">
         <v>30</v>
       </c>
@@ -3027,7 +2053,7 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3050,7 +2076,7 @@
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="31"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="12" t="s">
         <v>26</v>
       </c>
@@ -3071,45 +2097,45 @@
       <c r="R54" s="7"/>
     </row>
     <row r="58" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B59" s="38"/>
+      <c r="B59" s="28"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34">
+      <c r="C60" s="32"/>
+      <c r="D60" s="33">
         <v>0.25</v>
       </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="34">
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="33">
         <v>0.5</v>
       </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="34">
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="33">
         <v>0.75</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="36"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="35"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="10">
         <v>40</v>
       </c>
@@ -3157,7 +2183,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3180,7 +2206,7 @@
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="31"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="8" t="s">
         <v>26</v>
       </c>
@@ -3201,10 +2227,10 @@
       <c r="R63" s="7"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="29"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="19"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
@@ -3222,7 +2248,7 @@
       <c r="R64" s="21"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -3245,7 +2271,7 @@
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="31"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="8" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +2292,7 @@
       <c r="R66" s="7"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -3289,7 +2315,7 @@
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="31"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="12" t="s">
         <v>26</v>
       </c>
@@ -3310,45 +2336,45 @@
       <c r="R68" s="7"/>
     </row>
     <row r="72" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B73" s="38"/>
+      <c r="B73" s="28"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34">
+      <c r="C74" s="32"/>
+      <c r="D74" s="33">
         <v>0.25</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="34">
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="33">
         <v>0.5</v>
       </c>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="34">
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="33">
         <v>0.75</v>
       </c>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="36"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="35"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="37"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="10">
         <v>40</v>
       </c>
@@ -3396,7 +2422,7 @@
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -3419,7 +2445,7 @@
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="31"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="8" t="s">
         <v>26</v>
       </c>
@@ -3440,10 +2466,10 @@
       <c r="R77" s="7"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="29"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -3461,7 +2487,7 @@
       <c r="R78" s="21"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -3484,7 +2510,7 @@
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="31"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="8" t="s">
         <v>30</v>
       </c>
@@ -3505,7 +2531,7 @@
       <c r="R80" s="7"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -3528,7 +2554,7 @@
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="31"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="12" t="s">
         <v>26</v>
       </c>
@@ -3549,45 +2575,45 @@
       <c r="R82" s="7"/>
     </row>
     <row r="86" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B86" s="38" t="s">
+      <c r="B86" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="87" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B87" s="38"/>
+      <c r="B87" s="28"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="34">
+      <c r="C88" s="32"/>
+      <c r="D88" s="33">
         <v>0.25</v>
       </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="34">
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="33">
         <v>0.5</v>
       </c>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="34">
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="33">
         <v>0.75</v>
       </c>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="36"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="35"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="37"/>
+      <c r="C89" s="36"/>
       <c r="D89" s="10">
         <v>40</v>
       </c>
@@ -3635,7 +2661,7 @@
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -3658,7 +2684,7 @@
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="31"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
@@ -3679,10 +2705,10 @@
       <c r="R91" s="7"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="29"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -3700,7 +2726,7 @@
       <c r="R92" s="21"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -3723,7 +2749,7 @@
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="31"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="8" t="s">
         <v>30</v>
       </c>
@@ -3744,7 +2770,7 @@
       <c r="R94" s="7"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -3767,7 +2793,7 @@
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="31"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="12" t="s">
         <v>26</v>
       </c>
@@ -3788,45 +2814,45 @@
       <c r="R96" s="7"/>
     </row>
     <row r="100" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="101" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B101" s="38"/>
+      <c r="B101" s="28"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34">
+      <c r="C102" s="32"/>
+      <c r="D102" s="33">
         <v>0.25</v>
       </c>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="34">
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="33">
         <v>0.5</v>
       </c>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="34">
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="33">
         <v>0.75</v>
       </c>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="36"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="35"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="36"/>
       <c r="D103" s="10">
         <v>40</v>
       </c>
@@ -3874,7 +2900,7 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="8" t="s">
@@ -3897,7 +2923,7 @@
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="31"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="8" t="s">
         <v>26</v>
       </c>
@@ -3918,10 +2944,10 @@
       <c r="R105" s="7"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="29"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -3939,7 +2965,7 @@
       <c r="R106" s="21"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C107" s="8" t="s">
@@ -3962,7 +2988,7 @@
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="31"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="8" t="s">
         <v>30</v>
       </c>
@@ -3983,7 +3009,7 @@
       <c r="R108" s="7"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -4006,7 +3032,7 @@
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="31"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="12" t="s">
         <v>26</v>
       </c>
@@ -4027,45 +3053,45 @@
       <c r="R110" s="7"/>
     </row>
     <row r="114" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="115" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B115" s="38"/>
+      <c r="B115" s="28"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="32" t="s">
+      <c r="B116" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="33"/>
-      <c r="D116" s="34">
+      <c r="C116" s="32"/>
+      <c r="D116" s="33">
         <v>0.25</v>
       </c>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="34">
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="33">
         <v>0.5</v>
       </c>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="35"/>
-      <c r="M116" s="35"/>
-      <c r="N116" s="34">
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="33">
         <v>0.75</v>
       </c>
-      <c r="O116" s="35"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
-      <c r="R116" s="36"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="35"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="37"/>
+      <c r="C117" s="36"/>
       <c r="D117" s="10">
         <v>40</v>
       </c>
@@ -4113,7 +3139,7 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -4136,7 +3162,7 @@
       <c r="R118" s="3"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="31"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="8" t="s">
         <v>26</v>
       </c>
@@ -4157,10 +3183,10 @@
       <c r="R119" s="7"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="28" t="s">
+      <c r="B120" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="29"/>
+      <c r="C120" s="38"/>
       <c r="D120" s="19"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -4178,7 +3204,7 @@
       <c r="R120" s="21"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -4201,7 +3227,7 @@
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="31"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="8" t="s">
         <v>30</v>
       </c>
@@ -4222,7 +3248,7 @@
       <c r="R122" s="7"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -4245,7 +3271,7 @@
       <c r="R123" s="3"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="31"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="12" t="s">
         <v>26</v>
       </c>
@@ -4266,45 +3292,45 @@
       <c r="R124" s="7"/>
     </row>
     <row r="128" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="129" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B129" s="38"/>
+      <c r="B129" s="28"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="33"/>
-      <c r="D130" s="34">
+      <c r="C130" s="32"/>
+      <c r="D130" s="33">
         <v>0.25</v>
       </c>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
-      <c r="I130" s="34">
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="33">
         <v>0.5</v>
       </c>
-      <c r="J130" s="35"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35"/>
-      <c r="N130" s="34">
+      <c r="J130" s="34"/>
+      <c r="K130" s="34"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="34"/>
+      <c r="N130" s="33">
         <v>0.75</v>
       </c>
-      <c r="O130" s="35"/>
-      <c r="P130" s="35"/>
-      <c r="Q130" s="35"/>
-      <c r="R130" s="36"/>
+      <c r="O130" s="34"/>
+      <c r="P130" s="34"/>
+      <c r="Q130" s="34"/>
+      <c r="R130" s="35"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="37"/>
+      <c r="C131" s="36"/>
       <c r="D131" s="10">
         <v>40</v>
       </c>
@@ -4352,7 +3378,7 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -4375,7 +3401,7 @@
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="31"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="8" t="s">
         <v>26</v>
       </c>
@@ -4396,10 +3422,10 @@
       <c r="R133" s="7"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="28" t="s">
+      <c r="B134" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C134" s="29"/>
+      <c r="C134" s="38"/>
       <c r="D134" s="19"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -4417,7 +3443,7 @@
       <c r="R134" s="21"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -4440,7 +3466,7 @@
       <c r="R135" s="3"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="31"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="8" t="s">
         <v>30</v>
       </c>
@@ -4461,7 +3487,7 @@
       <c r="R136" s="7"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -4484,7 +3510,7 @@
       <c r="R137" s="3"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="31"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="12" t="s">
         <v>26</v>
       </c>
@@ -4506,74 +3532,12 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="I130:M130"/>
-    <mergeCell ref="N130:R130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:R102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="N60:R60"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="N4:R4"/>
@@ -4590,18 +3554,80 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="N60:R60"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:R102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="I130:M130"/>
+    <mergeCell ref="N130:R130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B130:C130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16913C08-CCDF-B847-BA91-FA8FC5216A2A}">
   <dimension ref="C2:U31"/>
   <sheetViews>
@@ -4693,7 +3719,7 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -4716,7 +3742,7 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4737,7 +3763,7 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -4790,7 +3816,7 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -4811,7 +3837,7 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4834,7 +3860,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="31"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -4938,7 +3964,7 @@
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -4961,7 +3987,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C18" s="31"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -4982,7 +4008,7 @@
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -5035,7 +4061,7 @@
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -5056,7 +4082,7 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -5079,7 +4105,7 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C22" s="31"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -5146,4 +4172,2216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7967B9-4D9D-A349-B118-61DC7AF534AF}">
+  <dimension ref="C2:T59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:S86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="10">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9">
+        <v>120</v>
+      </c>
+      <c r="H3" s="9">
+        <v>160</v>
+      </c>
+      <c r="I3" s="9">
+        <v>200</v>
+      </c>
+      <c r="J3" s="10">
+        <v>40</v>
+      </c>
+      <c r="K3" s="9">
+        <v>80</v>
+      </c>
+      <c r="L3" s="9">
+        <v>120</v>
+      </c>
+      <c r="M3" s="9">
+        <v>160</v>
+      </c>
+      <c r="N3" s="9">
+        <v>200</v>
+      </c>
+      <c r="O3" s="10">
+        <v>40</v>
+      </c>
+      <c r="P3" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>120</v>
+      </c>
+      <c r="R3" s="9">
+        <v>160</v>
+      </c>
+      <c r="S3" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46.908262029716099</v>
+      </c>
+      <c r="F4" s="2">
+        <v>47.9814838066223</v>
+      </c>
+      <c r="G4" s="2">
+        <v>47.598546451576503</v>
+      </c>
+      <c r="H4" s="2">
+        <v>48.643549934273601</v>
+      </c>
+      <c r="I4" s="3">
+        <v>47.4943022555209</v>
+      </c>
+      <c r="J4" s="1">
+        <v>53.926040174800697</v>
+      </c>
+      <c r="K4" s="2">
+        <v>50.121868584200499</v>
+      </c>
+      <c r="L4" s="2">
+        <v>52.249968610598401</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51.546331672417303</v>
+      </c>
+      <c r="N4" s="3">
+        <v>52.362749869924897</v>
+      </c>
+      <c r="O4" s="1">
+        <v>56.047637743750798</v>
+      </c>
+      <c r="P4" s="2">
+        <v>55.143035510998402</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>53.199062632309598</v>
+      </c>
+      <c r="R4" s="2">
+        <v>51.024336633730101</v>
+      </c>
+      <c r="S4" s="3">
+        <v>52.4340589274927</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="30"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:S5" si="0">100-E4</f>
+        <v>53.091737970283901</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>52.0185161933777</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>52.401453548423497</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>51.356450065726399</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>52.5056977444791</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>46.073959825199303</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>49.878131415799501</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>47.750031389401599</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>48.453668327582697</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>47.637250130075103</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>43.952362256249202</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="0"/>
+        <v>44.856964489001598</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>46.800937367690402</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>48.975663366269899</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="0"/>
+        <v>47.5659410725073</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="19">
+        <v>48.75</v>
+      </c>
+      <c r="F6" s="20">
+        <v>47.7083333333333</v>
+      </c>
+      <c r="G6" s="20">
+        <v>48.1944444444444</v>
+      </c>
+      <c r="H6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="I6" s="21">
+        <v>47.5833333333333</v>
+      </c>
+      <c r="J6" s="19">
+        <v>47.7083333333333</v>
+      </c>
+      <c r="K6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="L6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="M6" s="20">
+        <v>47.8645833333333</v>
+      </c>
+      <c r="N6" s="21">
+        <v>47.6666666666666</v>
+      </c>
+      <c r="O6" s="19">
+        <v>48.1944444444444</v>
+      </c>
+      <c r="P6" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>47.592592592592503</v>
+      </c>
+      <c r="R6" s="20">
+        <v>47.6736111111111</v>
+      </c>
+      <c r="S6" s="21">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18.2758035069842</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14.427854157356499</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15.8352962430255</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14.1977305748857</v>
+      </c>
+      <c r="I7" s="3">
+        <v>13.2831082542116</v>
+      </c>
+      <c r="J7" s="1">
+        <v>14.427854157356499</v>
+      </c>
+      <c r="K7" s="2">
+        <v>14.1977305748857</v>
+      </c>
+      <c r="L7" s="2">
+        <v>12.9328870423672</v>
+      </c>
+      <c r="M7" s="2">
+        <v>13.538142183344</v>
+      </c>
+      <c r="N7" s="3">
+        <v>13.802906372389399</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15.8352962430255</v>
+      </c>
+      <c r="P7" s="2">
+        <v>12.9328870423672</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>12.9980186037682</v>
+      </c>
+      <c r="R7" s="2">
+        <v>13.5612008431563</v>
+      </c>
+      <c r="S7" s="3">
+        <v>12.797417560660501</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C8" s="30"/>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:S8" si="1">100 -E7</f>
+        <v>81.724196493015796</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>85.572145842643494</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>84.164703756974504</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>85.802269425114304</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>86.716891745788402</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>85.572145842643494</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="1"/>
+        <v>85.802269425114304</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>87.067112957632801</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="1"/>
+        <v>86.461857816655993</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="1"/>
+        <v>86.197093627610599</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>84.164703756974504</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="1"/>
+        <v>87.067112957632801</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="1"/>
+        <v>87.001981396231798</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="1"/>
+        <v>86.4387991568437</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="1"/>
+        <v>87.202582439339494</v>
+      </c>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="27"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C10" s="27"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="27"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C14" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="10">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9">
+        <v>80</v>
+      </c>
+      <c r="G17" s="9">
+        <v>120</v>
+      </c>
+      <c r="H17" s="9">
+        <v>160</v>
+      </c>
+      <c r="I17" s="9">
+        <v>200</v>
+      </c>
+      <c r="J17" s="10">
+        <v>40</v>
+      </c>
+      <c r="K17" s="9">
+        <v>80</v>
+      </c>
+      <c r="L17" s="9">
+        <v>120</v>
+      </c>
+      <c r="M17" s="9">
+        <v>160</v>
+      </c>
+      <c r="N17" s="9">
+        <v>200</v>
+      </c>
+      <c r="O17" s="10">
+        <v>40</v>
+      </c>
+      <c r="P17" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>120</v>
+      </c>
+      <c r="R17" s="9">
+        <v>160</v>
+      </c>
+      <c r="S17" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>95.339746556256799</v>
+      </c>
+      <c r="F18" s="2">
+        <v>95.236301776194495</v>
+      </c>
+      <c r="G18" s="2">
+        <v>94.951416141428993</v>
+      </c>
+      <c r="H18" s="2">
+        <v>95.213545370067706</v>
+      </c>
+      <c r="I18" s="3">
+        <v>94.603454592772593</v>
+      </c>
+      <c r="J18" s="1">
+        <v>100</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>100</v>
+      </c>
+      <c r="R18" s="2">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="30"/>
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19:S19" si="2">100-E18</f>
+        <v>4.6602534437432013</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7636982238055054</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>5.048583858571007</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7864546299322939</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3965454072274071</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="22">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="F20" s="22">
+        <v>8.125</v>
+      </c>
+      <c r="G20" s="22">
+        <v>10</v>
+      </c>
+      <c r="H20" s="22">
+        <v>9.0625</v>
+      </c>
+      <c r="I20" s="22">
+        <v>8.75</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="K20" s="22">
+        <v>2.1875</v>
+      </c>
+      <c r="L20" s="22">
+        <v>2.01388888888888</v>
+      </c>
+      <c r="M20" s="22">
+        <v>2.2395833333333299</v>
+      </c>
+      <c r="N20" s="22">
+        <v>2.0416666666666599</v>
+      </c>
+      <c r="O20" s="22">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="P20" s="22">
+        <v>1.5277777777777699</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>1.43518518518518</v>
+      </c>
+      <c r="R20" s="22">
+        <v>1.38888888888888</v>
+      </c>
+      <c r="S20" s="22">
+        <v>1.13888888888888</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30.2555080933959</v>
+      </c>
+      <c r="F21" s="2">
+        <v>22.9915734558809</v>
+      </c>
+      <c r="G21" s="2">
+        <v>26.542391631025701</v>
+      </c>
+      <c r="H21" s="2">
+        <v>27.1493428025498</v>
+      </c>
+      <c r="I21" s="3">
+        <v>24.9939989033867</v>
+      </c>
+      <c r="J21" s="1">
+        <v>31.4444893693639</v>
+      </c>
+      <c r="K21" s="2">
+        <v>38.443509138519801</v>
+      </c>
+      <c r="L21" s="2">
+        <v>42.461627256396199</v>
+      </c>
+      <c r="M21" s="2">
+        <v>42.849986391997199</v>
+      </c>
+      <c r="N21" s="3">
+        <v>44.206614573216399</v>
+      </c>
+      <c r="O21" s="1">
+        <v>52.042744265118202</v>
+      </c>
+      <c r="P21" s="2">
+        <v>54.849193678186303</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>56.252546286901001</v>
+      </c>
+      <c r="R21" s="2">
+        <v>56.788186778684199</v>
+      </c>
+      <c r="S21" s="3">
+        <v>57.474110862417398</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="30"/>
+      <c r="D22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:S22" si="3">100 -E21</f>
+        <v>69.744491906604097</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
+        <v>77.008426544119104</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>73.457608368974292</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="3"/>
+        <v>72.850657197450204</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="3"/>
+        <v>75.006001096613304</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>68.555510630636093</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="3"/>
+        <v>61.556490861480199</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="3"/>
+        <v>57.538372743603801</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="3"/>
+        <v>57.150013608002801</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="3"/>
+        <v>55.793385426783601</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="3"/>
+        <v>47.957255734881798</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="3"/>
+        <v>45.150806321813697</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="3"/>
+        <v>43.747453713098999</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="3"/>
+        <v>43.211813221315801</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="3"/>
+        <v>42.525889137582602</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C37" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C38" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="10">
+        <v>40</v>
+      </c>
+      <c r="F38" s="9">
+        <v>80</v>
+      </c>
+      <c r="G38" s="9">
+        <v>120</v>
+      </c>
+      <c r="H38" s="9">
+        <v>160</v>
+      </c>
+      <c r="I38" s="9">
+        <v>200</v>
+      </c>
+      <c r="J38" s="10">
+        <v>40</v>
+      </c>
+      <c r="K38" s="9">
+        <v>80</v>
+      </c>
+      <c r="L38" s="9">
+        <v>120</v>
+      </c>
+      <c r="M38" s="9">
+        <v>160</v>
+      </c>
+      <c r="N38" s="9">
+        <v>200</v>
+      </c>
+      <c r="O38" s="10">
+        <v>40</v>
+      </c>
+      <c r="P38" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>120</v>
+      </c>
+      <c r="R38" s="9">
+        <v>160</v>
+      </c>
+      <c r="S38" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C39" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C40" s="30"/>
+      <c r="D40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="21"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C42" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C43" s="30"/>
+      <c r="D43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C44" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C45" s="30"/>
+      <c r="D45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C46" s="27"/>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C49" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C51" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="35"/>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C52" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="10">
+        <v>40</v>
+      </c>
+      <c r="F52" s="9">
+        <v>80</v>
+      </c>
+      <c r="G52" s="9">
+        <v>120</v>
+      </c>
+      <c r="H52" s="9">
+        <v>160</v>
+      </c>
+      <c r="I52" s="9">
+        <v>200</v>
+      </c>
+      <c r="J52" s="10">
+        <v>40</v>
+      </c>
+      <c r="K52" s="9">
+        <v>80</v>
+      </c>
+      <c r="L52" s="9">
+        <v>120</v>
+      </c>
+      <c r="M52" s="9">
+        <v>160</v>
+      </c>
+      <c r="N52" s="9">
+        <v>200</v>
+      </c>
+      <c r="O52" s="10">
+        <v>40</v>
+      </c>
+      <c r="P52" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>120</v>
+      </c>
+      <c r="R52" s="9">
+        <v>160</v>
+      </c>
+      <c r="S52" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C53" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C54" s="30"/>
+      <c r="D54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C55" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="22">
+        <v>90.4166666666667</v>
+      </c>
+      <c r="F55" s="22">
+        <v>91.875</v>
+      </c>
+      <c r="G55" s="22">
+        <v>90</v>
+      </c>
+      <c r="H55" s="22">
+        <v>90.9375</v>
+      </c>
+      <c r="I55" s="22">
+        <v>91.25</v>
+      </c>
+      <c r="J55" s="22">
+        <v>98.75</v>
+      </c>
+      <c r="K55" s="22">
+        <v>97.8125</v>
+      </c>
+      <c r="L55" s="22">
+        <v>97.986111111111114</v>
+      </c>
+      <c r="M55" s="22">
+        <v>97.760416666666671</v>
+      </c>
+      <c r="N55" s="22">
+        <v>97.958333333333343</v>
+      </c>
+      <c r="O55" s="22">
+        <v>97.916666666666671</v>
+      </c>
+      <c r="P55" s="22">
+        <v>98.472222222222229</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>98.564814814814824</v>
+      </c>
+      <c r="R55" s="22">
+        <v>98.611111111111114</v>
+      </c>
+      <c r="S55" s="21">
+        <v>98.861111111111114</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C56" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C57" s="30"/>
+      <c r="D57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C59" s="30"/>
+      <c r="D59" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE3DCFA-2B89-D34F-A0A6-5DC2517D436F}">
+  <dimension ref="A1:B106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="B1">
+        <v>70.011999999999901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>90.058999999999997</v>
+      </c>
+      <c r="B2">
+        <v>90.058999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>44.5833333333333</v>
+      </c>
+      <c r="B3">
+        <v>44.5833333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>70.011999999999901</v>
+      </c>
+      <c r="B4">
+        <v>70.011999999999901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>195.36699999999999</v>
+      </c>
+      <c r="B5">
+        <v>195.36699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.69</v>
+      </c>
+      <c r="B6">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>162.74799999999999</v>
+      </c>
+      <c r="B8">
+        <v>162.74799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>189.91899999999899</v>
+      </c>
+      <c r="B9">
+        <v>189.91899999999899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>37.5</v>
+      </c>
+      <c r="B10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>162.74799999999999</v>
+      </c>
+      <c r="B11">
+        <v>162.74799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>381.154</v>
+      </c>
+      <c r="B12">
+        <v>381.154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.855</v>
+      </c>
+      <c r="B13">
+        <v>1.855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="B15">
+        <v>216.59799999999899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>250.551999999999</v>
+      </c>
+      <c r="B16">
+        <v>250.551999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>38.6111111111111</v>
+      </c>
+      <c r="B17">
+        <v>38.6111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>216.59799999999899</v>
+      </c>
+      <c r="B18">
+        <v>216.59799999999899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>579.78699999999901</v>
+      </c>
+      <c r="B19">
+        <v>579.78699999999901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="B20">
+        <v>3.2349999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>294.63400000000001</v>
+      </c>
+      <c r="B22">
+        <v>294.63400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>333.44899999999899</v>
+      </c>
+      <c r="B23">
+        <v>333.44899999999899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40.1041666666666</v>
+      </c>
+      <c r="B24">
+        <v>40.1041666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>294.63400000000001</v>
+      </c>
+      <c r="B25">
+        <v>294.63400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>762.29899999999895</v>
+      </c>
+      <c r="B26">
+        <v>762.29899999999895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="B27">
+        <v>4.8819999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>378.77199999999999</v>
+      </c>
+      <c r="B29">
+        <v>378.77199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>439.83199999999999</v>
+      </c>
+      <c r="B30">
+        <v>439.83199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>41.1666666666666</v>
+      </c>
+      <c r="B31">
+        <v>41.1666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>378.77199999999903</v>
+      </c>
+      <c r="B32">
+        <v>378.77199999999903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>945.03800000000001</v>
+      </c>
+      <c r="B33">
+        <v>945.03800000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6.5509999999999904</v>
+      </c>
+      <c r="B34">
+        <v>6.5509999999999904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>58.515000000000001</v>
+      </c>
+      <c r="B36">
+        <v>58.515000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>59.173000000000002</v>
+      </c>
+      <c r="B37">
+        <v>59.173000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37.5</v>
+      </c>
+      <c r="B38">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>58.514999999999901</v>
+      </c>
+      <c r="B39">
+        <v>58.514999999999901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>485.387</v>
+      </c>
+      <c r="B40">
+        <v>485.387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1.855</v>
+      </c>
+      <c r="B41">
+        <v>1.855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>111.81399999999999</v>
+      </c>
+      <c r="B43">
+        <v>111.81399999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>118.097999999999</v>
+      </c>
+      <c r="B44">
+        <v>118.097999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>40.1041666666666</v>
+      </c>
+      <c r="B45">
+        <v>40.1041666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>111.81399999999999</v>
+      </c>
+      <c r="B46">
+        <v>111.81399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>945.11899999999901</v>
+      </c>
+      <c r="B47">
+        <v>945.11899999999901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="B48">
+        <v>4.8819999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="B50">
+        <v>175.37899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>177.28799999999899</v>
+      </c>
+      <c r="B51">
+        <v>177.28799999999899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="B52">
+        <v>40.8333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>175.37899999999999</v>
+      </c>
+      <c r="B53">
+        <v>175.37899999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1417.0039999999899</v>
+      </c>
+      <c r="B54">
+        <v>1417.0039999999899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7.4279999999999902</v>
+      </c>
+      <c r="B55">
+        <v>7.4279999999999902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>214.83699999999999</v>
+      </c>
+      <c r="B57">
+        <v>214.83699999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>217.009999999999</v>
+      </c>
+      <c r="B58">
+        <v>217.009999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>41.3541666666666</v>
+      </c>
+      <c r="B59">
+        <v>41.3541666666666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>214.83699999999899</v>
+      </c>
+      <c r="B60">
+        <v>214.83699999999899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1892.183</v>
+      </c>
+      <c r="B61">
+        <v>1892.183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="B62">
+        <v>9.3650000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="B64">
+        <v>256.06799999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>253.658999999999</v>
+      </c>
+      <c r="B65">
+        <v>253.658999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>42</v>
+      </c>
+      <c r="B66">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>256.06799999999998</v>
+      </c>
+      <c r="B67">
+        <v>256.06799999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2384.942</v>
+      </c>
+      <c r="B68">
+        <v>2384.942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>11.442</v>
+      </c>
+      <c r="B69">
+        <v>11.442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="B71">
+        <v>34.512999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>31.5259999999999</v>
+      </c>
+      <c r="B72">
+        <v>31.5259999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>38.6111111111111</v>
+      </c>
+      <c r="B73">
+        <v>38.6111111111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>34.512999999999998</v>
+      </c>
+      <c r="B74">
+        <v>34.512999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>761.87199999999905</v>
+      </c>
+      <c r="B75">
+        <v>761.87199999999905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="B76">
+        <v>3.2349999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>60.058999999999898</v>
+      </c>
+      <c r="B78">
+        <v>60.058999999999898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>57.628999999999998</v>
+      </c>
+      <c r="B79">
+        <v>57.628999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="B80">
+        <v>40.8333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>60.058999999999898</v>
+      </c>
+      <c r="B81">
+        <v>60.058999999999898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1532.3239999999901</v>
+      </c>
+      <c r="B82">
+        <v>1532.3239999999901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>7.4279999999999902</v>
+      </c>
+      <c r="B83">
+        <v>7.4279999999999902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="B85">
+        <v>78.252999999999901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="B86">
+        <v>81.817999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="B87">
+        <v>41.6666666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>78.252999999999901</v>
+      </c>
+      <c r="B88">
+        <v>78.252999999999901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2299.84</v>
+      </c>
+      <c r="B89">
+        <v>2299.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>10.285</v>
+      </c>
+      <c r="B90">
+        <v>10.285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>113.94099999999899</v>
+      </c>
+      <c r="B92">
+        <v>113.94099999999899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>115.97099999999899</v>
+      </c>
+      <c r="B93">
+        <v>115.97099999999899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>40.9375</v>
+      </c>
+      <c r="B94">
+        <v>40.9375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>113.941</v>
+      </c>
+      <c r="B95">
+        <v>113.941</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3068.0509999999999</v>
+      </c>
+      <c r="B96">
+        <v>3068.0509999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>14.750999999999999</v>
+      </c>
+      <c r="B97">
+        <v>14.750999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>143.09599999999901</v>
+      </c>
+      <c r="B99">
+        <v>143.09599999999901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>139.35499999999999</v>
+      </c>
+      <c r="B100">
+        <v>139.35499999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>39.9444444444444</v>
+      </c>
+      <c r="B101">
+        <v>39.9444444444444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>143.096</v>
+      </c>
+      <c r="B102">
+        <v>143.096</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>3867.1559999999899</v>
+      </c>
+      <c r="B103">
+        <v>3867.1559999999899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>16.777999999999899</v>
+      </c>
+      <c r="B104">
+        <v>16.777999999999899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDB678-0377-E445-91FD-184B9D5D7867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F305B-4236-8241-8A20-F1917BA3C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -436,11 +436,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -508,6 +517,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +836,7 @@
   <dimension ref="B2:AJ138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,53 +879,53 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="35"/>
       <c r="T4">
-        <v>23.068999999999999</v>
+        <v>55.4166666666666</v>
       </c>
       <c r="V4" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>23.068999999999999</v>
+        <v>55.4166666666666</v>
       </c>
       <c r="W4">
-        <v>38.18</v>
+        <v>62.5</v>
       </c>
       <c r="X4">
-        <v>70.010999999999996</v>
+        <v>61.3888888888888</v>
       </c>
       <c r="Y4">
-        <v>102.063</v>
+        <v>59.8958333333333</v>
       </c>
       <c r="Z4">
-        <v>132.15499999999901</v>
+        <v>58.8333333333333</v>
       </c>
       <c r="AA4">
-        <v>38.18</v>
+        <v>62.5</v>
       </c>
       <c r="AB4">
-        <v>102.063</v>
+        <v>59.8958333333333</v>
       </c>
       <c r="AC4">
-        <v>152.11500000000001</v>
+        <v>59.1666666666666</v>
       </c>
       <c r="AD4">
-        <v>210.26499999999999</v>
+        <v>58.6458333333333</v>
       </c>
       <c r="AE4">
-        <v>263.291</v>
+        <v>57.999999999999901</v>
       </c>
       <c r="AF4">
-        <v>70.010999999999996</v>
+        <v>61.3888888888888</v>
       </c>
       <c r="AG4">
-        <v>152.11500000000001</v>
+        <v>59.1666666666666</v>
       </c>
       <c r="AH4">
-        <v>231.09</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="AI4">
-        <v>313.68599999999998</v>
+        <v>59.062499999999901</v>
       </c>
       <c r="AJ4">
-        <v>380.47500000000002</v>
+        <v>60.0555555555555</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
@@ -968,7 +979,52 @@
         <v>200</v>
       </c>
       <c r="T5">
-        <v>38.18</v>
+        <v>62.5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
@@ -1024,7 +1080,7 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6">
-        <v>70.010999999999996</v>
+        <v>61.3888888888888</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
@@ -1078,7 +1134,7 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7">
-        <v>102.063</v>
+        <v>59.8958333333333</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
@@ -1087,52 +1143,52 @@
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="19">
-        <v>44.5833333333333</v>
+        <v>55.4166666666666</v>
       </c>
       <c r="E8" s="20">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F8" s="20">
-        <v>38.6111111111111</v>
+        <v>61.3888888888888</v>
       </c>
       <c r="G8" s="20">
-        <v>40.1041666666666</v>
+        <v>59.8958333333333</v>
       </c>
       <c r="H8" s="21">
-        <v>41.1666666666666</v>
+        <v>58.8333333333333</v>
       </c>
       <c r="I8" s="19">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="J8" s="20">
-        <v>40.1041666666666</v>
+        <v>59.8958333333333</v>
       </c>
       <c r="K8" s="20">
-        <v>40.8333333333333</v>
+        <v>59.1666666666666</v>
       </c>
       <c r="L8" s="20">
-        <v>41.3541666666666</v>
+        <v>58.6458333333333</v>
       </c>
       <c r="M8" s="21">
-        <v>42</v>
+        <v>57.999999999999901</v>
       </c>
       <c r="N8" s="19">
-        <v>38.6111111111111</v>
+        <v>61.3888888888888</v>
       </c>
       <c r="O8" s="20">
-        <v>40.8333333333333</v>
+        <v>59.1666666666666</v>
       </c>
       <c r="P8" s="20">
-        <v>41.6666666666666</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="Q8" s="20">
-        <v>40.9375</v>
+        <v>59.062499999999901</v>
       </c>
       <c r="R8" s="21">
-        <v>39.9444444444444</v>
+        <v>60.0555555555555</v>
       </c>
       <c r="T8">
-        <v>132.15499999999901</v>
+        <v>58.8333333333333</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
@@ -1188,7 +1244,7 @@
         <v>143.096</v>
       </c>
       <c r="T9">
-        <v>38.18</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
@@ -1242,7 +1298,7 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10">
-        <v>102.063</v>
+        <v>59.8958333333333</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
@@ -1298,7 +1354,7 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11">
-        <v>152.11500000000001</v>
+        <v>59.1666666666666</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
@@ -1352,22 +1408,22 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T12">
-        <v>210.26499999999999</v>
+        <v>58.6458333333333</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13">
-        <v>263.291</v>
+        <v>57.999999999999901</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T14">
-        <v>70.010999999999996</v>
+        <v>61.3888888888888</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T15">
-        <v>152.11500000000001</v>
+        <v>59.1666666666666</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
@@ -1375,13 +1431,13 @@
         <v>36</v>
       </c>
       <c r="T16">
-        <v>231.09</v>
+        <v>58.3333333333333</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="T17">
-        <v>313.68599999999998</v>
+        <v>59.062499999999901</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
@@ -1411,7 +1467,7 @@
       <c r="Q18" s="34"/>
       <c r="R18" s="35"/>
       <c r="T18">
-        <v>380.47500000000002</v>
+        <v>60.0555555555555</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -1711,63 +1767,153 @@
       <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="3"/>
+      <c r="D34" s="1">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="H34" s="3">
+        <v>12.381</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="K34" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="L34" s="2">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="M34" s="3">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="N34" s="1">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="O34" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="P34" s="2">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="R34" s="3">
+        <v>30.446999999999999</v>
+      </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="7"/>
+      <c r="D35" s="5">
+        <v>221.73400000000001</v>
+      </c>
+      <c r="E35" s="6">
+        <v>516.07500000000005</v>
+      </c>
+      <c r="F35" s="6">
+        <v>751.58199999999999</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1002.05699999999</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1333.7239999999899</v>
+      </c>
+      <c r="I35" s="5">
+        <v>161.07</v>
+      </c>
+      <c r="J35" s="6">
+        <v>372.03</v>
+      </c>
+      <c r="K35" s="6">
+        <v>505.45800000000003</v>
+      </c>
+      <c r="L35" s="6">
+        <v>676.41599999999903</v>
+      </c>
+      <c r="M35" s="6">
+        <v>824.81899999999996</v>
+      </c>
+      <c r="N35" s="5">
+        <v>87.516000000000005</v>
+      </c>
+      <c r="O35" s="6">
+        <v>150.453</v>
+      </c>
+      <c r="P35" s="6">
+        <v>203.19900000000001</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>357.82</v>
+      </c>
+      <c r="R35" s="7">
+        <v>416.897999999999</v>
+      </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="38"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="21"/>
+      <c r="D36" s="19">
+        <v>10</v>
+      </c>
+      <c r="E36" s="20">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="F36" s="20">
+        <v>12.2222222222222</v>
+      </c>
+      <c r="G36" s="20">
+        <v>16.5625</v>
+      </c>
+      <c r="H36" s="21">
+        <v>14.9166666666666</v>
+      </c>
+      <c r="I36" s="19">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="J36" s="20">
+        <v>16.5625</v>
+      </c>
+      <c r="K36" s="20">
+        <v>13.8194444444444</v>
+      </c>
+      <c r="L36" s="20">
+        <v>13.1770833333333</v>
+      </c>
+      <c r="M36" s="21">
+        <v>13.2916666666666</v>
+      </c>
+      <c r="N36" s="19">
+        <v>12.2222222222222</v>
+      </c>
+      <c r="O36" s="20">
+        <v>13.8194444444444</v>
+      </c>
+      <c r="P36" s="20">
+        <v>13.009259259259199</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>12.7430555555555</v>
+      </c>
+      <c r="R36" s="21">
+        <v>12.4166666666666</v>
+      </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="29" t="s">
@@ -1776,42 +1922,102 @@
       <c r="C37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="3"/>
+      <c r="D37" s="1">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G37" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="H37" s="3">
+        <v>12.381</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="J37" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="K37" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="L37" s="2">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="M37" s="3">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="N37" s="1">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="O37" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="P37" s="2">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="R37" s="3">
+        <v>30.446999999999999</v>
+      </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="7"/>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="40">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="40">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" s="40">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="s">
@@ -1820,42 +2026,102 @@
       <c r="C39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="3"/>
+      <c r="D39" s="4">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="E39" s="39">
+        <v>9.0299999999999905</v>
+      </c>
+      <c r="F39" s="39">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="G39" s="39">
+        <v>16.477</v>
+      </c>
+      <c r="H39" s="40">
+        <v>22.358000000000001</v>
+      </c>
+      <c r="I39" s="4">
+        <v>9.0299999999999905</v>
+      </c>
+      <c r="J39" s="39">
+        <v>16.477</v>
+      </c>
+      <c r="K39" s="39">
+        <v>27.227</v>
+      </c>
+      <c r="L39" s="39">
+        <v>38.7779999999998</v>
+      </c>
+      <c r="M39" s="40">
+        <v>46.946999999999797</v>
+      </c>
+      <c r="N39" s="4">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="O39" s="39">
+        <v>27.227</v>
+      </c>
+      <c r="P39" s="39">
+        <v>41.9669999999998</v>
+      </c>
+      <c r="Q39" s="39">
+        <v>60.550999999999803</v>
+      </c>
+      <c r="R39" s="40">
+        <v>73.428000000000296</v>
+      </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="7"/>
+      <c r="D40" s="5">
+        <v>99.1039999999999</v>
+      </c>
+      <c r="E40" s="6">
+        <v>168.33099999999999</v>
+      </c>
+      <c r="F40" s="6">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="G40" s="6">
+        <v>347.63200000000001</v>
+      </c>
+      <c r="H40" s="6">
+        <v>431.16699999999997</v>
+      </c>
+      <c r="I40" s="5">
+        <v>168.33099999999999</v>
+      </c>
+      <c r="J40" s="6">
+        <v>347.63200000000001</v>
+      </c>
+      <c r="K40" s="6">
+        <v>516.73800000000006</v>
+      </c>
+      <c r="L40" s="6">
+        <v>724.62499999999795</v>
+      </c>
+      <c r="M40" s="6">
+        <v>903.57199999999705</v>
+      </c>
+      <c r="N40" s="5">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="O40" s="6">
+        <v>516.73800000000006</v>
+      </c>
+      <c r="P40" s="6">
+        <v>799.92199999999696</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>1065.77699999999</v>
+      </c>
+      <c r="R40" s="7">
+        <v>1324.3039999999901</v>
+      </c>
     </row>
     <row r="44" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="28" t="s">

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F305B-4236-8241-8A20-F1917BA3C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3A835-71A8-6F4D-8420-61136C78879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -493,14 +493,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,15 +509,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:AJ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,83 +852,83 @@
       <c r="B3" s="28"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33">
+      <c r="C4" s="37"/>
+      <c r="D4" s="32">
         <v>0.25</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="32">
         <v>0.5</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="33">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="32">
         <v>0.75</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="35"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
       <c r="T4">
-        <v>55.4166666666666</v>
+        <v>16792.9820000004</v>
       </c>
       <c r="V4" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>55.4166666666666</v>
+        <v>16792.9820000004</v>
       </c>
       <c r="W4">
-        <v>62.5</v>
+        <v>30673.140000001302</v>
       </c>
       <c r="X4">
-        <v>61.3888888888888</v>
+        <v>54479.106999999502</v>
       </c>
       <c r="Y4">
-        <v>59.8958333333333</v>
+        <v>67729.903999998001</v>
       </c>
       <c r="Z4">
-        <v>58.8333333333333</v>
+        <v>85985.149999994799</v>
       </c>
       <c r="AA4">
-        <v>62.5</v>
+        <v>30673.140000001302</v>
       </c>
       <c r="AB4">
-        <v>59.8958333333333</v>
+        <v>67729.903999998001</v>
       </c>
       <c r="AC4">
-        <v>59.1666666666666</v>
+        <v>102431.10699999399</v>
       </c>
       <c r="AD4">
-        <v>58.6458333333333</v>
+        <v>141663.78999999099</v>
       </c>
       <c r="AE4">
-        <v>57.999999999999901</v>
+        <v>174969.47799998501</v>
       </c>
       <c r="AF4">
-        <v>61.3888888888888</v>
+        <v>54479.106999999502</v>
       </c>
       <c r="AG4">
-        <v>59.1666666666666</v>
+        <v>102431.10699999399</v>
       </c>
       <c r="AH4">
-        <v>58.3333333333333</v>
+        <v>156284.82199998901</v>
       </c>
       <c r="AI4">
-        <v>59.062499999999901</v>
+        <v>209593.245999979</v>
       </c>
       <c r="AJ4">
-        <v>60.0555555555555</v>
+        <v>257734.99999998201</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="36"/>
@@ -979,7 +978,7 @@
         <v>200</v>
       </c>
       <c r="T5">
-        <v>62.5</v>
+        <v>30673.140000001302</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1028,7 +1027,7 @@
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1080,11 +1079,11 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6">
-        <v>61.3888888888888</v>
+        <v>54479.106999999502</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1134,14 +1133,14 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7">
-        <v>59.8958333333333</v>
+        <v>67729.903999998001</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="19">
         <v>55.4166666666666</v>
       </c>
@@ -1188,11 +1187,11 @@
         <v>60.0555555555555</v>
       </c>
       <c r="T8">
-        <v>58.8333333333333</v>
+        <v>85985.149999994799</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1244,11 +1243,11 @@
         <v>143.096</v>
       </c>
       <c r="T9">
-        <v>62.5</v>
+        <v>30673.140000001302</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8" t="s">
         <v>58</v>
       </c>
@@ -1298,11 +1297,11 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10">
-        <v>59.8958333333333</v>
+        <v>67729.903999998001</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1354,11 +1353,11 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11">
-        <v>59.1666666666666</v>
+        <v>102431.10699999399</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1408,22 +1407,22 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T12">
-        <v>58.6458333333333</v>
+        <v>141663.78999999099</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13">
-        <v>57.999999999999901</v>
+        <v>174969.47799998501</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T14">
-        <v>61.3888888888888</v>
+        <v>54479.106999999502</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T15">
-        <v>59.1666666666666</v>
+        <v>102431.10699999399</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
@@ -1431,47 +1430,47 @@
         <v>36</v>
       </c>
       <c r="T16">
-        <v>58.3333333333333</v>
+        <v>156284.82199998901</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="T17">
-        <v>59.062499999999901</v>
+        <v>209593.245999979</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33">
+      <c r="C18" s="37"/>
+      <c r="D18" s="32">
         <v>0.25</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32">
         <v>0.5</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="33">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="32">
         <v>0.75</v>
       </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
       <c r="T18">
-        <v>60.0555555555555</v>
+        <v>257734.99999998201</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="36"/>
@@ -1522,7 +1521,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1545,7 +1544,7 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1566,10 +1565,10 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -1587,7 +1586,7 @@
       <c r="R22" s="21"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1610,7 +1609,7 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1630,7 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1654,7 +1653,7 @@
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
@@ -1683,34 +1682,34 @@
       <c r="B31" s="28"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33">
+      <c r="C32" s="37"/>
+      <c r="D32" s="32">
         <v>0.25</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="32">
         <v>0.5</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="33">
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="32">
         <v>0.75</v>
       </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="35"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="36"/>
@@ -1761,7 +1760,7 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -1814,7 +1813,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
@@ -1865,10 +1864,10 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="38"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="19">
         <v>10</v>
       </c>
@@ -1916,7 +1915,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -1969,7 +1968,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="12" t="s">
         <v>30</v>
       </c>
@@ -1985,7 +1984,7 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="29">
         <v>0</v>
       </c>
       <c r="I38">
@@ -2000,7 +1999,7 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="29">
         <v>0</v>
       </c>
       <c r="N38">
@@ -2015,12 +2014,12 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" s="40">
+      <c r="R38" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2029,51 +2028,51 @@
       <c r="D39" s="4">
         <v>4.1120000000000001</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39">
         <v>9.0299999999999905</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39">
         <v>12.780999999999899</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39">
         <v>16.477</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="29">
         <v>22.358000000000001</v>
       </c>
       <c r="I39" s="4">
         <v>9.0299999999999905</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39">
         <v>16.477</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39">
         <v>27.227</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39">
         <v>38.7779999999998</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="29">
         <v>46.946999999999797</v>
       </c>
       <c r="N39" s="4">
         <v>12.780999999999899</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39">
         <v>27.227</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39">
         <v>41.9669999999998</v>
       </c>
-      <c r="Q39" s="39">
+      <c r="Q39">
         <v>60.550999999999803</v>
       </c>
-      <c r="R39" s="40">
+      <c r="R39" s="29">
         <v>73.428000000000296</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="12" t="s">
         <v>26</v>
       </c>
@@ -2132,34 +2131,34 @@
       <c r="B45" s="28"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33">
+      <c r="C46" s="37"/>
+      <c r="D46" s="32">
         <v>0.25</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="33">
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="32">
         <v>0.5</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="33">
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="32">
         <v>0.75</v>
       </c>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="35"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="34"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="36"/>
@@ -2210,7 +2209,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -2233,7 +2232,7 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="30"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="8" t="s">
         <v>26</v>
       </c>
@@ -2254,10 +2253,10 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -2275,7 +2274,7 @@
       <c r="R50" s="21"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -2298,7 +2297,7 @@
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="8" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2318,7 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -2342,7 +2341,7 @@
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="30"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="12" t="s">
         <v>26</v>
       </c>
@@ -2371,34 +2370,34 @@
       <c r="B59" s="28"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33">
+      <c r="C60" s="37"/>
+      <c r="D60" s="32">
         <v>0.25</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="33">
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="32">
         <v>0.5</v>
       </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="33">
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="32">
         <v>0.75</v>
       </c>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="35"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="34"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="36"/>
@@ -2449,157 +2448,367 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="3"/>
+      <c r="D62" s="1">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6117.7249999999904</v>
+      </c>
+      <c r="F62" s="2">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="G62" s="2">
+        <v>11889.558000000001</v>
+      </c>
+      <c r="H62" s="3">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="J62" s="2">
+        <v>4916.8629999999903</v>
+      </c>
+      <c r="K62" s="2">
+        <v>7086.0319999999901</v>
+      </c>
+      <c r="L62" s="2">
+        <v>9383.6909999999898</v>
+      </c>
+      <c r="M62" s="3">
+        <v>11421.428</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1425.81699999999</v>
+      </c>
+      <c r="O62" s="2">
+        <v>2588.4809999999902</v>
+      </c>
+      <c r="P62" s="2">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>5239.3299999999899</v>
+      </c>
+      <c r="R62" s="3">
+        <v>6354.0019999999904</v>
+      </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="30"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="7"/>
+      <c r="D63" s="5">
+        <v>3962.0720000000001</v>
+      </c>
+      <c r="E63" s="6">
+        <v>8124.8789999999899</v>
+      </c>
+      <c r="F63" s="6">
+        <v>11716.35</v>
+      </c>
+      <c r="G63" s="6">
+        <v>15742.833000000001</v>
+      </c>
+      <c r="H63" s="6">
+        <v>20326.177999999902</v>
+      </c>
+      <c r="I63" s="5">
+        <v>2297.0259999999898</v>
+      </c>
+      <c r="J63" s="6">
+        <v>5013.4430000000002</v>
+      </c>
+      <c r="K63" s="6">
+        <v>7156.5720000000001</v>
+      </c>
+      <c r="L63" s="6">
+        <v>9472.7380000000103</v>
+      </c>
+      <c r="M63" s="6">
+        <v>11543.5999999999</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1215.5719999999999</v>
+      </c>
+      <c r="O63" s="6">
+        <v>2120.0809999999901</v>
+      </c>
+      <c r="P63" s="6">
+        <v>3240.2179999999998</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>4690.9759999999997</v>
+      </c>
+      <c r="R63" s="7">
+        <v>5716.29</v>
+      </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="21"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="19">
+        <v>45.470430107526802</v>
+      </c>
+      <c r="E64" s="20">
+        <v>45.8400537634408</v>
+      </c>
+      <c r="F64" s="20">
+        <v>44.659498207885299</v>
+      </c>
+      <c r="G64" s="20">
+        <v>46.592741935483801</v>
+      </c>
+      <c r="H64" s="21">
+        <v>46.803763440860202</v>
+      </c>
+      <c r="I64" s="19">
+        <v>45.8400537634408</v>
+      </c>
+      <c r="J64" s="20">
+        <v>46.592741935483801</v>
+      </c>
+      <c r="K64" s="20">
+        <v>47.327508960573397</v>
+      </c>
+      <c r="L64" s="20">
+        <v>47.281586021505298</v>
+      </c>
+      <c r="M64" s="21">
+        <v>47.227150537634401</v>
+      </c>
+      <c r="N64" s="19">
+        <v>44.659498207885299</v>
+      </c>
+      <c r="O64" s="20">
+        <v>47.327508960573397</v>
+      </c>
+      <c r="P64" s="20">
+        <v>47.519414575866101</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>47.001568100358398</v>
+      </c>
+      <c r="R64" s="21">
+        <v>47.6272401433691</v>
+      </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="3"/>
+      <c r="D65" s="1">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6117.7249999999904</v>
+      </c>
+      <c r="F65" s="2">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11889.558000000001</v>
+      </c>
+      <c r="H65" s="3">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4916.8629999999903</v>
+      </c>
+      <c r="K65" s="2">
+        <v>7086.0319999999801</v>
+      </c>
+      <c r="L65" s="2">
+        <v>9383.6910000000007</v>
+      </c>
+      <c r="M65" s="3">
+        <v>11421.428</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1425.817</v>
+      </c>
+      <c r="O65" s="2">
+        <v>2588.4809999999902</v>
+      </c>
+      <c r="P65" s="2">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>5239.3299999999899</v>
+      </c>
+      <c r="R65" s="3">
+        <v>6354.0019999999904</v>
+      </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="30"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="7"/>
+      <c r="D66" s="5">
+        <v>1996.89399999999</v>
+      </c>
+      <c r="E66" s="6">
+        <v>4187.6409999999896</v>
+      </c>
+      <c r="F66" s="6">
+        <v>6057.6900000000096</v>
+      </c>
+      <c r="G66" s="6">
+        <v>8282.9299999999894</v>
+      </c>
+      <c r="H66" s="6">
+        <v>10395.513999999999</v>
+      </c>
+      <c r="I66" s="5">
+        <v>7893.8299999999899</v>
+      </c>
+      <c r="J66" s="6">
+        <v>15255.625</v>
+      </c>
+      <c r="K66" s="6">
+        <v>23387.566999999999</v>
+      </c>
+      <c r="L66" s="6">
+        <v>30907.7239999999</v>
+      </c>
+      <c r="M66" s="6">
+        <v>39006.135000000002</v>
+      </c>
+      <c r="N66" s="5">
+        <v>13392.458000000001</v>
+      </c>
+      <c r="O66" s="6">
+        <v>27885.117999999999</v>
+      </c>
+      <c r="P66" s="6">
+        <v>41847.157999999901</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>55185.131999999903</v>
+      </c>
+      <c r="R66" s="7">
+        <v>69848.159999999902</v>
+      </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="3"/>
+      <c r="D67" s="1">
+        <v>196.58199999999999</v>
+      </c>
+      <c r="E67" s="2">
+        <v>293.75999999999902</v>
+      </c>
+      <c r="F67" s="2">
+        <v>710.92399999999702</v>
+      </c>
+      <c r="G67" s="2">
+        <v>816.372999999998</v>
+      </c>
+      <c r="H67" s="3">
+        <v>968.72199999999896</v>
+      </c>
+      <c r="I67" s="1">
+        <v>293.75999999999902</v>
+      </c>
+      <c r="J67" s="2">
+        <v>816.372999999998</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1083.00899999999</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1492.7059999999999</v>
+      </c>
+      <c r="M67" s="3">
+        <v>1818.87599999999</v>
+      </c>
+      <c r="N67" s="1">
+        <v>710.92399999999702</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1083.00899999999</v>
+      </c>
+      <c r="P67" s="2">
+        <v>1603.7529999999999</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>2209.0019999999899</v>
+      </c>
+      <c r="R67" s="3">
+        <v>2562.0309999999699</v>
+      </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="30"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="7"/>
+      <c r="D68" s="5">
+        <v>1051.4369999999999</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2031.627</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="G68" s="6">
+        <v>4401.9659999999903</v>
+      </c>
+      <c r="H68" s="6">
+        <v>5513.1819999999698</v>
+      </c>
+      <c r="I68" s="5">
+        <v>2031.627</v>
+      </c>
+      <c r="J68" s="6">
+        <v>4401.9659999999903</v>
+      </c>
+      <c r="K68" s="6">
+        <v>6553.7069999999403</v>
+      </c>
+      <c r="L68" s="6">
+        <v>8969.5239999999794</v>
+      </c>
+      <c r="M68" s="6">
+        <v>11215.2600000001</v>
+      </c>
+      <c r="N68" s="5">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="O68" s="6">
+        <v>6553.7069999999403</v>
+      </c>
+      <c r="P68" s="6">
+        <v>9945.9360000000197</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>13579.2340000001</v>
+      </c>
+      <c r="R68" s="7">
+        <v>16573.290000000201</v>
+      </c>
     </row>
     <row r="72" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="28" t="s">
@@ -2610,34 +2819,34 @@
       <c r="B73" s="28"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33">
+      <c r="C74" s="37"/>
+      <c r="D74" s="32">
         <v>0.25</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="33">
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="32">
         <v>0.5</v>
       </c>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="33">
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="32">
         <v>0.75</v>
       </c>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="35"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="34"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="36"/>
@@ -2688,7 +2897,7 @@
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -2711,7 +2920,7 @@
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="30"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="8" t="s">
         <v>26</v>
       </c>
@@ -2732,10 +2941,10 @@
       <c r="R77" s="7"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="38"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="19"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -2753,7 +2962,7 @@
       <c r="R78" s="21"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -2776,7 +2985,7 @@
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="30"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="8" t="s">
         <v>30</v>
       </c>
@@ -2797,7 +3006,7 @@
       <c r="R80" s="7"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -2820,7 +3029,7 @@
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="30"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="12" t="s">
         <v>26</v>
       </c>
@@ -2849,34 +3058,34 @@
       <c r="B87" s="28"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33">
+      <c r="C88" s="37"/>
+      <c r="D88" s="32">
         <v>0.25</v>
       </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="33">
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="32">
         <v>0.5</v>
       </c>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="33">
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="32">
         <v>0.75</v>
       </c>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="35"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="34"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="36"/>
@@ -2927,7 +3136,7 @@
       </c>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -2950,7 +3159,7 @@
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="30"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
@@ -2971,10 +3180,10 @@
       <c r="R91" s="7"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="38"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -2992,7 +3201,7 @@
       <c r="R92" s="21"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -3015,7 +3224,7 @@
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="30"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="8" t="s">
         <v>30</v>
       </c>
@@ -3036,7 +3245,7 @@
       <c r="R94" s="7"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -3059,7 +3268,7 @@
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="30"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="12" t="s">
         <v>26</v>
       </c>
@@ -3088,34 +3297,34 @@
       <c r="B101" s="28"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33">
+      <c r="C102" s="37"/>
+      <c r="D102" s="32">
         <v>0.25</v>
       </c>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="33">
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="32">
         <v>0.5</v>
       </c>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="33">
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="32">
         <v>0.75</v>
       </c>
-      <c r="O102" s="34"/>
-      <c r="P102" s="34"/>
-      <c r="Q102" s="34"/>
-      <c r="R102" s="35"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="34"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="36"/>
@@ -3166,7 +3375,7 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="8" t="s">
@@ -3189,7 +3398,7 @@
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="30"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="8" t="s">
         <v>26</v>
       </c>
@@ -3210,10 +3419,10 @@
       <c r="R105" s="7"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="38"/>
+      <c r="C106" s="39"/>
       <c r="D106" s="19"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
@@ -3231,7 +3440,7 @@
       <c r="R106" s="21"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C107" s="8" t="s">
@@ -3254,7 +3463,7 @@
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="30"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="8" t="s">
         <v>30</v>
       </c>
@@ -3275,7 +3484,7 @@
       <c r="R108" s="7"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -3298,7 +3507,7 @@
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="30"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="12" t="s">
         <v>26</v>
       </c>
@@ -3327,34 +3536,34 @@
       <c r="B115" s="28"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33">
+      <c r="C116" s="37"/>
+      <c r="D116" s="32">
         <v>0.25</v>
       </c>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="33">
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="32">
         <v>0.5</v>
       </c>
-      <c r="J116" s="34"/>
-      <c r="K116" s="34"/>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="33">
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="32">
         <v>0.75</v>
       </c>
-      <c r="O116" s="34"/>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="34"/>
-      <c r="R116" s="35"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="34"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="36"/>
@@ -3405,157 +3614,367 @@
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="3"/>
+      <c r="D118" s="1">
+        <v>26123.977999999901</v>
+      </c>
+      <c r="E118" s="2">
+        <v>55346.315000000002</v>
+      </c>
+      <c r="F118" s="2">
+        <v>79167.024999999907</v>
+      </c>
+      <c r="G118" s="2">
+        <v>108411.413999999</v>
+      </c>
+      <c r="H118" s="3">
+        <v>135348.016</v>
+      </c>
+      <c r="I118" s="1">
+        <v>23267.427</v>
+      </c>
+      <c r="J118" s="2">
+        <v>48128.292000000001</v>
+      </c>
+      <c r="K118" s="2">
+        <v>69687.577000000107</v>
+      </c>
+      <c r="L118" s="2">
+        <v>91464.140000000203</v>
+      </c>
+      <c r="M118" s="3">
+        <v>113002.269</v>
+      </c>
+      <c r="N118" s="1">
+        <v>14555.466</v>
+      </c>
+      <c r="O118" s="2">
+        <v>25883.148000000001</v>
+      </c>
+      <c r="P118" s="2">
+        <v>36857.523999999801</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>53538.754000000103</v>
+      </c>
+      <c r="R118" s="3">
+        <v>64892.758999999998</v>
+      </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="30"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="7"/>
+      <c r="D119" s="5">
+        <v>56296.473000000296</v>
+      </c>
+      <c r="E119" s="6">
+        <v>120654.103999999</v>
+      </c>
+      <c r="F119" s="6">
+        <v>176162.95</v>
+      </c>
+      <c r="G119" s="6">
+        <v>235511.42499999999</v>
+      </c>
+      <c r="H119" s="6">
+        <v>305454.154999997</v>
+      </c>
+      <c r="I119" s="5">
+        <v>33110.817999999897</v>
+      </c>
+      <c r="J119" s="6">
+        <v>74059.871999999596</v>
+      </c>
+      <c r="K119" s="6">
+        <v>106312.841999999</v>
+      </c>
+      <c r="L119" s="6">
+        <v>140602.107999998</v>
+      </c>
+      <c r="M119" s="6">
+        <v>173752.788999999</v>
+      </c>
+      <c r="N119" s="5">
+        <v>18220.236000000001</v>
+      </c>
+      <c r="O119" s="6">
+        <v>30495.0969999999</v>
+      </c>
+      <c r="P119" s="6">
+        <v>45562.927000000403</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>68649.409999999596</v>
+      </c>
+      <c r="R119" s="7">
+        <v>83217.548999999795</v>
+      </c>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="38"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="21"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="20"/>
-      <c r="P120" s="20"/>
-      <c r="Q120" s="20"/>
-      <c r="R120" s="21"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="19">
+        <v>38.901411657559201</v>
+      </c>
+      <c r="E120" s="20">
+        <v>39.970969945355101</v>
+      </c>
+      <c r="F120" s="20">
+        <v>38.6741044323011</v>
+      </c>
+      <c r="G120" s="20">
+        <v>39.404883879781401</v>
+      </c>
+      <c r="H120" s="21">
+        <v>39.383652094717597</v>
+      </c>
+      <c r="I120" s="19">
+        <v>39.970969945355101</v>
+      </c>
+      <c r="J120" s="20">
+        <v>39.404883879781401</v>
+      </c>
+      <c r="K120" s="20">
+        <v>39.425091074681198</v>
+      </c>
+      <c r="L120" s="20">
+        <v>39.043858151183898</v>
+      </c>
+      <c r="M120" s="21">
+        <v>39.171903460837797</v>
+      </c>
+      <c r="N120" s="19">
+        <v>38.6741044323011</v>
+      </c>
+      <c r="O120" s="20">
+        <v>39.425091074681198</v>
+      </c>
+      <c r="P120" s="20">
+        <v>39.213595426027098</v>
+      </c>
+      <c r="Q120" s="20">
+        <v>39.1953172434729</v>
+      </c>
+      <c r="R120" s="21">
+        <v>39.247115968427401</v>
+      </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="3"/>
+      <c r="D121" s="1">
+        <v>26123.977999999901</v>
+      </c>
+      <c r="E121" s="2">
+        <v>55346.315000000002</v>
+      </c>
+      <c r="F121" s="2">
+        <v>79167.024999999907</v>
+      </c>
+      <c r="G121" s="2">
+        <v>108411.413999999</v>
+      </c>
+      <c r="H121" s="3">
+        <v>135348.016</v>
+      </c>
+      <c r="I121" s="1">
+        <v>23267.427</v>
+      </c>
+      <c r="J121" s="2">
+        <v>48128.292000000001</v>
+      </c>
+      <c r="K121" s="2">
+        <v>69687.577000000107</v>
+      </c>
+      <c r="L121" s="2">
+        <v>91464.140000000203</v>
+      </c>
+      <c r="M121" s="3">
+        <v>113002.269</v>
+      </c>
+      <c r="N121" s="1">
+        <v>14555.466</v>
+      </c>
+      <c r="O121" s="2">
+        <v>25883.148000000001</v>
+      </c>
+      <c r="P121" s="2">
+        <v>36857.523999999801</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>53538.754000000103</v>
+      </c>
+      <c r="R121" s="3">
+        <v>64892.758999999998</v>
+      </c>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="30"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="7"/>
+      <c r="D122" s="5">
+        <v>16398.6719999999</v>
+      </c>
+      <c r="E122" s="6">
+        <v>33072.267999999902</v>
+      </c>
+      <c r="F122" s="6">
+        <v>47429.379000000103</v>
+      </c>
+      <c r="G122" s="6">
+        <v>64222.389000000199</v>
+      </c>
+      <c r="H122" s="6">
+        <v>80558.0129999989</v>
+      </c>
+      <c r="I122" s="5">
+        <v>65151.155999999901</v>
+      </c>
+      <c r="J122" s="6">
+        <v>124505.51099999899</v>
+      </c>
+      <c r="K122" s="6">
+        <v>189702.80999999901</v>
+      </c>
+      <c r="L122" s="6">
+        <v>250159.80300000001</v>
+      </c>
+      <c r="M122" s="6">
+        <v>315182.012999998</v>
+      </c>
+      <c r="N122" s="5">
+        <v>112040.93799999999</v>
+      </c>
+      <c r="O122" s="6">
+        <v>233507.23899999901</v>
+      </c>
+      <c r="P122" s="6">
+        <v>349755.27900000103</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>460590.66800000001</v>
+      </c>
+      <c r="R122" s="7">
+        <v>582188.41700000002</v>
+      </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="3"/>
+      <c r="D123" s="1">
+        <v>2833.4379999999901</v>
+      </c>
+      <c r="E123" s="2">
+        <v>4199.1859999999997</v>
+      </c>
+      <c r="F123" s="2">
+        <v>9300.4200000001492</v>
+      </c>
+      <c r="G123" s="2">
+        <v>10780.7570000003</v>
+      </c>
+      <c r="H123" s="3">
+        <v>13396.9970000005</v>
+      </c>
+      <c r="I123" s="1">
+        <v>4199.1859999999997</v>
+      </c>
+      <c r="J123" s="2">
+        <v>10780.7570000003</v>
+      </c>
+      <c r="K123" s="2">
+        <v>15392.861000000699</v>
+      </c>
+      <c r="L123" s="2">
+        <v>21692.105000000902</v>
+      </c>
+      <c r="M123" s="3">
+        <v>26358.3100000007</v>
+      </c>
+      <c r="N123" s="1">
+        <v>9300.4200000001492</v>
+      </c>
+      <c r="O123" s="2">
+        <v>15392.861000000699</v>
+      </c>
+      <c r="P123" s="2">
+        <v>23411.733000000699</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>31420.039000001001</v>
+      </c>
+      <c r="R123" s="3">
+        <v>37448.582999999897</v>
+      </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="30"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="7"/>
+      <c r="D124" s="5">
+        <v>16792.9820000004</v>
+      </c>
+      <c r="E124" s="6">
+        <v>30673.140000001302</v>
+      </c>
+      <c r="F124" s="6">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="G124" s="6">
+        <v>67729.903999998001</v>
+      </c>
+      <c r="H124" s="6">
+        <v>85985.149999994799</v>
+      </c>
+      <c r="I124" s="5">
+        <v>30673.140000001302</v>
+      </c>
+      <c r="J124" s="6">
+        <v>67729.903999998001</v>
+      </c>
+      <c r="K124" s="6">
+        <v>102431.10699999399</v>
+      </c>
+      <c r="L124" s="6">
+        <v>141663.78999999099</v>
+      </c>
+      <c r="M124" s="6">
+        <v>174969.47799998501</v>
+      </c>
+      <c r="N124" s="5">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="O124" s="6">
+        <v>102431.10699999399</v>
+      </c>
+      <c r="P124" s="6">
+        <v>156284.82199998901</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>209593.245999979</v>
+      </c>
+      <c r="R124" s="7">
+        <v>257734.99999998201</v>
+      </c>
     </row>
     <row r="128" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B128" s="28" t="s">
@@ -3566,34 +3985,34 @@
       <c r="B129" s="28"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C130" s="32"/>
-      <c r="D130" s="33">
+      <c r="C130" s="37"/>
+      <c r="D130" s="32">
         <v>0.25</v>
       </c>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="33">
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="32">
         <v>0.5</v>
       </c>
-      <c r="J130" s="34"/>
-      <c r="K130" s="34"/>
-      <c r="L130" s="34"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="33">
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="33"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="32">
         <v>0.75</v>
       </c>
-      <c r="O130" s="34"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="34"/>
-      <c r="R130" s="35"/>
+      <c r="O130" s="33"/>
+      <c r="P130" s="33"/>
+      <c r="Q130" s="33"/>
+      <c r="R130" s="34"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="36"/>
@@ -3644,7 +4063,7 @@
       </c>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -3667,7 +4086,7 @@
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="30"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="8" t="s">
         <v>26</v>
       </c>
@@ -3688,10 +4107,10 @@
       <c r="R133" s="7"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C134" s="38"/>
+      <c r="C134" s="39"/>
       <c r="D134" s="19"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -3709,7 +4128,7 @@
       <c r="R134" s="21"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -3732,7 +4151,7 @@
       <c r="R135" s="3"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="30"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="8" t="s">
         <v>30</v>
       </c>
@@ -3753,7 +4172,7 @@
       <c r="R136" s="7"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -3776,7 +4195,7 @@
       <c r="R137" s="3"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="30"/>
+      <c r="B138" s="31"/>
       <c r="C138" s="12" t="s">
         <v>26</v>
       </c>
@@ -3798,12 +4217,74 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="I130:M130"/>
+    <mergeCell ref="N130:R130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:R102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="N60:R60"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="N4:R4"/>
@@ -3820,74 +4301,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="N60:R60"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:R102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="I130:M130"/>
-    <mergeCell ref="N130:R130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3985,7 +4404,7 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -4008,7 +4427,7 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4029,7 +4448,7 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -4082,7 +4501,7 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -4103,7 +4522,7 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4126,7 +4545,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4649,7 @@
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -4253,7 +4672,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +4693,7 @@
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -4327,7 +4746,7 @@
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -4348,7 +4767,7 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -4371,7 +4790,7 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -4458,34 +4877,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33">
+      <c r="D2" s="37"/>
+      <c r="E2" s="32">
         <v>0.25</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="33">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32">
         <v>0.5</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="32">
         <v>0.75</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="35"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="36"/>
@@ -4536,7 +4955,7 @@
       </c>
     </row>
     <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -4589,7 +5008,7 @@
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -4655,10 +5074,10 @@
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -4706,7 +5125,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -4759,7 +5178,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -4848,34 +5267,34 @@
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33">
+      <c r="D16" s="37"/>
+      <c r="E16" s="32">
         <v>0.25</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="33">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="32">
         <v>0.5</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="33">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="32">
         <v>0.75</v>
       </c>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="36"/>
@@ -4926,7 +5345,7 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -4979,7 +5398,7 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5045,10 +5464,10 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -5096,7 +5515,7 @@
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -5149,7 +5568,7 @@
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
@@ -5240,34 +5659,34 @@
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33">
+      <c r="D37" s="37"/>
+      <c r="E37" s="32">
         <v>0.25</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="32">
         <v>0.5</v>
       </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="33">
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="32">
         <v>0.75</v>
       </c>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="35"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="34"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="36"/>
@@ -5318,7 +5737,7 @@
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -5341,7 +5760,7 @@
       <c r="S39" s="3"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="30"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="8" t="s">
         <v>26</v>
       </c>
@@ -5362,10 +5781,10 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="38"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -5383,7 +5802,7 @@
       <c r="S41" s="21"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -5406,7 +5825,7 @@
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="30"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="8" t="s">
         <v>30</v>
       </c>
@@ -5427,7 +5846,7 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -5450,7 +5869,7 @@
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="30"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="12" t="s">
         <v>26</v>
       </c>
@@ -5485,34 +5904,34 @@
       </c>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33">
+      <c r="D51" s="37"/>
+      <c r="E51" s="32">
         <v>0.25</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="33">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="32">
         <v>0.5</v>
       </c>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="33">
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="32">
         <v>0.75</v>
       </c>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="35"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="34"/>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="36"/>
@@ -5563,7 +5982,7 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -5586,7 +6005,7 @@
       <c r="S53" s="3"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C54" s="30"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
@@ -5607,10 +6026,10 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="38"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="22">
         <v>90.4166666666667</v>
       </c>
@@ -5658,7 +6077,7 @@
       </c>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -5681,7 +6100,7 @@
       <c r="S56" s="3"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C57" s="30"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="8" t="s">
         <v>30</v>
       </c>
@@ -5702,7 +6121,7 @@
       <c r="S57" s="7"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -5725,7 +6144,7 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C59" s="30"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
@@ -5747,12 +6166,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
@@ -5765,22 +6194,12 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3A835-71A8-6F4D-8420-61136C78879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805786C-6695-364F-B393-5CB89C5B0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:AJ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="K127" sqref="K127"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,53 +878,53 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="34"/>
       <c r="T4">
-        <v>16792.9820000004</v>
+        <v>6331.741</v>
       </c>
       <c r="V4" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>16792.9820000004</v>
+        <v>6331.741</v>
       </c>
       <c r="W4">
-        <v>30673.140000001302</v>
+        <v>13721.902</v>
       </c>
       <c r="X4">
-        <v>54479.106999999502</v>
+        <v>20042.866000000002</v>
       </c>
       <c r="Y4">
-        <v>67729.903999998001</v>
+        <v>26758.088999999902</v>
       </c>
       <c r="Z4">
-        <v>85985.149999994799</v>
+        <v>34377.582999999897</v>
       </c>
       <c r="AA4">
-        <v>30673.140000001302</v>
+        <v>3908.163</v>
       </c>
       <c r="AB4">
-        <v>67729.903999998001</v>
+        <v>8725.8090000000193</v>
       </c>
       <c r="AC4">
-        <v>102431.10699999399</v>
+        <v>12500.022000000001</v>
       </c>
       <c r="AD4">
-        <v>141663.78999999099</v>
+        <v>16522.157999999999</v>
       </c>
       <c r="AE4">
-        <v>174969.47799998501</v>
+        <v>20331.940999999999</v>
       </c>
       <c r="AF4">
-        <v>54479.106999999502</v>
+        <v>2135.1309999999899</v>
       </c>
       <c r="AG4">
-        <v>102431.10699999399</v>
+        <v>3552.105</v>
       </c>
       <c r="AH4">
-        <v>156284.82199998901</v>
+        <v>5231.0429999999997</v>
       </c>
       <c r="AI4">
-        <v>209593.245999979</v>
+        <v>7996.2030000000204</v>
       </c>
       <c r="AJ4">
-        <v>257734.99999998201</v>
+        <v>9693.7629999999899</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>200</v>
       </c>
       <c r="T5">
-        <v>30673.140000001302</v>
+        <v>13721.902</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6">
-        <v>54479.106999999502</v>
+        <v>20042.866000000002</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7">
-        <v>67729.903999998001</v>
+        <v>26758.088999999902</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>60.0555555555555</v>
       </c>
       <c r="T8">
-        <v>85985.149999994799</v>
+        <v>34377.582999999897</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>143.096</v>
       </c>
       <c r="T9">
-        <v>30673.140000001302</v>
+        <v>3908.163</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10">
-        <v>67729.903999998001</v>
+        <v>8725.8090000000193</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11">
-        <v>102431.10699999399</v>
+        <v>12500.022000000001</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
@@ -1407,22 +1407,22 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T12">
-        <v>141663.78999999099</v>
+        <v>16522.157999999999</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13">
-        <v>174969.47799998501</v>
+        <v>20331.940999999999</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T14">
-        <v>54479.106999999502</v>
+        <v>2135.1309999999899</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T15">
-        <v>102431.10699999399</v>
+        <v>3552.105</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
@@ -1430,13 +1430,13 @@
         <v>36</v>
       </c>
       <c r="T16">
-        <v>156284.82199998901</v>
+        <v>5231.0429999999997</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="T17">
-        <v>209593.245999979</v>
+        <v>7996.2030000000204</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
       <c r="Q18" s="33"/>
       <c r="R18" s="34"/>
       <c r="T18">
-        <v>257734.99999998201</v>
+        <v>9693.7629999999899</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -3142,63 +3142,153 @@
       <c r="C90" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="3"/>
+      <c r="D90" s="1">
+        <v>1234.29</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2666.1929999999902</v>
+      </c>
+      <c r="F90" s="2">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="G90" s="2">
+        <v>5166.6090000000004</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1312.32</v>
+      </c>
+      <c r="J90" s="2">
+        <v>2675.4489999999901</v>
+      </c>
+      <c r="K90" s="2">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="L90" s="2">
+        <v>5124.8299999999899</v>
+      </c>
+      <c r="M90" s="3">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="N90" s="1">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1668.3779999999899</v>
+      </c>
+      <c r="P90" s="2">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>3405.0549999999998</v>
+      </c>
+      <c r="R90" s="3">
+        <v>4135.3130000000001</v>
+      </c>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="31"/>
       <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="7"/>
+      <c r="D91" s="5">
+        <v>6331.741</v>
+      </c>
+      <c r="E91" s="6">
+        <v>13721.902</v>
+      </c>
+      <c r="F91" s="6">
+        <v>20042.866000000002</v>
+      </c>
+      <c r="G91" s="6">
+        <v>26758.088999999902</v>
+      </c>
+      <c r="H91" s="6">
+        <v>34377.582999999897</v>
+      </c>
+      <c r="I91" s="5">
+        <v>3908.163</v>
+      </c>
+      <c r="J91" s="6">
+        <v>8725.8090000000193</v>
+      </c>
+      <c r="K91" s="6">
+        <v>12500.022000000001</v>
+      </c>
+      <c r="L91" s="6">
+        <v>16522.157999999999</v>
+      </c>
+      <c r="M91" s="6">
+        <v>20331.940999999999</v>
+      </c>
+      <c r="N91" s="5">
+        <v>2135.1309999999899</v>
+      </c>
+      <c r="O91" s="6">
+        <v>3552.105</v>
+      </c>
+      <c r="P91" s="6">
+        <v>5231.0429999999997</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>7996.2030000000204</v>
+      </c>
+      <c r="R91" s="7">
+        <v>9693.7629999999899</v>
+      </c>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="39"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="21"/>
+      <c r="D92" s="19">
+        <v>23.9919354838709</v>
+      </c>
+      <c r="E92" s="20">
+        <v>25.1747311827957</v>
+      </c>
+      <c r="F92" s="20">
+        <v>23.853046594982001</v>
+      </c>
+      <c r="G92" s="20">
+        <v>24.543010752688101</v>
+      </c>
+      <c r="H92" s="21">
+        <v>24.403225806451601</v>
+      </c>
+      <c r="I92" s="19">
+        <v>25.1747311827957</v>
+      </c>
+      <c r="J92" s="20">
+        <v>24.543010752688101</v>
+      </c>
+      <c r="K92" s="20">
+        <v>24.363799283154101</v>
+      </c>
+      <c r="L92" s="20">
+        <v>24.002016129032199</v>
+      </c>
+      <c r="M92" s="21">
+        <v>24.034946236559101</v>
+      </c>
+      <c r="N92" s="19">
+        <v>23.853046594982001</v>
+      </c>
+      <c r="O92" s="20">
+        <v>24.363799283154101</v>
+      </c>
+      <c r="P92" s="20">
+        <v>24.151732377538799</v>
+      </c>
+      <c r="Q92" s="20">
+        <v>24.086021505376301</v>
+      </c>
+      <c r="R92" s="21">
+        <v>24.215949820788499</v>
+      </c>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="30" t="s">

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805786C-6695-364F-B393-5CB89C5B0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B06E73-995D-3E45-A4F9-4234A17D14AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:AJ138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,53 +878,53 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="34"/>
       <c r="T4">
-        <v>6331.741</v>
+        <v>2004.1510000000001</v>
       </c>
       <c r="V4" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>6331.741</v>
+        <v>2004.1510000000001</v>
       </c>
       <c r="W4">
-        <v>13721.902</v>
+        <v>3572.32599999999</v>
       </c>
       <c r="X4">
-        <v>20042.866000000002</v>
+        <v>6377.9550000000099</v>
       </c>
       <c r="Y4">
-        <v>26758.088999999902</v>
+        <v>7921.6209999999901</v>
       </c>
       <c r="Z4">
-        <v>34377.582999999897</v>
+        <v>10040.457</v>
       </c>
       <c r="AA4">
-        <v>3908.163</v>
+        <v>3572.32599999999</v>
       </c>
       <c r="AB4">
-        <v>8725.8090000000193</v>
+        <v>7921.6209999999901</v>
       </c>
       <c r="AC4">
-        <v>12500.022000000001</v>
+        <v>11989.241</v>
       </c>
       <c r="AD4">
-        <v>16522.157999999999</v>
+        <v>16579.73</v>
       </c>
       <c r="AE4">
-        <v>20331.940999999999</v>
+        <v>20478.616000000002</v>
       </c>
       <c r="AF4">
-        <v>2135.1309999999899</v>
+        <v>6377.9550000000099</v>
       </c>
       <c r="AG4">
-        <v>3552.105</v>
+        <v>11989.241</v>
       </c>
       <c r="AH4">
-        <v>5231.0429999999997</v>
+        <v>18230.887000000101</v>
       </c>
       <c r="AI4">
-        <v>7996.2030000000204</v>
+        <v>24501.680000000099</v>
       </c>
       <c r="AJ4">
-        <v>9693.7629999999899</v>
+        <v>30062.030999999999</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>200</v>
       </c>
       <c r="T5">
-        <v>13721.902</v>
+        <v>3572.32599999999</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6">
-        <v>20042.866000000002</v>
+        <v>6377.9550000000099</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7">
-        <v>26758.088999999902</v>
+        <v>7921.6209999999901</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>60.0555555555555</v>
       </c>
       <c r="T8">
-        <v>34377.582999999897</v>
+        <v>10040.457</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>143.096</v>
       </c>
       <c r="T9">
-        <v>3908.163</v>
+        <v>3572.32599999999</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10">
-        <v>8725.8090000000193</v>
+        <v>7921.6209999999901</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11">
-        <v>12500.022000000001</v>
+        <v>11989.241</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
@@ -1407,22 +1407,22 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T12">
-        <v>16522.157999999999</v>
+        <v>16579.73</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13">
-        <v>20331.940999999999</v>
+        <v>20478.616000000002</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T14">
-        <v>2135.1309999999899</v>
+        <v>6377.9550000000099</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T15">
-        <v>3552.105</v>
+        <v>11989.241</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
@@ -1430,13 +1430,13 @@
         <v>36</v>
       </c>
       <c r="T16">
-        <v>5231.0429999999997</v>
+        <v>18230.887000000101</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="T17">
-        <v>7996.2030000000204</v>
+        <v>24501.680000000099</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
       <c r="Q18" s="33"/>
       <c r="R18" s="34"/>
       <c r="T18">
-        <v>9693.7629999999899</v>
+        <v>30062.030999999999</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -3297,42 +3297,102 @@
       <c r="C93" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="3"/>
+      <c r="D93" s="1">
+        <v>1234.29</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2666.1929999999902</v>
+      </c>
+      <c r="F93" s="2">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="G93" s="2">
+        <v>5166.6090000000004</v>
+      </c>
+      <c r="H93" s="3">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1312.32</v>
+      </c>
+      <c r="J93" s="2">
+        <v>2675.4489999999901</v>
+      </c>
+      <c r="K93" s="2">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="L93" s="2">
+        <v>5124.8299999999899</v>
+      </c>
+      <c r="M93" s="3">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="N93" s="1">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1668.3779999999899</v>
+      </c>
+      <c r="P93" s="2">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>3405.0549999999998</v>
+      </c>
+      <c r="R93" s="3">
+        <v>4135.3130000000001</v>
+      </c>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94" s="31"/>
       <c r="C94" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="7"/>
+      <c r="D94" s="5">
+        <v>612.00800000000004</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1230.9449999999999</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1679.9569999999901</v>
+      </c>
+      <c r="G94" s="6">
+        <v>2330.3409999999999</v>
+      </c>
+      <c r="H94" s="6">
+        <v>2986.5859999999898</v>
+      </c>
+      <c r="I94" s="5">
+        <v>2584.8179999999902</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4821.5010000000002</v>
+      </c>
+      <c r="K94" s="6">
+        <v>7360.8819999999896</v>
+      </c>
+      <c r="L94" s="6">
+        <v>9634.0409999999993</v>
+      </c>
+      <c r="M94" s="6">
+        <v>12171.7079999999</v>
+      </c>
+      <c r="N94" s="5">
+        <v>4493.5659999999898</v>
+      </c>
+      <c r="O94" s="6">
+        <v>9580.5769999999902</v>
+      </c>
+      <c r="P94" s="6">
+        <v>14392.8669999999</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>18823.526999999998</v>
+      </c>
+      <c r="R94" s="7">
+        <v>23899.341</v>
+      </c>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95" s="30" t="s">
@@ -3341,42 +3401,102 @@
       <c r="C95" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="3"/>
+      <c r="D95" s="1">
+        <v>238.7</v>
+      </c>
+      <c r="E95" s="2">
+        <v>360.51199999999801</v>
+      </c>
+      <c r="F95" s="2">
+        <v>765.06</v>
+      </c>
+      <c r="G95" s="2">
+        <v>903.82399999999996</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1156.4839999999899</v>
+      </c>
+      <c r="I95" s="1">
+        <v>360.51199999999801</v>
+      </c>
+      <c r="J95" s="2">
+        <v>903.82399999999996</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1355.2919999999899</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1913.018</v>
+      </c>
+      <c r="M95" s="3">
+        <v>2340.67</v>
+      </c>
+      <c r="N95" s="1">
+        <v>765.06</v>
+      </c>
+      <c r="O95" s="2">
+        <v>1355.2919999999899</v>
+      </c>
+      <c r="P95" s="2">
+        <v>2075.4450000000002</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>2793.3629999999998</v>
+      </c>
+      <c r="R95" s="3">
+        <v>3341.7869999999898</v>
+      </c>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="31"/>
       <c r="C96" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="7"/>
+      <c r="D96" s="5">
+        <v>2004.1510000000001</v>
+      </c>
+      <c r="E96" s="6">
+        <v>3572.32599999999</v>
+      </c>
+      <c r="F96" s="6">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="G96" s="6">
+        <v>7921.6209999999901</v>
+      </c>
+      <c r="H96" s="6">
+        <v>10040.457</v>
+      </c>
+      <c r="I96" s="5">
+        <v>3572.32599999999</v>
+      </c>
+      <c r="J96" s="6">
+        <v>7921.6209999999901</v>
+      </c>
+      <c r="K96" s="6">
+        <v>11989.241</v>
+      </c>
+      <c r="L96" s="6">
+        <v>16579.73</v>
+      </c>
+      <c r="M96" s="6">
+        <v>20478.616000000002</v>
+      </c>
+      <c r="N96" s="5">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="O96" s="6">
+        <v>11989.241</v>
+      </c>
+      <c r="P96" s="6">
+        <v>18230.887000000101</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>24501.680000000099</v>
+      </c>
+      <c r="R96" s="7">
+        <v>30062.030999999999</v>
+      </c>
     </row>
     <row r="100" spans="2:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B100" s="28" t="s">

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B06E73-995D-3E45-A4F9-4234A17D14AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B68978-B33F-47F4-A53E-5320566D1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="2250" yWindow="0" windowWidth="26550" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Distributions" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -237,6 +237,33 @@
   <si>
     <t>Total to grid.</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>Total Excess Electricity</t>
+  </si>
+  <si>
+    <t>Total Bought Electricity</t>
+  </si>
+  <si>
+    <t>Total Consumed Electricity</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -445,11 +472,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -511,11 +549,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,30 +881,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:AJ138"/>
+  <dimension ref="B2:CM133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:91" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:91" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="32">
         <v>0.25</v>
       </c>
@@ -881,7 +930,7 @@
         <v>2004.1510000000001</v>
       </c>
       <c r="V4" cm="1">
-        <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
+        <f t="array" ref="V4:CM4">TRANSPOSE(T4:T73)</f>
         <v>2004.1510000000001</v>
       </c>
       <c r="W4">
@@ -894,40 +943,205 @@
         <v>7921.6209999999901</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>10040.457</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3572.32599999999</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>7921.6209999999901</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>11989.241</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>16579.73</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>20478.616000000002</v>
       </c>
-      <c r="AF4">
-        <v>6377.9550000000099</v>
-      </c>
-      <c r="AG4">
-        <v>11989.241</v>
-      </c>
-      <c r="AH4">
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
         <v>18230.887000000101</v>
       </c>
-      <c r="AI4">
+      <c r="CL4">
         <v>24501.680000000099</v>
       </c>
-      <c r="AJ4">
+      <c r="CM4">
         <v>30062.030999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1296,7 @@
         <v>6377.9550000000099</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="8" t="s">
         <v>26</v>
@@ -1136,1244 +1350,1956 @@
         <v>7921.6209999999901</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B8" s="43"/>
+      <c r="C8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5">
+        <f>SUM(D6:D7)</f>
+        <v>160.07099999999991</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:R8" si="0">SUM(E6:E7)</f>
+        <v>352.66699999999901</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>467.14999999999799</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>628.08299999999895</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>818.60400000000004</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>117.688</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>229.91199999999901</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>352.66699999999901</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>431.84699999999896</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>509.72699999999895</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>66.038999999999902</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="0"/>
+        <v>117.6879999999999</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="0"/>
+        <v>160.07099999999991</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="0"/>
+        <v>229.91199999999799</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="0"/>
+        <v>282.450999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="19">
+      <c r="C9" s="38"/>
+      <c r="D9" s="19">
         <v>55.4166666666666</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="20">
         <v>62.5</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F9" s="20">
         <v>61.3888888888888</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G9" s="20">
         <v>59.8958333333333</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H9" s="21">
         <v>58.8333333333333</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I9" s="19">
         <v>62.5</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J9" s="20">
         <v>59.8958333333333</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K9" s="20">
         <v>59.1666666666666</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L9" s="20">
         <v>58.6458333333333</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M9" s="21">
         <v>57.999999999999901</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N9" s="19">
         <v>61.3888888888888</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O9" s="20">
         <v>59.1666666666666</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P9" s="20">
         <v>58.3333333333333</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q9" s="20">
         <v>59.062499999999901</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R9" s="21">
         <v>60.0555555555555</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>10040.457</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+    <row r="10" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>70.011999999999901</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>162.74799999999999</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>216.59799999999899</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>294.63400000000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>378.77199999999903</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="1">
         <v>58.514999999999901</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10" s="2">
         <v>111.81399999999999</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="2">
         <v>175.37899999999999</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10" s="2">
         <v>214.83699999999899</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>256.06799999999998</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N10" s="1">
         <v>34.512999999999998</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10" s="2">
         <v>60.058999999999898</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>78.252999999999901</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>113.941</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R10" s="3">
         <v>143.096</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>3572.32599999999</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
-      <c r="C10" s="8" t="s">
+    <row r="11" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>195.36699999999999</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>381.154</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>579.78699999999901</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>762.29899999999895</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <v>945.03800000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I11" s="5">
         <v>485.387</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="6">
         <v>945.11899999999901</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="6">
         <v>1417.0039999999899</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L11" s="6">
         <v>1892.183</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M11" s="6">
         <v>2384.942</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N11" s="5">
         <v>761.87199999999905</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O11" s="6">
         <v>1532.3239999999901</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P11" s="6">
         <v>2299.84</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q11" s="6">
         <v>3068.0509999999999</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R11" s="7">
         <v>3867.1559999999899</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>7921.6209999999901</v>
       </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(D10:D11)</f>
+        <v>265.37899999999991</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:R12" si="1">SUM(E10:E11)</f>
+        <v>543.90200000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>796.38499999999794</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>1056.9329999999991</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>1323.809999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>543.90199999999993</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>1056.9329999999991</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>1592.3829999999898</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>2107.0199999999991</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>2641.01</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>796.38499999999908</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>1592.38299999999</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="1"/>
+        <v>2378.0929999999998</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="1"/>
+        <v>3181.9919999999997</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="1"/>
+        <v>4010.2519999999899</v>
+      </c>
+    </row>
+    <row r="13" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>0.69</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="2">
         <v>1.855</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="2">
         <v>3.2349999999999999</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="2">
         <v>4.8819999999999997</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H13" s="3">
         <v>6.5509999999999904</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I13" s="1">
         <v>1.855</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J13" s="2">
         <v>4.8819999999999997</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K13" s="2">
         <v>7.4279999999999902</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L13" s="2">
         <v>9.3650000000000002</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M13" s="3">
         <v>11.442</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N13" s="1">
         <v>3.2349999999999999</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O13" s="2">
         <v>7.4279999999999902</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P13" s="2">
         <v>10.285</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q13" s="2">
         <v>14.750999999999999</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R13" s="3">
         <v>16.777999999999899</v>
       </c>
-      <c r="T11">
+      <c r="T13">
         <v>11989.241</v>
       </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
-      <c r="C12" s="12" t="s">
+      <c r="W13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B14" s="31"/>
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D14" s="5">
         <v>23.068999999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E14" s="6">
         <v>38.18</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F14" s="6">
         <v>70.010999999999996</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G14" s="6">
         <v>102.063</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H14" s="6">
         <v>132.15499999999901</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I14" s="5">
         <v>38.18</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J14" s="6">
         <v>102.063</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K14" s="6">
         <v>152.11500000000001</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L14" s="6">
         <v>210.26499999999999</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M14" s="6">
         <v>263.291</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N14" s="5">
         <v>70.010999999999996</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O14" s="6">
         <v>152.11500000000001</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P14" s="6">
         <v>231.09</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q14" s="6">
         <v>313.68599999999998</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R14" s="7">
         <v>380.47500000000002</v>
       </c>
-      <c r="T12">
+      <c r="T14">
         <v>16579.73</v>
       </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="T13">
+      <c r="W14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="42">
+        <f>SUM(D13:D14)</f>
+        <v>23.759</v>
+      </c>
+      <c r="E15" s="42">
+        <f t="shared" ref="E15:R15" si="2">SUM(E13:E14)</f>
+        <v>40.034999999999997</v>
+      </c>
+      <c r="F15" s="42">
+        <f t="shared" si="2"/>
+        <v>73.245999999999995</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="2"/>
+        <v>106.94500000000001</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" si="2"/>
+        <v>138.70599999999899</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="2"/>
+        <v>40.034999999999997</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="2"/>
+        <v>106.94500000000001</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" si="2"/>
+        <v>159.54300000000001</v>
+      </c>
+      <c r="L15" s="42">
+        <f t="shared" si="2"/>
+        <v>219.63</v>
+      </c>
+      <c r="M15" s="42">
+        <f t="shared" si="2"/>
+        <v>274.733</v>
+      </c>
+      <c r="N15" s="42">
+        <f t="shared" si="2"/>
+        <v>73.245999999999995</v>
+      </c>
+      <c r="O15" s="42">
+        <f t="shared" si="2"/>
+        <v>159.54300000000001</v>
+      </c>
+      <c r="P15" s="42">
+        <f t="shared" si="2"/>
+        <v>241.375</v>
+      </c>
+      <c r="Q15" s="42">
+        <f t="shared" si="2"/>
+        <v>328.43699999999995</v>
+      </c>
+      <c r="R15" s="42">
+        <f t="shared" si="2"/>
+        <v>397.25299999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:91" x14ac:dyDescent="0.25">
+      <c r="T16">
         <v>20478.616000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="T14">
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18">
+        <f>2/9*100</f>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="10">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9">
+        <v>80</v>
+      </c>
+      <c r="F21" s="9">
+        <v>120</v>
+      </c>
+      <c r="G21" s="9">
+        <v>160</v>
+      </c>
+      <c r="H21" s="9">
+        <v>200</v>
+      </c>
+      <c r="I21" s="10">
+        <v>40</v>
+      </c>
+      <c r="J21" s="9">
+        <v>80</v>
+      </c>
+      <c r="K21" s="9">
+        <v>120</v>
+      </c>
+      <c r="L21" s="9">
+        <v>160</v>
+      </c>
+      <c r="M21" s="9">
+        <v>200</v>
+      </c>
+      <c r="N21" s="10">
+        <v>40</v>
+      </c>
+      <c r="O21" s="9">
+        <v>80</v>
+      </c>
+      <c r="P21" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>160</v>
+      </c>
+      <c r="R21" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12.381</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="K22" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="M22" s="3">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="O22" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="R22" s="3">
+        <v>30.446999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5">
+        <v>221.73400000000001</v>
+      </c>
+      <c r="E23" s="6">
+        <v>516.07500000000005</v>
+      </c>
+      <c r="F23" s="6">
+        <v>751.58199999999999</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1002.05699999999</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1333.7239999999899</v>
+      </c>
+      <c r="I23" s="5">
+        <v>161.07</v>
+      </c>
+      <c r="J23" s="6">
+        <v>372.03</v>
+      </c>
+      <c r="K23" s="6">
+        <v>505.45800000000003</v>
+      </c>
+      <c r="L23" s="6">
+        <v>676.41599999999903</v>
+      </c>
+      <c r="M23" s="6">
+        <v>824.81899999999996</v>
+      </c>
+      <c r="N23" s="5">
+        <v>87.516000000000005</v>
+      </c>
+      <c r="O23" s="6">
+        <v>150.453</v>
+      </c>
+      <c r="P23" s="6">
+        <v>203.19900000000001</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>357.82</v>
+      </c>
+      <c r="R23" s="7">
+        <v>416.897999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="5">
+        <f>SUM(D22:D23)</f>
+        <v>223.483</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:R24" si="3">SUM(E22:E23)</f>
+        <v>519.64200000000005</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>757.98599999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="3"/>
+        <v>1012.77299999999</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="3"/>
+        <v>1346.10499999999</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="3"/>
+        <v>164.63699999999997</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>382.74599999999998</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="3"/>
+        <v>519.64200000000005</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="3"/>
+        <v>693.89399999999898</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="3"/>
+        <v>847.15399999999988</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="3"/>
+        <v>93.92</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="3"/>
+        <v>164.637</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="3"/>
+        <v>223.483</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="3"/>
+        <v>382.74599999999998</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="3"/>
+        <v>447.344999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="19">
+        <v>10</v>
+      </c>
+      <c r="E25" s="20">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="F25" s="20">
+        <v>12.2222222222222</v>
+      </c>
+      <c r="G25" s="20">
+        <v>16.5625</v>
+      </c>
+      <c r="H25" s="21">
+        <v>14.9166666666666</v>
+      </c>
+      <c r="I25" s="19">
+        <v>9.5833333333333304</v>
+      </c>
+      <c r="J25" s="20">
+        <v>16.5625</v>
+      </c>
+      <c r="K25" s="20">
+        <v>13.8194444444444</v>
+      </c>
+      <c r="L25" s="20">
+        <v>13.1770833333333</v>
+      </c>
+      <c r="M25" s="21">
+        <v>13.2916666666666</v>
+      </c>
+      <c r="N25" s="19">
+        <v>12.2222222222222</v>
+      </c>
+      <c r="O25" s="20">
+        <v>13.8194444444444</v>
+      </c>
+      <c r="P25" s="20">
+        <v>13.009259259259199</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>12.7430555555555</v>
+      </c>
+      <c r="R25" s="21">
+        <v>12.4166666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12.381</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.56699999999999</v>
+      </c>
+      <c r="J26" s="2">
+        <v>10.715999999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="L26" s="2">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="M26" s="3">
+        <v>22.334999999999901</v>
+      </c>
+      <c r="N26" s="1">
+        <v>6.4039999999999901</v>
+      </c>
+      <c r="O26" s="2">
+        <v>14.183999999999999</v>
+      </c>
+      <c r="P26" s="2">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="R26" s="3">
+        <v>30.446999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="29">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="E28">
+        <v>9.0299999999999905</v>
+      </c>
+      <c r="F28">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="G28">
+        <v>16.477</v>
+      </c>
+      <c r="H28" s="29">
+        <v>22.358000000000001</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9.0299999999999905</v>
+      </c>
+      <c r="J28">
+        <v>16.477</v>
+      </c>
+      <c r="K28">
+        <v>27.227</v>
+      </c>
+      <c r="L28">
+        <v>38.7779999999998</v>
+      </c>
+      <c r="M28" s="29">
+        <v>46.946999999999797</v>
+      </c>
+      <c r="N28" s="4">
+        <v>12.780999999999899</v>
+      </c>
+      <c r="O28">
+        <v>27.227</v>
+      </c>
+      <c r="P28">
+        <v>41.9669999999998</v>
+      </c>
+      <c r="Q28">
+        <v>60.550999999999803</v>
+      </c>
+      <c r="R28" s="29">
+        <v>73.428000000000296</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="31"/>
+      <c r="C29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5">
+        <v>99.1039999999999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>168.33099999999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="G29" s="6">
+        <v>347.63200000000001</v>
+      </c>
+      <c r="H29" s="6">
+        <v>431.16699999999997</v>
+      </c>
+      <c r="I29" s="5">
+        <v>168.33099999999999</v>
+      </c>
+      <c r="J29" s="6">
+        <v>347.63200000000001</v>
+      </c>
+      <c r="K29" s="6">
+        <v>516.73800000000006</v>
+      </c>
+      <c r="L29" s="6">
+        <v>724.62499999999795</v>
+      </c>
+      <c r="M29" s="6">
+        <v>903.57199999999705</v>
+      </c>
+      <c r="N29" s="5">
+        <v>293.64800000000002</v>
+      </c>
+      <c r="O29" s="6">
+        <v>516.73800000000006</v>
+      </c>
+      <c r="P29" s="6">
+        <v>799.92199999999696</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1065.77699999999</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1324.3039999999901</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="B32" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="10">
+        <v>40</v>
+      </c>
+      <c r="E35" s="9">
+        <v>80</v>
+      </c>
+      <c r="F35" s="9">
+        <v>120</v>
+      </c>
+      <c r="G35" s="9">
+        <v>160</v>
+      </c>
+      <c r="H35" s="9">
+        <v>200</v>
+      </c>
+      <c r="I35" s="10">
+        <v>40</v>
+      </c>
+      <c r="J35" s="9">
+        <v>80</v>
+      </c>
+      <c r="K35" s="9">
+        <v>120</v>
+      </c>
+      <c r="L35" s="9">
+        <v>160</v>
+      </c>
+      <c r="M35" s="9">
+        <v>200</v>
+      </c>
+      <c r="N35" s="10">
+        <v>40</v>
+      </c>
+      <c r="O35" s="9">
+        <v>80</v>
+      </c>
+      <c r="P35" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>160</v>
+      </c>
+      <c r="R35" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6117.7249999999904</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="G36" s="2">
+        <v>11889.558000000001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4916.8629999999903</v>
+      </c>
+      <c r="K36" s="2">
+        <v>7086.0319999999901</v>
+      </c>
+      <c r="L36" s="2">
+        <v>9383.6909999999898</v>
+      </c>
+      <c r="M36" s="3">
+        <v>11421.428</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1425.81699999999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2588.4809999999902</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5239.3299999999899</v>
+      </c>
+      <c r="R36" s="3">
+        <v>6354.0019999999904</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
+      <c r="C37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3962.0720000000001</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8124.8789999999899</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11716.35</v>
+      </c>
+      <c r="G37" s="6">
+        <v>15742.833000000001</v>
+      </c>
+      <c r="H37" s="6">
+        <v>20326.177999999902</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2297.0259999999898</v>
+      </c>
+      <c r="J37" s="6">
+        <v>5013.4430000000002</v>
+      </c>
+      <c r="K37" s="6">
+        <v>7156.5720000000001</v>
+      </c>
+      <c r="L37" s="6">
+        <v>9472.7380000000103</v>
+      </c>
+      <c r="M37" s="6">
+        <v>11543.5999999999</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1215.5719999999999</v>
+      </c>
+      <c r="O37" s="6">
+        <v>2120.0809999999901</v>
+      </c>
+      <c r="P37" s="6">
+        <v>3240.2179999999998</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>4690.9759999999997</v>
+      </c>
+      <c r="R37" s="7">
+        <v>5716.29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="19">
+        <v>45.470430107526802</v>
+      </c>
+      <c r="E38" s="20">
+        <v>45.8400537634408</v>
+      </c>
+      <c r="F38" s="20">
+        <v>44.659498207885299</v>
+      </c>
+      <c r="G38" s="20">
+        <v>46.592741935483801</v>
+      </c>
+      <c r="H38" s="21">
+        <v>46.803763440860202</v>
+      </c>
+      <c r="I38" s="19">
+        <v>45.8400537634408</v>
+      </c>
+      <c r="J38" s="20">
+        <v>46.592741935483801</v>
+      </c>
+      <c r="K38" s="20">
+        <v>47.327508960573397</v>
+      </c>
+      <c r="L38" s="20">
+        <v>47.281586021505298</v>
+      </c>
+      <c r="M38" s="21">
+        <v>47.227150537634401</v>
+      </c>
+      <c r="N38" s="19">
+        <v>44.659498207885299</v>
+      </c>
+      <c r="O38" s="20">
+        <v>47.327508960573397</v>
+      </c>
+      <c r="P38" s="20">
+        <v>47.519414575866101</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>47.001568100358398</v>
+      </c>
+      <c r="R38" s="21">
+        <v>47.6272401433691</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3004.4209999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6117.7249999999904</v>
+      </c>
+      <c r="F39" s="2">
+        <v>8760.58499999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>11889.558000000001</v>
+      </c>
+      <c r="H39" s="3">
+        <v>14966.8029999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2411.5359999999901</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4916.8629999999903</v>
+      </c>
+      <c r="K39" s="2">
+        <v>7086.0319999999801</v>
+      </c>
+      <c r="L39" s="2">
+        <v>9383.6910000000007</v>
+      </c>
+      <c r="M39" s="3">
+        <v>11421.428</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1425.817</v>
+      </c>
+      <c r="O39" s="2">
+        <v>2588.4809999999902</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3726.2750000000001</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5239.3299999999899</v>
+      </c>
+      <c r="R39" s="3">
+        <v>6354.0019999999904</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="C40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1996.89399999999</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4187.6409999999896</v>
+      </c>
+      <c r="F40" s="6">
+        <v>6057.6900000000096</v>
+      </c>
+      <c r="G40" s="6">
+        <v>8282.9299999999894</v>
+      </c>
+      <c r="H40" s="6">
+        <v>10395.513999999999</v>
+      </c>
+      <c r="I40" s="5">
+        <v>7893.8299999999899</v>
+      </c>
+      <c r="J40" s="6">
+        <v>15255.625</v>
+      </c>
+      <c r="K40" s="6">
+        <v>23387.566999999999</v>
+      </c>
+      <c r="L40" s="6">
+        <v>30907.7239999999</v>
+      </c>
+      <c r="M40" s="6">
+        <v>39006.135000000002</v>
+      </c>
+      <c r="N40" s="5">
+        <v>13392.458000000001</v>
+      </c>
+      <c r="O40" s="6">
+        <v>27885.117999999999</v>
+      </c>
+      <c r="P40" s="6">
+        <v>41847.157999999901</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>55185.131999999903</v>
+      </c>
+      <c r="R40" s="7">
+        <v>69848.159999999902</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1">
+        <v>196.58199999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>293.75999999999902</v>
+      </c>
+      <c r="F41" s="2">
+        <v>710.92399999999702</v>
+      </c>
+      <c r="G41" s="2">
+        <v>816.372999999998</v>
+      </c>
+      <c r="H41" s="3">
+        <v>968.72199999999896</v>
+      </c>
+      <c r="I41" s="1">
+        <v>293.75999999999902</v>
+      </c>
+      <c r="J41" s="2">
+        <v>816.372999999998</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1083.00899999999</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1492.7059999999999</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1818.87599999999</v>
+      </c>
+      <c r="N41" s="1">
+        <v>710.92399999999702</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1083.00899999999</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1603.7529999999999</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>2209.0019999999899</v>
+      </c>
+      <c r="R41" s="3">
+        <v>2562.0309999999699</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="31"/>
+      <c r="C42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1051.4369999999999</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2031.627</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="G42" s="6">
+        <v>4401.9659999999903</v>
+      </c>
+      <c r="H42" s="6">
+        <v>5513.1819999999698</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2031.627</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4401.9659999999903</v>
+      </c>
+      <c r="K42" s="6">
+        <v>6553.7069999999403</v>
+      </c>
+      <c r="L42" s="6">
+        <v>8969.5239999999794</v>
+      </c>
+      <c r="M42" s="6">
+        <v>11215.2600000001</v>
+      </c>
+      <c r="N42" s="5">
+        <v>3580.2909999999802</v>
+      </c>
+      <c r="O42" s="6">
+        <v>6553.7069999999403</v>
+      </c>
+      <c r="P42" s="6">
+        <v>9945.9360000000197</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>13579.2340000001</v>
+      </c>
+      <c r="R42" s="7">
+        <v>16573.290000000201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B45" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B46" s="28"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="10">
+        <v>40</v>
+      </c>
+      <c r="E48" s="9">
+        <v>80</v>
+      </c>
+      <c r="F48" s="9">
+        <v>120</v>
+      </c>
+      <c r="G48" s="9">
+        <v>160</v>
+      </c>
+      <c r="H48" s="9">
+        <v>200</v>
+      </c>
+      <c r="I48" s="10">
+        <v>40</v>
+      </c>
+      <c r="J48" s="9">
+        <v>80</v>
+      </c>
+      <c r="K48" s="9">
+        <v>120</v>
+      </c>
+      <c r="L48" s="9">
+        <v>160</v>
+      </c>
+      <c r="M48" s="9">
+        <v>200</v>
+      </c>
+      <c r="N48" s="10">
+        <v>40</v>
+      </c>
+      <c r="O48" s="9">
+        <v>80</v>
+      </c>
+      <c r="P48" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>160</v>
+      </c>
+      <c r="R48" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1234.29</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2666.1929999999902</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5166.6090000000004</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1312.32</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2675.4489999999901</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="L49" s="2">
+        <v>5124.8299999999899</v>
+      </c>
+      <c r="M49" s="3">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="N49" s="1">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1668.3779999999899</v>
+      </c>
+      <c r="P49" s="2">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>3405.0549999999998</v>
+      </c>
+      <c r="R49" s="3">
+        <v>4135.3130000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="31"/>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6331.741</v>
+      </c>
+      <c r="E50" s="6">
+        <v>13721.902</v>
+      </c>
+      <c r="F50" s="6">
+        <v>20042.866000000002</v>
+      </c>
+      <c r="G50" s="6">
+        <v>26758.088999999902</v>
+      </c>
+      <c r="H50" s="6">
+        <v>34377.582999999897</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3908.163</v>
+      </c>
+      <c r="J50" s="6">
+        <v>8725.8090000000193</v>
+      </c>
+      <c r="K50" s="6">
+        <v>12500.022000000001</v>
+      </c>
+      <c r="L50" s="6">
+        <v>16522.157999999999</v>
+      </c>
+      <c r="M50" s="6">
+        <v>20331.940999999999</v>
+      </c>
+      <c r="N50" s="5">
+        <v>2135.1309999999899</v>
+      </c>
+      <c r="O50" s="6">
+        <v>3552.105</v>
+      </c>
+      <c r="P50" s="6">
+        <v>5231.0429999999997</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>7996.2030000000204</v>
+      </c>
+      <c r="R50" s="7">
+        <v>9693.7629999999899</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="19">
+        <v>23.9919354838709</v>
+      </c>
+      <c r="E51" s="20">
+        <v>25.1747311827957</v>
+      </c>
+      <c r="F51" s="20">
+        <v>23.853046594982001</v>
+      </c>
+      <c r="G51" s="20">
+        <v>24.543010752688101</v>
+      </c>
+      <c r="H51" s="21">
+        <v>24.403225806451601</v>
+      </c>
+      <c r="I51" s="19">
+        <v>25.1747311827957</v>
+      </c>
+      <c r="J51" s="20">
+        <v>24.543010752688101</v>
+      </c>
+      <c r="K51" s="20">
+        <v>24.363799283154101</v>
+      </c>
+      <c r="L51" s="20">
+        <v>24.002016129032199</v>
+      </c>
+      <c r="M51" s="21">
+        <v>24.034946236559101</v>
+      </c>
+      <c r="N51" s="19">
+        <v>23.853046594982001</v>
+      </c>
+      <c r="O51" s="20">
+        <v>24.363799283154101</v>
+      </c>
+      <c r="P51" s="20">
+        <v>24.151732377538799</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>24.086021505376301</v>
+      </c>
+      <c r="R51" s="21">
+        <v>24.215949820788499</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1234.29</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2666.1929999999902</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3761.0539999999901</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5166.6090000000004</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6370.1729999999898</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1312.32</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2675.4489999999901</v>
+      </c>
+      <c r="K52" s="2">
+        <v>3888.0729999999999</v>
+      </c>
+      <c r="L52" s="2">
+        <v>5124.8299999999899</v>
+      </c>
+      <c r="M52" s="3">
+        <v>6322.4459999999899</v>
+      </c>
+      <c r="N52" s="1">
+        <v>947.44499999999903</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1668.3779999999899</v>
+      </c>
+      <c r="P52" s="2">
+        <v>2334.9879999999998</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>3405.0549999999998</v>
+      </c>
+      <c r="R52" s="3">
+        <v>4135.3130000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
+      <c r="C53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="5">
+        <v>612.00800000000004</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1230.9449999999999</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1679.9569999999901</v>
+      </c>
+      <c r="G53" s="6">
+        <v>2330.3409999999999</v>
+      </c>
+      <c r="H53" s="6">
+        <v>2986.5859999999898</v>
+      </c>
+      <c r="I53" s="5">
+        <v>2584.8179999999902</v>
+      </c>
+      <c r="J53" s="6">
+        <v>4821.5010000000002</v>
+      </c>
+      <c r="K53" s="6">
+        <v>7360.8819999999896</v>
+      </c>
+      <c r="L53" s="6">
+        <v>9634.0409999999993</v>
+      </c>
+      <c r="M53" s="6">
+        <v>12171.7079999999</v>
+      </c>
+      <c r="N53" s="5">
+        <v>4493.5659999999898</v>
+      </c>
+      <c r="O53" s="6">
+        <v>9580.5769999999902</v>
+      </c>
+      <c r="P53" s="6">
+        <v>14392.8669999999</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>18823.526999999998</v>
+      </c>
+      <c r="R53" s="7">
+        <v>23899.341</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1">
+        <v>238.7</v>
+      </c>
+      <c r="E54" s="2">
+        <v>360.51199999999801</v>
+      </c>
+      <c r="F54" s="2">
+        <v>765.06</v>
+      </c>
+      <c r="G54" s="2">
+        <v>903.82399999999996</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1156.4839999999899</v>
+      </c>
+      <c r="I54" s="1">
+        <v>360.51199999999801</v>
+      </c>
+      <c r="J54" s="2">
+        <v>903.82399999999996</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1355.2919999999899</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1913.018</v>
+      </c>
+      <c r="M54" s="3">
+        <v>2340.67</v>
+      </c>
+      <c r="N54" s="1">
+        <v>765.06</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1355.2919999999899</v>
+      </c>
+      <c r="P54" s="2">
+        <v>2075.4450000000002</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>2793.3629999999998</v>
+      </c>
+      <c r="R54" s="3">
+        <v>3341.7869999999898</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="31"/>
+      <c r="C55" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2004.1510000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>3572.32599999999</v>
+      </c>
+      <c r="F55" s="6">
         <v>6377.9550000000099</v>
       </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="T15">
+      <c r="G55" s="6">
+        <v>7921.6209999999901</v>
+      </c>
+      <c r="H55" s="6">
+        <v>10040.457</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3572.32599999999</v>
+      </c>
+      <c r="J55" s="6">
+        <v>7921.6209999999901</v>
+      </c>
+      <c r="K55" s="6">
         <v>11989.241</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16">
+      <c r="L55" s="6">
+        <v>16579.73</v>
+      </c>
+      <c r="M55" s="6">
+        <v>20478.616000000002</v>
+      </c>
+      <c r="N55" s="5">
+        <v>6377.9550000000099</v>
+      </c>
+      <c r="O55" s="6">
+        <v>11989.241</v>
+      </c>
+      <c r="P55" s="6">
         <v>18230.887000000101</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="28"/>
-      <c r="T17">
+      <c r="Q55" s="6">
         <v>24501.680000000099</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="T18">
+      <c r="R55" s="7">
         <v>30062.030999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="10">
-        <v>40</v>
-      </c>
-      <c r="E19" s="9">
-        <v>80</v>
-      </c>
-      <c r="F19" s="9">
-        <v>120</v>
-      </c>
-      <c r="G19" s="9">
-        <v>160</v>
-      </c>
-      <c r="H19" s="9">
-        <v>200</v>
-      </c>
-      <c r="I19" s="10">
-        <v>40</v>
-      </c>
-      <c r="J19" s="9">
-        <v>80</v>
-      </c>
-      <c r="K19" s="9">
-        <v>120</v>
-      </c>
-      <c r="L19" s="9">
-        <v>160</v>
-      </c>
-      <c r="M19" s="9">
-        <v>200</v>
-      </c>
-      <c r="N19" s="10">
-        <v>40</v>
-      </c>
-      <c r="O19" s="9">
-        <v>80</v>
-      </c>
-      <c r="P19" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>160</v>
-      </c>
-      <c r="R19" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="31"/>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
-      <c r="C24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
-      <c r="C26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="30" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="34"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="10">
-        <v>40</v>
-      </c>
-      <c r="E33" s="9">
-        <v>80</v>
-      </c>
-      <c r="F33" s="9">
-        <v>120</v>
-      </c>
-      <c r="G33" s="9">
-        <v>160</v>
-      </c>
-      <c r="H33" s="9">
-        <v>200</v>
-      </c>
-      <c r="I33" s="10">
-        <v>40</v>
-      </c>
-      <c r="J33" s="9">
-        <v>80</v>
-      </c>
-      <c r="K33" s="9">
-        <v>120</v>
-      </c>
-      <c r="L33" s="9">
-        <v>160</v>
-      </c>
-      <c r="M33" s="9">
-        <v>200</v>
-      </c>
-      <c r="N33" s="10">
-        <v>40</v>
-      </c>
-      <c r="O33" s="9">
-        <v>80</v>
-      </c>
-      <c r="P33" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>160</v>
-      </c>
-      <c r="R33" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3.56699999999999</v>
-      </c>
-      <c r="F34" s="2">
-        <v>6.4039999999999901</v>
-      </c>
-      <c r="G34" s="2">
-        <v>10.715999999999999</v>
-      </c>
-      <c r="H34" s="3">
-        <v>12.381</v>
-      </c>
-      <c r="I34" s="1">
-        <v>3.56699999999999</v>
-      </c>
-      <c r="J34" s="2">
-        <v>10.715999999999999</v>
-      </c>
-      <c r="K34" s="2">
-        <v>14.183999999999999</v>
-      </c>
-      <c r="L34" s="2">
-        <v>17.478000000000002</v>
-      </c>
-      <c r="M34" s="3">
-        <v>22.334999999999901</v>
-      </c>
-      <c r="N34" s="1">
-        <v>6.4039999999999901</v>
-      </c>
-      <c r="O34" s="2">
-        <v>14.183999999999999</v>
-      </c>
-      <c r="P34" s="2">
-        <v>20.283999999999999</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>24.925999999999998</v>
-      </c>
-      <c r="R34" s="3">
-        <v>30.446999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="31"/>
-      <c r="C35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="5">
-        <v>221.73400000000001</v>
-      </c>
-      <c r="E35" s="6">
-        <v>516.07500000000005</v>
-      </c>
-      <c r="F35" s="6">
-        <v>751.58199999999999</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1002.05699999999</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1333.7239999999899</v>
-      </c>
-      <c r="I35" s="5">
-        <v>161.07</v>
-      </c>
-      <c r="J35" s="6">
-        <v>372.03</v>
-      </c>
-      <c r="K35" s="6">
-        <v>505.45800000000003</v>
-      </c>
-      <c r="L35" s="6">
-        <v>676.41599999999903</v>
-      </c>
-      <c r="M35" s="6">
-        <v>824.81899999999996</v>
-      </c>
-      <c r="N35" s="5">
-        <v>87.516000000000005</v>
-      </c>
-      <c r="O35" s="6">
-        <v>150.453</v>
-      </c>
-      <c r="P35" s="6">
-        <v>203.19900000000001</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>357.82</v>
-      </c>
-      <c r="R35" s="7">
-        <v>416.897999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="19">
-        <v>10</v>
-      </c>
-      <c r="E36" s="20">
-        <v>9.5833333333333304</v>
-      </c>
-      <c r="F36" s="20">
-        <v>12.2222222222222</v>
-      </c>
-      <c r="G36" s="20">
-        <v>16.5625</v>
-      </c>
-      <c r="H36" s="21">
-        <v>14.9166666666666</v>
-      </c>
-      <c r="I36" s="19">
-        <v>9.5833333333333304</v>
-      </c>
-      <c r="J36" s="20">
-        <v>16.5625</v>
-      </c>
-      <c r="K36" s="20">
-        <v>13.8194444444444</v>
-      </c>
-      <c r="L36" s="20">
-        <v>13.1770833333333</v>
-      </c>
-      <c r="M36" s="21">
-        <v>13.2916666666666</v>
-      </c>
-      <c r="N36" s="19">
-        <v>12.2222222222222</v>
-      </c>
-      <c r="O36" s="20">
-        <v>13.8194444444444</v>
-      </c>
-      <c r="P36" s="20">
-        <v>13.009259259259199</v>
-      </c>
-      <c r="Q36" s="20">
-        <v>12.7430555555555</v>
-      </c>
-      <c r="R36" s="21">
-        <v>12.4166666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3.56699999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>6.4039999999999901</v>
-      </c>
-      <c r="G37" s="2">
-        <v>10.715999999999999</v>
-      </c>
-      <c r="H37" s="3">
-        <v>12.381</v>
-      </c>
-      <c r="I37" s="1">
-        <v>3.56699999999999</v>
-      </c>
-      <c r="J37" s="2">
-        <v>10.715999999999999</v>
-      </c>
-      <c r="K37" s="2">
-        <v>14.183999999999999</v>
-      </c>
-      <c r="L37" s="2">
-        <v>17.478000000000002</v>
-      </c>
-      <c r="M37" s="3">
-        <v>22.334999999999901</v>
-      </c>
-      <c r="N37" s="1">
-        <v>6.4039999999999901</v>
-      </c>
-      <c r="O37" s="2">
-        <v>14.183999999999999</v>
-      </c>
-      <c r="P37" s="2">
-        <v>20.283999999999999</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>24.925999999999998</v>
-      </c>
-      <c r="R37" s="3">
-        <v>30.446999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="31"/>
-      <c r="C38" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="29">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="29">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4.1120000000000001</v>
-      </c>
-      <c r="E39">
-        <v>9.0299999999999905</v>
-      </c>
-      <c r="F39">
-        <v>12.780999999999899</v>
-      </c>
-      <c r="G39">
-        <v>16.477</v>
-      </c>
-      <c r="H39" s="29">
-        <v>22.358000000000001</v>
-      </c>
-      <c r="I39" s="4">
-        <v>9.0299999999999905</v>
-      </c>
-      <c r="J39">
-        <v>16.477</v>
-      </c>
-      <c r="K39">
-        <v>27.227</v>
-      </c>
-      <c r="L39">
-        <v>38.7779999999998</v>
-      </c>
-      <c r="M39" s="29">
-        <v>46.946999999999797</v>
-      </c>
-      <c r="N39" s="4">
-        <v>12.780999999999899</v>
-      </c>
-      <c r="O39">
-        <v>27.227</v>
-      </c>
-      <c r="P39">
-        <v>41.9669999999998</v>
-      </c>
-      <c r="Q39">
-        <v>60.550999999999803</v>
-      </c>
-      <c r="R39" s="29">
-        <v>73.428000000000296</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="31"/>
-      <c r="C40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="5">
-        <v>99.1039999999999</v>
-      </c>
-      <c r="E40" s="6">
-        <v>168.33099999999999</v>
-      </c>
-      <c r="F40" s="6">
-        <v>293.64800000000002</v>
-      </c>
-      <c r="G40" s="6">
-        <v>347.63200000000001</v>
-      </c>
-      <c r="H40" s="6">
-        <v>431.16699999999997</v>
-      </c>
-      <c r="I40" s="5">
-        <v>168.33099999999999</v>
-      </c>
-      <c r="J40" s="6">
-        <v>347.63200000000001</v>
-      </c>
-      <c r="K40" s="6">
-        <v>516.73800000000006</v>
-      </c>
-      <c r="L40" s="6">
-        <v>724.62499999999795</v>
-      </c>
-      <c r="M40" s="6">
-        <v>903.57199999999705</v>
-      </c>
-      <c r="N40" s="5">
-        <v>293.64800000000002</v>
-      </c>
-      <c r="O40" s="6">
-        <v>516.73800000000006</v>
-      </c>
-      <c r="P40" s="6">
-        <v>799.92199999999696</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>1065.77699999999</v>
-      </c>
-      <c r="R40" s="7">
-        <v>1324.3039999999901</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="28"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="34"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="10">
-        <v>40</v>
-      </c>
-      <c r="E47" s="9">
-        <v>80</v>
-      </c>
-      <c r="F47" s="9">
-        <v>120</v>
-      </c>
-      <c r="G47" s="9">
-        <v>160</v>
-      </c>
-      <c r="H47" s="9">
-        <v>200</v>
-      </c>
-      <c r="I47" s="10">
-        <v>40</v>
-      </c>
-      <c r="J47" s="9">
-        <v>80</v>
-      </c>
-      <c r="K47" s="9">
-        <v>120</v>
-      </c>
-      <c r="L47" s="9">
-        <v>160</v>
-      </c>
-      <c r="M47" s="9">
-        <v>200</v>
-      </c>
-      <c r="N47" s="10">
-        <v>40</v>
-      </c>
-      <c r="O47" s="9">
-        <v>80</v>
-      </c>
-      <c r="P47" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>160</v>
-      </c>
-      <c r="R47" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="31"/>
-      <c r="C49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="21"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="31"/>
-      <c r="C52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="31"/>
-      <c r="C54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="7"/>
-    </row>
-    <row r="58" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="32">
         <v>0.25</v>
       </c>
@@ -2396,7 +3322,7 @@
       <c r="Q60" s="33"/>
       <c r="R60" s="34"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +3373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="30" t="s">
         <v>7</v>
       </c>
@@ -2455,154 +3381,154 @@
         <v>27</v>
       </c>
       <c r="D62" s="1">
-        <v>3004.4209999999998</v>
+        <v>26123.977999999901</v>
       </c>
       <c r="E62" s="2">
-        <v>6117.7249999999904</v>
+        <v>55346.315000000002</v>
       </c>
       <c r="F62" s="2">
-        <v>8760.58499999999</v>
+        <v>79167.024999999907</v>
       </c>
       <c r="G62" s="2">
-        <v>11889.558000000001</v>
+        <v>108411.413999999</v>
       </c>
       <c r="H62" s="3">
-        <v>14966.8029999999</v>
+        <v>135348.016</v>
       </c>
       <c r="I62" s="1">
-        <v>2411.5359999999901</v>
+        <v>23267.427</v>
       </c>
       <c r="J62" s="2">
-        <v>4916.8629999999903</v>
+        <v>48128.292000000001</v>
       </c>
       <c r="K62" s="2">
-        <v>7086.0319999999901</v>
+        <v>69687.577000000107</v>
       </c>
       <c r="L62" s="2">
-        <v>9383.6909999999898</v>
+        <v>91464.140000000203</v>
       </c>
       <c r="M62" s="3">
-        <v>11421.428</v>
+        <v>113002.269</v>
       </c>
       <c r="N62" s="1">
-        <v>1425.81699999999</v>
+        <v>14555.466</v>
       </c>
       <c r="O62" s="2">
-        <v>2588.4809999999902</v>
+        <v>25883.148000000001</v>
       </c>
       <c r="P62" s="2">
-        <v>3726.2750000000001</v>
+        <v>36857.523999999801</v>
       </c>
       <c r="Q62" s="2">
-        <v>5239.3299999999899</v>
+        <v>53538.754000000103</v>
       </c>
       <c r="R62" s="3">
-        <v>6354.0019999999904</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+        <v>64892.758999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="31"/>
       <c r="C63" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="5">
-        <v>3962.0720000000001</v>
+        <v>56296.473000000296</v>
       </c>
       <c r="E63" s="6">
-        <v>8124.8789999999899</v>
+        <v>120654.103999999</v>
       </c>
       <c r="F63" s="6">
-        <v>11716.35</v>
+        <v>176162.95</v>
       </c>
       <c r="G63" s="6">
-        <v>15742.833000000001</v>
+        <v>235511.42499999999</v>
       </c>
       <c r="H63" s="6">
-        <v>20326.177999999902</v>
+        <v>305454.154999997</v>
       </c>
       <c r="I63" s="5">
-        <v>2297.0259999999898</v>
+        <v>33110.817999999897</v>
       </c>
       <c r="J63" s="6">
-        <v>5013.4430000000002</v>
+        <v>74059.871999999596</v>
       </c>
       <c r="K63" s="6">
-        <v>7156.5720000000001</v>
+        <v>106312.841999999</v>
       </c>
       <c r="L63" s="6">
-        <v>9472.7380000000103</v>
+        <v>140602.107999998</v>
       </c>
       <c r="M63" s="6">
-        <v>11543.5999999999</v>
+        <v>173752.788999999</v>
       </c>
       <c r="N63" s="5">
-        <v>1215.5719999999999</v>
+        <v>18220.236000000001</v>
       </c>
       <c r="O63" s="6">
-        <v>2120.0809999999901</v>
+        <v>30495.0969999999</v>
       </c>
       <c r="P63" s="6">
-        <v>3240.2179999999998</v>
+        <v>45562.927000000403</v>
       </c>
       <c r="Q63" s="6">
-        <v>4690.9759999999997</v>
+        <v>68649.409999999596</v>
       </c>
       <c r="R63" s="7">
-        <v>5716.29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="38" t="s">
+        <v>83217.548999999795</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="39"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="19">
-        <v>45.470430107526802</v>
+        <v>38.901411657559201</v>
       </c>
       <c r="E64" s="20">
-        <v>45.8400537634408</v>
+        <v>39.970969945355101</v>
       </c>
       <c r="F64" s="20">
-        <v>44.659498207885299</v>
+        <v>38.6741044323011</v>
       </c>
       <c r="G64" s="20">
-        <v>46.592741935483801</v>
+        <v>39.404883879781401</v>
       </c>
       <c r="H64" s="21">
-        <v>46.803763440860202</v>
+        <v>39.383652094717597</v>
       </c>
       <c r="I64" s="19">
-        <v>45.8400537634408</v>
+        <v>39.970969945355101</v>
       </c>
       <c r="J64" s="20">
-        <v>46.592741935483801</v>
+        <v>39.404883879781401</v>
       </c>
       <c r="K64" s="20">
-        <v>47.327508960573397</v>
+        <v>39.425091074681198</v>
       </c>
       <c r="L64" s="20">
-        <v>47.281586021505298</v>
+        <v>39.043858151183898</v>
       </c>
       <c r="M64" s="21">
-        <v>47.227150537634401</v>
+        <v>39.171903460837797</v>
       </c>
       <c r="N64" s="19">
-        <v>44.659498207885299</v>
+        <v>38.6741044323011</v>
       </c>
       <c r="O64" s="20">
-        <v>47.327508960573397</v>
+        <v>39.425091074681198</v>
       </c>
       <c r="P64" s="20">
-        <v>47.519414575866101</v>
+        <v>39.213595426027098</v>
       </c>
       <c r="Q64" s="20">
-        <v>47.001568100358398</v>
+        <v>39.1953172434729</v>
       </c>
       <c r="R64" s="21">
-        <v>47.6272401433691</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+        <v>39.247115968427401</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
         <v>34</v>
       </c>
@@ -2610,103 +3536,103 @@
         <v>29</v>
       </c>
       <c r="D65" s="1">
-        <v>3004.4209999999998</v>
+        <v>26123.977999999901</v>
       </c>
       <c r="E65" s="2">
-        <v>6117.7249999999904</v>
+        <v>55346.315000000002</v>
       </c>
       <c r="F65" s="2">
-        <v>8760.58499999999</v>
+        <v>79167.024999999907</v>
       </c>
       <c r="G65" s="2">
-        <v>11889.558000000001</v>
+        <v>108411.413999999</v>
       </c>
       <c r="H65" s="3">
-        <v>14966.8029999999</v>
+        <v>135348.016</v>
       </c>
       <c r="I65" s="1">
-        <v>2411.5359999999901</v>
+        <v>23267.427</v>
       </c>
       <c r="J65" s="2">
-        <v>4916.8629999999903</v>
+        <v>48128.292000000001</v>
       </c>
       <c r="K65" s="2">
-        <v>7086.0319999999801</v>
+        <v>69687.577000000107</v>
       </c>
       <c r="L65" s="2">
-        <v>9383.6910000000007</v>
+        <v>91464.140000000203</v>
       </c>
       <c r="M65" s="3">
-        <v>11421.428</v>
+        <v>113002.269</v>
       </c>
       <c r="N65" s="1">
-        <v>1425.817</v>
+        <v>14555.466</v>
       </c>
       <c r="O65" s="2">
-        <v>2588.4809999999902</v>
+        <v>25883.148000000001</v>
       </c>
       <c r="P65" s="2">
-        <v>3726.2750000000001</v>
+        <v>36857.523999999801</v>
       </c>
       <c r="Q65" s="2">
-        <v>5239.3299999999899</v>
+        <v>53538.754000000103</v>
       </c>
       <c r="R65" s="3">
-        <v>6354.0019999999904</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+        <v>64892.758999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="31"/>
       <c r="C66" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="5">
-        <v>1996.89399999999</v>
+        <v>16398.6719999999</v>
       </c>
       <c r="E66" s="6">
-        <v>4187.6409999999896</v>
+        <v>33072.267999999902</v>
       </c>
       <c r="F66" s="6">
-        <v>6057.6900000000096</v>
+        <v>47429.379000000103</v>
       </c>
       <c r="G66" s="6">
-        <v>8282.9299999999894</v>
+        <v>64222.389000000199</v>
       </c>
       <c r="H66" s="6">
-        <v>10395.513999999999</v>
+        <v>80558.0129999989</v>
       </c>
       <c r="I66" s="5">
-        <v>7893.8299999999899</v>
+        <v>65151.155999999901</v>
       </c>
       <c r="J66" s="6">
-        <v>15255.625</v>
+        <v>124505.51099999899</v>
       </c>
       <c r="K66" s="6">
-        <v>23387.566999999999</v>
+        <v>189702.80999999901</v>
       </c>
       <c r="L66" s="6">
-        <v>30907.7239999999</v>
+        <v>250159.80300000001</v>
       </c>
       <c r="M66" s="6">
-        <v>39006.135000000002</v>
+        <v>315182.012999998</v>
       </c>
       <c r="N66" s="5">
-        <v>13392.458000000001</v>
+        <v>112040.93799999999</v>
       </c>
       <c r="O66" s="6">
-        <v>27885.117999999999</v>
+        <v>233507.23899999901</v>
       </c>
       <c r="P66" s="6">
-        <v>41847.157999999901</v>
+        <v>349755.27900000103</v>
       </c>
       <c r="Q66" s="6">
-        <v>55185.131999999903</v>
+        <v>460590.66800000001</v>
       </c>
       <c r="R66" s="7">
-        <v>69848.159999999902</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>582188.41700000002</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
         <v>28</v>
       </c>
@@ -2714,882 +3640,746 @@
         <v>31</v>
       </c>
       <c r="D67" s="1">
-        <v>196.58199999999999</v>
+        <v>2833.4379999999901</v>
       </c>
       <c r="E67" s="2">
-        <v>293.75999999999902</v>
+        <v>4199.1859999999997</v>
       </c>
       <c r="F67" s="2">
-        <v>710.92399999999702</v>
+        <v>9300.4200000001492</v>
       </c>
       <c r="G67" s="2">
-        <v>816.372999999998</v>
+        <v>10780.7570000003</v>
       </c>
       <c r="H67" s="3">
-        <v>968.72199999999896</v>
+        <v>13396.9970000005</v>
       </c>
       <c r="I67" s="1">
-        <v>293.75999999999902</v>
+        <v>4199.1859999999997</v>
       </c>
       <c r="J67" s="2">
-        <v>816.372999999998</v>
+        <v>10780.7570000003</v>
       </c>
       <c r="K67" s="2">
-        <v>1083.00899999999</v>
+        <v>15392.861000000699</v>
       </c>
       <c r="L67" s="2">
-        <v>1492.7059999999999</v>
+        <v>21692.105000000902</v>
       </c>
       <c r="M67" s="3">
-        <v>1818.87599999999</v>
+        <v>26358.3100000007</v>
       </c>
       <c r="N67" s="1">
-        <v>710.92399999999702</v>
+        <v>9300.4200000001492</v>
       </c>
       <c r="O67" s="2">
-        <v>1083.00899999999</v>
+        <v>15392.861000000699</v>
       </c>
       <c r="P67" s="2">
-        <v>1603.7529999999999</v>
+        <v>23411.733000000699</v>
       </c>
       <c r="Q67" s="2">
-        <v>2209.0019999999899</v>
+        <v>31420.039000001001</v>
       </c>
       <c r="R67" s="3">
-        <v>2562.0309999999699</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+        <v>37448.582999999897</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="31"/>
       <c r="C68" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="5">
-        <v>1051.4369999999999</v>
+        <v>16792.9820000004</v>
       </c>
       <c r="E68" s="6">
-        <v>2031.627</v>
+        <v>30673.140000001302</v>
       </c>
       <c r="F68" s="6">
-        <v>3580.2909999999802</v>
+        <v>54479.106999999502</v>
       </c>
       <c r="G68" s="6">
-        <v>4401.9659999999903</v>
+        <v>67729.903999998001</v>
       </c>
       <c r="H68" s="6">
-        <v>5513.1819999999698</v>
+        <v>85985.149999994799</v>
       </c>
       <c r="I68" s="5">
-        <v>2031.627</v>
+        <v>30673.140000001302</v>
       </c>
       <c r="J68" s="6">
-        <v>4401.9659999999903</v>
+        <v>67729.903999998001</v>
       </c>
       <c r="K68" s="6">
-        <v>6553.7069999999403</v>
+        <v>102431.10699999399</v>
       </c>
       <c r="L68" s="6">
-        <v>8969.5239999999794</v>
+        <v>141663.78999999099</v>
       </c>
       <c r="M68" s="6">
-        <v>11215.2600000001</v>
+        <v>174969.47799998501</v>
       </c>
       <c r="N68" s="5">
-        <v>3580.2909999999802</v>
+        <v>54479.106999999502</v>
       </c>
       <c r="O68" s="6">
-        <v>6553.7069999999403</v>
+        <v>102431.10699999399</v>
       </c>
       <c r="P68" s="6">
-        <v>9945.9360000000197</v>
+        <v>156284.82199998901</v>
       </c>
       <c r="Q68" s="6">
-        <v>13579.2340000001</v>
+        <v>209593.245999979</v>
       </c>
       <c r="R68" s="7">
-        <v>16573.290000000201</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B72" s="28" t="s">
+        <v>257734.99999998201</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="B71" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T71">
+        <v>18230.887000000101</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="B72" s="28"/>
+      <c r="T72">
+        <v>24501.680000000099</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="39"/>
+      <c r="D73" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="34"/>
+      <c r="T73">
+        <v>30062.030999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="10">
+        <v>40</v>
+      </c>
+      <c r="E74" s="9">
+        <v>80</v>
+      </c>
+      <c r="F74" s="9">
+        <v>120</v>
+      </c>
+      <c r="G74" s="9">
+        <v>160</v>
+      </c>
+      <c r="H74" s="9">
+        <v>200</v>
+      </c>
+      <c r="I74" s="10">
+        <v>40</v>
+      </c>
+      <c r="J74" s="9">
+        <v>80</v>
+      </c>
+      <c r="K74" s="9">
+        <v>120</v>
+      </c>
+      <c r="L74" s="9">
+        <v>160</v>
+      </c>
+      <c r="M74" s="9">
+        <v>200</v>
+      </c>
+      <c r="N74" s="10">
+        <v>40</v>
+      </c>
+      <c r="O74" s="9">
+        <v>80</v>
+      </c>
+      <c r="P74" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>160</v>
+      </c>
+      <c r="R74" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="31"/>
+      <c r="C76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="7"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="21"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="31"/>
+      <c r="C79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="7"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="31"/>
+      <c r="C81" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="7"/>
+    </row>
+    <row r="84" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B84" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B85" s="28"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="34"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="10">
+        <v>40</v>
+      </c>
+      <c r="E87" s="9">
+        <v>80</v>
+      </c>
+      <c r="F87" s="9">
+        <v>120</v>
+      </c>
+      <c r="G87" s="9">
+        <v>160</v>
+      </c>
+      <c r="H87" s="9">
+        <v>200</v>
+      </c>
+      <c r="I87" s="10">
+        <v>40</v>
+      </c>
+      <c r="J87" s="9">
+        <v>80</v>
+      </c>
+      <c r="K87" s="9">
+        <v>120</v>
+      </c>
+      <c r="L87" s="9">
+        <v>160</v>
+      </c>
+      <c r="M87" s="9">
+        <v>200</v>
+      </c>
+      <c r="N87" s="10">
+        <v>40</v>
+      </c>
+      <c r="O87" s="9">
+        <v>80</v>
+      </c>
+      <c r="P87" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>160</v>
+      </c>
+      <c r="R87" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B88" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="31"/>
+      <c r="C89" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="7"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="21"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B91" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B92" s="31"/>
+      <c r="C92" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="7"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B93" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B94" s="31"/>
+      <c r="C94" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="7"/>
+    </row>
+    <row r="97" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B97" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B73" s="28"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="35" t="s">
+    <row r="98" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B98" s="28"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="32">
+      <c r="C99" s="39"/>
+      <c r="D99" s="32">
         <v>0.25</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="32">
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="32">
         <v>0.5</v>
       </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="32">
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="32">
         <v>0.75</v>
       </c>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="34"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="35" t="s">
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="34"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="10">
+      <c r="C100" s="36"/>
+      <c r="D100" s="10">
         <v>40</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E100" s="9">
         <v>80</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F100" s="9">
         <v>120</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G100" s="9">
         <v>160</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H100" s="9">
         <v>200</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I100" s="10">
         <v>40</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J100" s="9">
         <v>80</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K100" s="9">
         <v>120</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L100" s="9">
         <v>160</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M100" s="9">
         <v>200</v>
       </c>
-      <c r="N75" s="10">
+      <c r="N100" s="10">
         <v>40</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O100" s="9">
         <v>80</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P100" s="9">
         <v>120</v>
       </c>
-      <c r="Q75" s="9">
+      <c r="Q100" s="9">
         <v>160</v>
       </c>
-      <c r="R75" s="11">
+      <c r="R100" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="30" t="s">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B101" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="31"/>
-      <c r="C77" s="8" t="s">
+      <c r="D101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B102" s="31"/>
+      <c r="C102" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="7"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="38" t="s">
+      <c r="D102" s="5"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="7"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B103" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="39"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="21"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="30" t="s">
+      <c r="C103" s="38"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="21"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B104" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="31"/>
-      <c r="C80" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="7"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="31"/>
-      <c r="C82" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="7"/>
-    </row>
-    <row r="86" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B86" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B87" s="28"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="34"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="10">
-        <v>40</v>
-      </c>
-      <c r="E89" s="9">
-        <v>80</v>
-      </c>
-      <c r="F89" s="9">
-        <v>120</v>
-      </c>
-      <c r="G89" s="9">
-        <v>160</v>
-      </c>
-      <c r="H89" s="9">
-        <v>200</v>
-      </c>
-      <c r="I89" s="10">
-        <v>40</v>
-      </c>
-      <c r="J89" s="9">
-        <v>80</v>
-      </c>
-      <c r="K89" s="9">
-        <v>120</v>
-      </c>
-      <c r="L89" s="9">
-        <v>160</v>
-      </c>
-      <c r="M89" s="9">
-        <v>200</v>
-      </c>
-      <c r="N89" s="10">
-        <v>40</v>
-      </c>
-      <c r="O89" s="9">
-        <v>80</v>
-      </c>
-      <c r="P89" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q89" s="9">
-        <v>160</v>
-      </c>
-      <c r="R89" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1234.29</v>
-      </c>
-      <c r="E90" s="2">
-        <v>2666.1929999999902</v>
-      </c>
-      <c r="F90" s="2">
-        <v>3761.0539999999901</v>
-      </c>
-      <c r="G90" s="2">
-        <v>5166.6090000000004</v>
-      </c>
-      <c r="H90" s="3">
-        <v>6370.1729999999898</v>
-      </c>
-      <c r="I90" s="1">
-        <v>1312.32</v>
-      </c>
-      <c r="J90" s="2">
-        <v>2675.4489999999901</v>
-      </c>
-      <c r="K90" s="2">
-        <v>3888.0729999999999</v>
-      </c>
-      <c r="L90" s="2">
-        <v>5124.8299999999899</v>
-      </c>
-      <c r="M90" s="3">
-        <v>6322.4459999999899</v>
-      </c>
-      <c r="N90" s="1">
-        <v>947.44499999999903</v>
-      </c>
-      <c r="O90" s="2">
-        <v>1668.3779999999899</v>
-      </c>
-      <c r="P90" s="2">
-        <v>2334.9879999999998</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>3405.0549999999998</v>
-      </c>
-      <c r="R90" s="3">
-        <v>4135.3130000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="31"/>
-      <c r="C91" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="5">
-        <v>6331.741</v>
-      </c>
-      <c r="E91" s="6">
-        <v>13721.902</v>
-      </c>
-      <c r="F91" s="6">
-        <v>20042.866000000002</v>
-      </c>
-      <c r="G91" s="6">
-        <v>26758.088999999902</v>
-      </c>
-      <c r="H91" s="6">
-        <v>34377.582999999897</v>
-      </c>
-      <c r="I91" s="5">
-        <v>3908.163</v>
-      </c>
-      <c r="J91" s="6">
-        <v>8725.8090000000193</v>
-      </c>
-      <c r="K91" s="6">
-        <v>12500.022000000001</v>
-      </c>
-      <c r="L91" s="6">
-        <v>16522.157999999999</v>
-      </c>
-      <c r="M91" s="6">
-        <v>20331.940999999999</v>
-      </c>
-      <c r="N91" s="5">
-        <v>2135.1309999999899</v>
-      </c>
-      <c r="O91" s="6">
-        <v>3552.105</v>
-      </c>
-      <c r="P91" s="6">
-        <v>5231.0429999999997</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>7996.2030000000204</v>
-      </c>
-      <c r="R91" s="7">
-        <v>9693.7629999999899</v>
-      </c>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="19">
-        <v>23.9919354838709</v>
-      </c>
-      <c r="E92" s="20">
-        <v>25.1747311827957</v>
-      </c>
-      <c r="F92" s="20">
-        <v>23.853046594982001</v>
-      </c>
-      <c r="G92" s="20">
-        <v>24.543010752688101</v>
-      </c>
-      <c r="H92" s="21">
-        <v>24.403225806451601</v>
-      </c>
-      <c r="I92" s="19">
-        <v>25.1747311827957</v>
-      </c>
-      <c r="J92" s="20">
-        <v>24.543010752688101</v>
-      </c>
-      <c r="K92" s="20">
-        <v>24.363799283154101</v>
-      </c>
-      <c r="L92" s="20">
-        <v>24.002016129032199</v>
-      </c>
-      <c r="M92" s="21">
-        <v>24.034946236559101</v>
-      </c>
-      <c r="N92" s="19">
-        <v>23.853046594982001</v>
-      </c>
-      <c r="O92" s="20">
-        <v>24.363799283154101</v>
-      </c>
-      <c r="P92" s="20">
-        <v>24.151732377538799</v>
-      </c>
-      <c r="Q92" s="20">
-        <v>24.086021505376301</v>
-      </c>
-      <c r="R92" s="21">
-        <v>24.215949820788499</v>
-      </c>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1234.29</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2666.1929999999902</v>
-      </c>
-      <c r="F93" s="2">
-        <v>3761.0539999999901</v>
-      </c>
-      <c r="G93" s="2">
-        <v>5166.6090000000004</v>
-      </c>
-      <c r="H93" s="3">
-        <v>6370.1729999999898</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1312.32</v>
-      </c>
-      <c r="J93" s="2">
-        <v>2675.4489999999901</v>
-      </c>
-      <c r="K93" s="2">
-        <v>3888.0729999999999</v>
-      </c>
-      <c r="L93" s="2">
-        <v>5124.8299999999899</v>
-      </c>
-      <c r="M93" s="3">
-        <v>6322.4459999999899</v>
-      </c>
-      <c r="N93" s="1">
-        <v>947.44499999999903</v>
-      </c>
-      <c r="O93" s="2">
-        <v>1668.3779999999899</v>
-      </c>
-      <c r="P93" s="2">
-        <v>2334.9879999999998</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>3405.0549999999998</v>
-      </c>
-      <c r="R93" s="3">
-        <v>4135.3130000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="31"/>
-      <c r="C94" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="5">
-        <v>612.00800000000004</v>
-      </c>
-      <c r="E94" s="6">
-        <v>1230.9449999999999</v>
-      </c>
-      <c r="F94" s="6">
-        <v>1679.9569999999901</v>
-      </c>
-      <c r="G94" s="6">
-        <v>2330.3409999999999</v>
-      </c>
-      <c r="H94" s="6">
-        <v>2986.5859999999898</v>
-      </c>
-      <c r="I94" s="5">
-        <v>2584.8179999999902</v>
-      </c>
-      <c r="J94" s="6">
-        <v>4821.5010000000002</v>
-      </c>
-      <c r="K94" s="6">
-        <v>7360.8819999999896</v>
-      </c>
-      <c r="L94" s="6">
-        <v>9634.0409999999993</v>
-      </c>
-      <c r="M94" s="6">
-        <v>12171.7079999999</v>
-      </c>
-      <c r="N94" s="5">
-        <v>4493.5659999999898</v>
-      </c>
-      <c r="O94" s="6">
-        <v>9580.5769999999902</v>
-      </c>
-      <c r="P94" s="6">
-        <v>14392.8669999999</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>18823.526999999998</v>
-      </c>
-      <c r="R94" s="7">
-        <v>23899.341</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95" s="1">
-        <v>238.7</v>
-      </c>
-      <c r="E95" s="2">
-        <v>360.51199999999801</v>
-      </c>
-      <c r="F95" s="2">
-        <v>765.06</v>
-      </c>
-      <c r="G95" s="2">
-        <v>903.82399999999996</v>
-      </c>
-      <c r="H95" s="3">
-        <v>1156.4839999999899</v>
-      </c>
-      <c r="I95" s="1">
-        <v>360.51199999999801</v>
-      </c>
-      <c r="J95" s="2">
-        <v>903.82399999999996</v>
-      </c>
-      <c r="K95" s="2">
-        <v>1355.2919999999899</v>
-      </c>
-      <c r="L95" s="2">
-        <v>1913.018</v>
-      </c>
-      <c r="M95" s="3">
-        <v>2340.67</v>
-      </c>
-      <c r="N95" s="1">
-        <v>765.06</v>
-      </c>
-      <c r="O95" s="2">
-        <v>1355.2919999999899</v>
-      </c>
-      <c r="P95" s="2">
-        <v>2075.4450000000002</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>2793.3629999999998</v>
-      </c>
-      <c r="R95" s="3">
-        <v>3341.7869999999898</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="31"/>
-      <c r="C96" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" s="5">
-        <v>2004.1510000000001</v>
-      </c>
-      <c r="E96" s="6">
-        <v>3572.32599999999</v>
-      </c>
-      <c r="F96" s="6">
-        <v>6377.9550000000099</v>
-      </c>
-      <c r="G96" s="6">
-        <v>7921.6209999999901</v>
-      </c>
-      <c r="H96" s="6">
-        <v>10040.457</v>
-      </c>
-      <c r="I96" s="5">
-        <v>3572.32599999999</v>
-      </c>
-      <c r="J96" s="6">
-        <v>7921.6209999999901</v>
-      </c>
-      <c r="K96" s="6">
-        <v>11989.241</v>
-      </c>
-      <c r="L96" s="6">
-        <v>16579.73</v>
-      </c>
-      <c r="M96" s="6">
-        <v>20478.616000000002</v>
-      </c>
-      <c r="N96" s="5">
-        <v>6377.9550000000099</v>
-      </c>
-      <c r="O96" s="6">
-        <v>11989.241</v>
-      </c>
-      <c r="P96" s="6">
-        <v>18230.887000000101</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>24501.680000000099</v>
-      </c>
-      <c r="R96" s="7">
-        <v>30062.030999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B100" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B101" s="28"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="O102" s="33"/>
-      <c r="P102" s="33"/>
-      <c r="Q102" s="33"/>
-      <c r="R102" s="34"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="10">
-        <v>40</v>
-      </c>
-      <c r="E103" s="9">
-        <v>80</v>
-      </c>
-      <c r="F103" s="9">
-        <v>120</v>
-      </c>
-      <c r="G103" s="9">
-        <v>160</v>
-      </c>
-      <c r="H103" s="9">
-        <v>200</v>
-      </c>
-      <c r="I103" s="10">
-        <v>40</v>
-      </c>
-      <c r="J103" s="9">
-        <v>80</v>
-      </c>
-      <c r="K103" s="9">
-        <v>120</v>
-      </c>
-      <c r="L103" s="9">
-        <v>160</v>
-      </c>
-      <c r="M103" s="9">
-        <v>200</v>
-      </c>
-      <c r="N103" s="10">
-        <v>40</v>
-      </c>
-      <c r="O103" s="9">
-        <v>80</v>
-      </c>
-      <c r="P103" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q103" s="9">
-        <v>160</v>
-      </c>
-      <c r="R103" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
@@ -3607,10 +4397,10 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="31"/>
       <c r="C105" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
@@ -3628,656 +4418,490 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="7"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="38" t="s">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B106" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B107" s="31"/>
+      <c r="C107" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="7"/>
+    </row>
+    <row r="110" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B110" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B111" s="28"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B112" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="39"/>
+      <c r="D112" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="O112" s="33"/>
+      <c r="P112" s="33"/>
+      <c r="Q112" s="33"/>
+      <c r="R112" s="34"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B113" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="36"/>
+      <c r="D113" s="10">
+        <v>40</v>
+      </c>
+      <c r="E113" s="9">
+        <v>80</v>
+      </c>
+      <c r="F113" s="9">
+        <v>120</v>
+      </c>
+      <c r="G113" s="9">
+        <v>160</v>
+      </c>
+      <c r="H113" s="9">
+        <v>200</v>
+      </c>
+      <c r="I113" s="10">
+        <v>40</v>
+      </c>
+      <c r="J113" s="9">
+        <v>80</v>
+      </c>
+      <c r="K113" s="9">
+        <v>120</v>
+      </c>
+      <c r="L113" s="9">
+        <v>160</v>
+      </c>
+      <c r="M113" s="9">
+        <v>200</v>
+      </c>
+      <c r="N113" s="10">
+        <v>40</v>
+      </c>
+      <c r="O113" s="9">
+        <v>80</v>
+      </c>
+      <c r="P113" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q113" s="9">
+        <v>160</v>
+      </c>
+      <c r="R113" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B114" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="3"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B115" s="31"/>
+      <c r="C115" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="7"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B116" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="21"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="30" t="s">
+      <c r="C116" s="38"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="21"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B117" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="3"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="31"/>
-      <c r="C108" s="8" t="s">
+      <c r="D117" s="1"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="3"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B118" s="31"/>
+      <c r="C118" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="7"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="30" t="s">
+      <c r="D118" s="5"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="7"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B119" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="3"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="31"/>
-      <c r="C110" s="12" t="s">
+      <c r="D119" s="1"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="3"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B120" s="31"/>
+      <c r="C120" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="7"/>
-    </row>
-    <row r="114" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B114" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B115" s="28"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="35" t="s">
+      <c r="D120" s="5"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="7"/>
+    </row>
+    <row r="123" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B123" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B124" s="28"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B125" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="32">
+      <c r="C125" s="39"/>
+      <c r="D125" s="32">
         <v>0.25</v>
       </c>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="32">
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="32">
         <v>0.5</v>
       </c>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="33"/>
-      <c r="N116" s="32">
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="32">
         <v>0.75</v>
       </c>
-      <c r="O116" s="33"/>
-      <c r="P116" s="33"/>
-      <c r="Q116" s="33"/>
-      <c r="R116" s="34"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="35" t="s">
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
+      <c r="R125" s="34"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B126" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="36"/>
-      <c r="D117" s="10">
+      <c r="C126" s="36"/>
+      <c r="D126" s="10">
         <v>40</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E126" s="9">
         <v>80</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F126" s="9">
         <v>120</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G126" s="9">
         <v>160</v>
       </c>
-      <c r="H117" s="9">
+      <c r="H126" s="9">
         <v>200</v>
       </c>
-      <c r="I117" s="10">
+      <c r="I126" s="10">
         <v>40</v>
       </c>
-      <c r="J117" s="9">
+      <c r="J126" s="9">
         <v>80</v>
       </c>
-      <c r="K117" s="9">
+      <c r="K126" s="9">
         <v>120</v>
       </c>
-      <c r="L117" s="9">
+      <c r="L126" s="9">
         <v>160</v>
       </c>
-      <c r="M117" s="9">
+      <c r="M126" s="9">
         <v>200</v>
       </c>
-      <c r="N117" s="10">
+      <c r="N126" s="10">
         <v>40</v>
       </c>
-      <c r="O117" s="9">
+      <c r="O126" s="9">
         <v>80</v>
       </c>
-      <c r="P117" s="9">
+      <c r="P126" s="9">
         <v>120</v>
       </c>
-      <c r="Q117" s="9">
+      <c r="Q126" s="9">
         <v>160</v>
       </c>
-      <c r="R117" s="11">
+      <c r="R126" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="30" t="s">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B127" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="1">
-        <v>26123.977999999901</v>
-      </c>
-      <c r="E118" s="2">
-        <v>55346.315000000002</v>
-      </c>
-      <c r="F118" s="2">
-        <v>79167.024999999907</v>
-      </c>
-      <c r="G118" s="2">
-        <v>108411.413999999</v>
-      </c>
-      <c r="H118" s="3">
-        <v>135348.016</v>
-      </c>
-      <c r="I118" s="1">
-        <v>23267.427</v>
-      </c>
-      <c r="J118" s="2">
-        <v>48128.292000000001</v>
-      </c>
-      <c r="K118" s="2">
-        <v>69687.577000000107</v>
-      </c>
-      <c r="L118" s="2">
-        <v>91464.140000000203</v>
-      </c>
-      <c r="M118" s="3">
-        <v>113002.269</v>
-      </c>
-      <c r="N118" s="1">
-        <v>14555.466</v>
-      </c>
-      <c r="O118" s="2">
-        <v>25883.148000000001</v>
-      </c>
-      <c r="P118" s="2">
-        <v>36857.523999999801</v>
-      </c>
-      <c r="Q118" s="2">
-        <v>53538.754000000103</v>
-      </c>
-      <c r="R118" s="3">
-        <v>64892.758999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="31"/>
-      <c r="C119" s="8" t="s">
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="3"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B128" s="31"/>
+      <c r="C128" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D119" s="5">
-        <v>56296.473000000296</v>
-      </c>
-      <c r="E119" s="6">
-        <v>120654.103999999</v>
-      </c>
-      <c r="F119" s="6">
-        <v>176162.95</v>
-      </c>
-      <c r="G119" s="6">
-        <v>235511.42499999999</v>
-      </c>
-      <c r="H119" s="6">
-        <v>305454.154999997</v>
-      </c>
-      <c r="I119" s="5">
-        <v>33110.817999999897</v>
-      </c>
-      <c r="J119" s="6">
-        <v>74059.871999999596</v>
-      </c>
-      <c r="K119" s="6">
-        <v>106312.841999999</v>
-      </c>
-      <c r="L119" s="6">
-        <v>140602.107999998</v>
-      </c>
-      <c r="M119" s="6">
-        <v>173752.788999999</v>
-      </c>
-      <c r="N119" s="5">
-        <v>18220.236000000001</v>
-      </c>
-      <c r="O119" s="6">
-        <v>30495.0969999999</v>
-      </c>
-      <c r="P119" s="6">
-        <v>45562.927000000403</v>
-      </c>
-      <c r="Q119" s="6">
-        <v>68649.409999999596</v>
-      </c>
-      <c r="R119" s="7">
-        <v>83217.548999999795</v>
-      </c>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="38" t="s">
+      <c r="D128" s="5"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="7"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B129" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="39"/>
-      <c r="D120" s="19">
-        <v>38.901411657559201</v>
-      </c>
-      <c r="E120" s="20">
-        <v>39.970969945355101</v>
-      </c>
-      <c r="F120" s="20">
-        <v>38.6741044323011</v>
-      </c>
-      <c r="G120" s="20">
-        <v>39.404883879781401</v>
-      </c>
-      <c r="H120" s="21">
-        <v>39.383652094717597</v>
-      </c>
-      <c r="I120" s="19">
-        <v>39.970969945355101</v>
-      </c>
-      <c r="J120" s="20">
-        <v>39.404883879781401</v>
-      </c>
-      <c r="K120" s="20">
-        <v>39.425091074681198</v>
-      </c>
-      <c r="L120" s="20">
-        <v>39.043858151183898</v>
-      </c>
-      <c r="M120" s="21">
-        <v>39.171903460837797</v>
-      </c>
-      <c r="N120" s="19">
-        <v>38.6741044323011</v>
-      </c>
-      <c r="O120" s="20">
-        <v>39.425091074681198</v>
-      </c>
-      <c r="P120" s="20">
-        <v>39.213595426027098</v>
-      </c>
-      <c r="Q120" s="20">
-        <v>39.1953172434729</v>
-      </c>
-      <c r="R120" s="21">
-        <v>39.247115968427401</v>
-      </c>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="30" t="s">
+      <c r="C129" s="38"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="21"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B130" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="1">
-        <v>26123.977999999901</v>
-      </c>
-      <c r="E121" s="2">
-        <v>55346.315000000002</v>
-      </c>
-      <c r="F121" s="2">
-        <v>79167.024999999907</v>
-      </c>
-      <c r="G121" s="2">
-        <v>108411.413999999</v>
-      </c>
-      <c r="H121" s="3">
-        <v>135348.016</v>
-      </c>
-      <c r="I121" s="1">
-        <v>23267.427</v>
-      </c>
-      <c r="J121" s="2">
-        <v>48128.292000000001</v>
-      </c>
-      <c r="K121" s="2">
-        <v>69687.577000000107</v>
-      </c>
-      <c r="L121" s="2">
-        <v>91464.140000000203</v>
-      </c>
-      <c r="M121" s="3">
-        <v>113002.269</v>
-      </c>
-      <c r="N121" s="1">
-        <v>14555.466</v>
-      </c>
-      <c r="O121" s="2">
-        <v>25883.148000000001</v>
-      </c>
-      <c r="P121" s="2">
-        <v>36857.523999999801</v>
-      </c>
-      <c r="Q121" s="2">
-        <v>53538.754000000103</v>
-      </c>
-      <c r="R121" s="3">
-        <v>64892.758999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="31"/>
-      <c r="C122" s="8" t="s">
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="3"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B131" s="31"/>
+      <c r="C131" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="5">
-        <v>16398.6719999999</v>
-      </c>
-      <c r="E122" s="6">
-        <v>33072.267999999902</v>
-      </c>
-      <c r="F122" s="6">
-        <v>47429.379000000103</v>
-      </c>
-      <c r="G122" s="6">
-        <v>64222.389000000199</v>
-      </c>
-      <c r="H122" s="6">
-        <v>80558.0129999989</v>
-      </c>
-      <c r="I122" s="5">
-        <v>65151.155999999901</v>
-      </c>
-      <c r="J122" s="6">
-        <v>124505.51099999899</v>
-      </c>
-      <c r="K122" s="6">
-        <v>189702.80999999901</v>
-      </c>
-      <c r="L122" s="6">
-        <v>250159.80300000001</v>
-      </c>
-      <c r="M122" s="6">
-        <v>315182.012999998</v>
-      </c>
-      <c r="N122" s="5">
-        <v>112040.93799999999</v>
-      </c>
-      <c r="O122" s="6">
-        <v>233507.23899999901</v>
-      </c>
-      <c r="P122" s="6">
-        <v>349755.27900000103</v>
-      </c>
-      <c r="Q122" s="6">
-        <v>460590.66800000001</v>
-      </c>
-      <c r="R122" s="7">
-        <v>582188.41700000002</v>
-      </c>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="30" t="s">
+      <c r="D131" s="5"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="7"/>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B132" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D123" s="1">
-        <v>2833.4379999999901</v>
-      </c>
-      <c r="E123" s="2">
-        <v>4199.1859999999997</v>
-      </c>
-      <c r="F123" s="2">
-        <v>9300.4200000001492</v>
-      </c>
-      <c r="G123" s="2">
-        <v>10780.7570000003</v>
-      </c>
-      <c r="H123" s="3">
-        <v>13396.9970000005</v>
-      </c>
-      <c r="I123" s="1">
-        <v>4199.1859999999997</v>
-      </c>
-      <c r="J123" s="2">
-        <v>10780.7570000003</v>
-      </c>
-      <c r="K123" s="2">
-        <v>15392.861000000699</v>
-      </c>
-      <c r="L123" s="2">
-        <v>21692.105000000902</v>
-      </c>
-      <c r="M123" s="3">
-        <v>26358.3100000007</v>
-      </c>
-      <c r="N123" s="1">
-        <v>9300.4200000001492</v>
-      </c>
-      <c r="O123" s="2">
-        <v>15392.861000000699</v>
-      </c>
-      <c r="P123" s="2">
-        <v>23411.733000000699</v>
-      </c>
-      <c r="Q123" s="2">
-        <v>31420.039000001001</v>
-      </c>
-      <c r="R123" s="3">
-        <v>37448.582999999897</v>
-      </c>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="31"/>
-      <c r="C124" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="5">
-        <v>16792.9820000004</v>
-      </c>
-      <c r="E124" s="6">
-        <v>30673.140000001302</v>
-      </c>
-      <c r="F124" s="6">
-        <v>54479.106999999502</v>
-      </c>
-      <c r="G124" s="6">
-        <v>67729.903999998001</v>
-      </c>
-      <c r="H124" s="6">
-        <v>85985.149999994799</v>
-      </c>
-      <c r="I124" s="5">
-        <v>30673.140000001302</v>
-      </c>
-      <c r="J124" s="6">
-        <v>67729.903999998001</v>
-      </c>
-      <c r="K124" s="6">
-        <v>102431.10699999399</v>
-      </c>
-      <c r="L124" s="6">
-        <v>141663.78999999099</v>
-      </c>
-      <c r="M124" s="6">
-        <v>174969.47799998501</v>
-      </c>
-      <c r="N124" s="5">
-        <v>54479.106999999502</v>
-      </c>
-      <c r="O124" s="6">
-        <v>102431.10699999399</v>
-      </c>
-      <c r="P124" s="6">
-        <v>156284.82199998901</v>
-      </c>
-      <c r="Q124" s="6">
-        <v>209593.245999979</v>
-      </c>
-      <c r="R124" s="7">
-        <v>257734.99999998201</v>
-      </c>
-    </row>
-    <row r="128" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B128" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B129" s="28"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="37"/>
-      <c r="D130" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="33"/>
-      <c r="M130" s="33"/>
-      <c r="N130" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="O130" s="33"/>
-      <c r="P130" s="33"/>
-      <c r="Q130" s="33"/>
-      <c r="R130" s="34"/>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="36"/>
-      <c r="D131" s="10">
-        <v>40</v>
-      </c>
-      <c r="E131" s="9">
-        <v>80</v>
-      </c>
-      <c r="F131" s="9">
-        <v>120</v>
-      </c>
-      <c r="G131" s="9">
-        <v>160</v>
-      </c>
-      <c r="H131" s="9">
-        <v>200</v>
-      </c>
-      <c r="I131" s="10">
-        <v>40</v>
-      </c>
-      <c r="J131" s="9">
-        <v>80</v>
-      </c>
-      <c r="K131" s="9">
-        <v>120</v>
-      </c>
-      <c r="L131" s="9">
-        <v>160</v>
-      </c>
-      <c r="M131" s="9">
-        <v>200</v>
-      </c>
-      <c r="N131" s="10">
-        <v>40</v>
-      </c>
-      <c r="O131" s="9">
-        <v>80</v>
-      </c>
-      <c r="P131" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q131" s="9">
-        <v>160</v>
-      </c>
-      <c r="R131" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="2"/>
@@ -4295,9 +4919,9 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133" s="31"/>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="5"/>
@@ -4316,207 +4940,98 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="7"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="39"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="20"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="21"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="3"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="31"/>
-      <c r="C136" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="7"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="3"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="3"/>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="31"/>
-      <c r="C138" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="D130:H130"/>
-    <mergeCell ref="I130:M130"/>
-    <mergeCell ref="N130:R130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="D102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:R102"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
     <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="N60:R60"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="N112:R112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:B115"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="I60:M60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="N60:R60"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="I125:M125"/>
+    <mergeCell ref="N125:R125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B125:C125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4530,12 +5045,12 @@
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -4562,7 +5077,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
@@ -4613,7 +5128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
@@ -4636,7 +5151,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
@@ -4657,7 +5172,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +5225,7 @@
         <v>1.01059770490547</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="31"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
@@ -4731,7 +5246,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +5269,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="31"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
@@ -4775,12 +5290,12 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
@@ -4807,7 +5322,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
@@ -4858,7 +5373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="30" t="s">
         <v>12</v>
       </c>
@@ -4881,7 +5396,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="31"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
@@ -4902,7 +5417,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="30" t="s">
         <v>1</v>
       </c>
@@ -4955,7 +5470,7 @@
         <v>4802.4634537894499</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="31"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
@@ -4976,7 +5491,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5514,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -5020,7 +5535,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
@@ -5028,17 +5543,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -5077,20 +5592,20 @@
       <selection activeCell="C62" sqref="C62:S86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="32">
         <v>0.25</v>
       </c>
@@ -5113,7 +5628,7 @@
       <c r="R2" s="33"/>
       <c r="S2" s="34"/>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
@@ -5217,7 +5732,7 @@
         <v>52.4340589274927</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="31"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
@@ -5283,11 +5798,11 @@
         <v>47.5659410725073</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="38" t="s">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -5334,7 +5849,7 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
         <v>9</v>
       </c>
@@ -5387,7 +5902,7 @@
         <v>12.797417560660501</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="31"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
@@ -5454,33 +5969,33 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="27"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="27"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="32">
         <v>0.25</v>
       </c>
@@ -5503,7 +6018,7 @@
       <c r="R16" s="33"/>
       <c r="S16" s="34"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="35" t="s">
         <v>2</v>
       </c>
@@ -5554,7 +6069,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
         <v>7</v>
       </c>
@@ -5607,7 +6122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="31"/>
       <c r="D19" s="8" t="s">
         <v>10</v>
@@ -5673,11 +6188,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="38" t="s">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -5724,7 +6239,7 @@
         <v>1.13888888888888</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>9</v>
       </c>
@@ -5777,7 +6292,7 @@
         <v>57.474110862417398</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
@@ -5843,36 +6358,36 @@
         <v>42.525889137582602</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="32">
         <v>0.25</v>
       </c>
@@ -5895,7 +6410,7 @@
       <c r="R37" s="33"/>
       <c r="S37" s="34"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="35" t="s">
         <v>2</v>
       </c>
@@ -5946,7 +6461,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39" s="30" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +6484,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40" s="31"/>
       <c r="D40" s="8" t="s">
         <v>26</v>
@@ -5990,11 +6505,11 @@
       <c r="R40" s="6"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="38" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -6011,7 +6526,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" s="30" t="s">
         <v>34</v>
       </c>
@@ -6034,7 +6549,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43" s="31"/>
       <c r="D43" s="8" t="s">
         <v>30</v>
@@ -6055,7 +6570,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" s="30" t="s">
         <v>28</v>
       </c>
@@ -6078,7 +6593,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="31"/>
       <c r="D45" s="12" t="s">
         <v>26</v>
@@ -6099,25 +6614,25 @@
       <c r="R45" s="6"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="27"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C49" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C51" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="37"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="32">
         <v>0.25</v>
       </c>
@@ -6140,7 +6655,7 @@
       <c r="R51" s="33"/>
       <c r="S51" s="34"/>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C52" s="35" t="s">
         <v>2</v>
       </c>
@@ -6191,7 +6706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C53" s="30" t="s">
         <v>7</v>
       </c>
@@ -6214,7 +6729,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C54" s="31"/>
       <c r="D54" s="8" t="s">
         <v>26</v>
@@ -6235,11 +6750,11 @@
       <c r="R54" s="6"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C55" s="38" t="s">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C55" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="22">
         <v>90.4166666666667</v>
       </c>
@@ -6286,7 +6801,7 @@
         <v>98.861111111111114</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C56" s="30" t="s">
         <v>34</v>
       </c>
@@ -6309,7 +6824,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C57" s="31"/>
       <c r="D57" s="8" t="s">
         <v>30</v>
@@ -6330,7 +6845,7 @@
       <c r="R57" s="6"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C58" s="30" t="s">
         <v>28</v>
       </c>
@@ -6353,7 +6868,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C59" s="31"/>
       <c r="D59" s="12" t="s">
         <v>26</v>
@@ -6376,22 +6891,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
@@ -6404,12 +6909,22 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6423,12 +6938,12 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>70.011999999999901</v>
       </c>
@@ -6436,7 +6951,7 @@
         <v>70.011999999999901</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90.058999999999997</v>
       </c>
@@ -6444,7 +6959,7 @@
         <v>90.058999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44.5833333333333</v>
       </c>
@@ -6452,7 +6967,7 @@
         <v>44.5833333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70.011999999999901</v>
       </c>
@@ -6460,7 +6975,7 @@
         <v>70.011999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>195.36699999999999</v>
       </c>
@@ -6468,7 +6983,7 @@
         <v>195.36699999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.69</v>
       </c>
@@ -6476,7 +6991,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6484,7 +6999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>162.74799999999999</v>
       </c>
@@ -6492,7 +7007,7 @@
         <v>162.74799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>189.91899999999899</v>
       </c>
@@ -6500,7 +7015,7 @@
         <v>189.91899999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>37.5</v>
       </c>
@@ -6508,7 +7023,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>162.74799999999999</v>
       </c>
@@ -6516,7 +7031,7 @@
         <v>162.74799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>381.154</v>
       </c>
@@ -6524,7 +7039,7 @@
         <v>381.154</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.855</v>
       </c>
@@ -6532,7 +7047,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6540,7 +7055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>216.59799999999899</v>
       </c>
@@ -6548,7 +7063,7 @@
         <v>216.59799999999899</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>250.551999999999</v>
       </c>
@@ -6556,7 +7071,7 @@
         <v>250.551999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>38.6111111111111</v>
       </c>
@@ -6564,7 +7079,7 @@
         <v>38.6111111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>216.59799999999899</v>
       </c>
@@ -6572,7 +7087,7 @@
         <v>216.59799999999899</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>579.78699999999901</v>
       </c>
@@ -6580,7 +7095,7 @@
         <v>579.78699999999901</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.2349999999999999</v>
       </c>
@@ -6588,7 +7103,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -6596,7 +7111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>294.63400000000001</v>
       </c>
@@ -6604,7 +7119,7 @@
         <v>294.63400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>333.44899999999899</v>
       </c>
@@ -6612,7 +7127,7 @@
         <v>333.44899999999899</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>40.1041666666666</v>
       </c>
@@ -6620,7 +7135,7 @@
         <v>40.1041666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>294.63400000000001</v>
       </c>
@@ -6628,7 +7143,7 @@
         <v>294.63400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>762.29899999999895</v>
       </c>
@@ -6636,7 +7151,7 @@
         <v>762.29899999999895</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.8819999999999997</v>
       </c>
@@ -6644,7 +7159,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -6652,7 +7167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>378.77199999999999</v>
       </c>
@@ -6660,7 +7175,7 @@
         <v>378.77199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>439.83199999999999</v>
       </c>
@@ -6668,7 +7183,7 @@
         <v>439.83199999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41.1666666666666</v>
       </c>
@@ -6676,7 +7191,7 @@
         <v>41.1666666666666</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>378.77199999999903</v>
       </c>
@@ -6684,7 +7199,7 @@
         <v>378.77199999999903</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>945.03800000000001</v>
       </c>
@@ -6692,7 +7207,7 @@
         <v>945.03800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6.5509999999999904</v>
       </c>
@@ -6700,7 +7215,7 @@
         <v>6.5509999999999904</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -6708,7 +7223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>58.515000000000001</v>
       </c>
@@ -6716,7 +7231,7 @@
         <v>58.515000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>59.173000000000002</v>
       </c>
@@ -6724,7 +7239,7 @@
         <v>59.173000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37.5</v>
       </c>
@@ -6732,7 +7247,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>58.514999999999901</v>
       </c>
@@ -6740,7 +7255,7 @@
         <v>58.514999999999901</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>485.387</v>
       </c>
@@ -6748,7 +7263,7 @@
         <v>485.387</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.855</v>
       </c>
@@ -6756,7 +7271,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -6764,7 +7279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>111.81399999999999</v>
       </c>
@@ -6772,7 +7287,7 @@
         <v>111.81399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>118.097999999999</v>
       </c>
@@ -6780,7 +7295,7 @@
         <v>118.097999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40.1041666666666</v>
       </c>
@@ -6788,7 +7303,7 @@
         <v>40.1041666666666</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>111.81399999999999</v>
       </c>
@@ -6796,7 +7311,7 @@
         <v>111.81399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>945.11899999999901</v>
       </c>
@@ -6804,7 +7319,7 @@
         <v>945.11899999999901</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4.8819999999999997</v>
       </c>
@@ -6812,7 +7327,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6820,7 +7335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>175.37899999999999</v>
       </c>
@@ -6828,7 +7343,7 @@
         <v>175.37899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>177.28799999999899</v>
       </c>
@@ -6836,7 +7351,7 @@
         <v>177.28799999999899</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40.8333333333333</v>
       </c>
@@ -6844,7 +7359,7 @@
         <v>40.8333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>175.37899999999999</v>
       </c>
@@ -6852,7 +7367,7 @@
         <v>175.37899999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1417.0039999999899</v>
       </c>
@@ -6860,7 +7375,7 @@
         <v>1417.0039999999899</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7.4279999999999902</v>
       </c>
@@ -6868,7 +7383,7 @@
         <v>7.4279999999999902</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -6876,7 +7391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>214.83699999999999</v>
       </c>
@@ -6884,7 +7399,7 @@
         <v>214.83699999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>217.009999999999</v>
       </c>
@@ -6892,7 +7407,7 @@
         <v>217.009999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>41.3541666666666</v>
       </c>
@@ -6900,7 +7415,7 @@
         <v>41.3541666666666</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>214.83699999999899</v>
       </c>
@@ -6908,7 +7423,7 @@
         <v>214.83699999999899</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1892.183</v>
       </c>
@@ -6916,7 +7431,7 @@
         <v>1892.183</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9.3650000000000002</v>
       </c>
@@ -6924,7 +7439,7 @@
         <v>9.3650000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -6932,7 +7447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>256.06799999999998</v>
       </c>
@@ -6940,7 +7455,7 @@
         <v>256.06799999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>253.658999999999</v>
       </c>
@@ -6948,7 +7463,7 @@
         <v>253.658999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>42</v>
       </c>
@@ -6956,7 +7471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>256.06799999999998</v>
       </c>
@@ -6964,7 +7479,7 @@
         <v>256.06799999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2384.942</v>
       </c>
@@ -6972,7 +7487,7 @@
         <v>2384.942</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11.442</v>
       </c>
@@ -6980,7 +7495,7 @@
         <v>11.442</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -6988,7 +7503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>34.512999999999998</v>
       </c>
@@ -6996,7 +7511,7 @@
         <v>34.512999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>31.5259999999999</v>
       </c>
@@ -7004,7 +7519,7 @@
         <v>31.5259999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>38.6111111111111</v>
       </c>
@@ -7012,7 +7527,7 @@
         <v>38.6111111111111</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>34.512999999999998</v>
       </c>
@@ -7020,7 +7535,7 @@
         <v>34.512999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>761.87199999999905</v>
       </c>
@@ -7028,7 +7543,7 @@
         <v>761.87199999999905</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.2349999999999999</v>
       </c>
@@ -7036,7 +7551,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -7044,7 +7559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>60.058999999999898</v>
       </c>
@@ -7052,7 +7567,7 @@
         <v>60.058999999999898</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>57.628999999999998</v>
       </c>
@@ -7060,7 +7575,7 @@
         <v>57.628999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>40.8333333333333</v>
       </c>
@@ -7068,7 +7583,7 @@
         <v>40.8333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>60.058999999999898</v>
       </c>
@@ -7076,7 +7591,7 @@
         <v>60.058999999999898</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1532.3239999999901</v>
       </c>
@@ -7084,7 +7599,7 @@
         <v>1532.3239999999901</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7.4279999999999902</v>
       </c>
@@ -7092,7 +7607,7 @@
         <v>7.4279999999999902</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>50</v>
       </c>
@@ -7100,7 +7615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>78.252999999999901</v>
       </c>
@@ -7108,7 +7623,7 @@
         <v>78.252999999999901</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>81.817999999999998</v>
       </c>
@@ -7116,7 +7631,7 @@
         <v>81.817999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>41.6666666666666</v>
       </c>
@@ -7124,7 +7639,7 @@
         <v>41.6666666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>78.252999999999901</v>
       </c>
@@ -7132,7 +7647,7 @@
         <v>78.252999999999901</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2299.84</v>
       </c>
@@ -7140,7 +7655,7 @@
         <v>2299.84</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10.285</v>
       </c>
@@ -7148,7 +7663,7 @@
         <v>10.285</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -7156,7 +7671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>113.94099999999899</v>
       </c>
@@ -7164,7 +7679,7 @@
         <v>113.94099999999899</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>115.97099999999899</v>
       </c>
@@ -7172,7 +7687,7 @@
         <v>115.97099999999899</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>40.9375</v>
       </c>
@@ -7180,7 +7695,7 @@
         <v>40.9375</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>113.941</v>
       </c>
@@ -7188,7 +7703,7 @@
         <v>113.941</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3068.0509999999999</v>
       </c>
@@ -7196,7 +7711,7 @@
         <v>3068.0509999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14.750999999999999</v>
       </c>
@@ -7204,7 +7719,7 @@
         <v>14.750999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -7212,7 +7727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>143.09599999999901</v>
       </c>
@@ -7220,7 +7735,7 @@
         <v>143.09599999999901</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>139.35499999999999</v>
       </c>
@@ -7228,7 +7743,7 @@
         <v>139.35499999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>39.9444444444444</v>
       </c>
@@ -7236,7 +7751,7 @@
         <v>39.9444444444444</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>143.096</v>
       </c>
@@ -7244,7 +7759,7 @@
         <v>143.096</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3867.1559999999899</v>
       </c>
@@ -7252,7 +7767,7 @@
         <v>3867.1559999999899</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>16.777999999999899</v>
       </c>
@@ -7260,7 +7775,7 @@
         <v>16.777999999999899</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -7268,7 +7783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>56</v>
       </c>

--- a/simulationResults.xlsx
+++ b/simulationResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B68978-B33F-47F4-A53E-5320566D1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B13B8-AF42-4E7D-A6BB-B2C218972C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="0" windowWidth="26550" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -292,7 +292,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -567,6 +573,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:CM133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1259,7 @@
       <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="45">
         <v>70.011999999999901</v>
       </c>
       <c r="E6" s="2">
@@ -1262,7 +1274,7 @@
       <c r="H6" s="3">
         <v>378.77199999999999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="45">
         <v>58.515000000000001</v>
       </c>
       <c r="J6" s="2">
@@ -1277,7 +1289,7 @@
       <c r="M6" s="3">
         <v>256.06799999999998</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="45">
         <v>34.512999999999998</v>
       </c>
       <c r="O6" s="2">
@@ -1301,7 +1313,7 @@
       <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="46">
         <v>90.058999999999997</v>
       </c>
       <c r="E7" s="6">
@@ -1316,7 +1328,7 @@
       <c r="H7" s="6">
         <v>439.83199999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="46">
         <v>59.173000000000002</v>
       </c>
       <c r="J7" s="6">
@@ -1331,7 +1343,7 @@
       <c r="M7" s="6">
         <v>253.658999999999</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="46">
         <v>31.5259999999999</v>
       </c>
       <c r="O7" s="6">
@@ -1355,7 +1367,7 @@
       <c r="C8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="46">
         <f>SUM(D6:D7)</f>
         <v>160.07099999999991</v>
       </c>
@@ -1375,7 +1387,7 @@
         <f t="shared" si="0"/>
         <v>818.60400000000004</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="46">
         <f t="shared" si="0"/>
         <v>117.688</v>
       </c>
@@ -1395,7 +1407,7 @@
         <f t="shared" si="0"/>
         <v>509.72699999999895</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="46">
         <f t="shared" si="0"/>
         <v>66.038999999999902</v>
       </c>
@@ -2135,10 +2147,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="38"/>
-      <c r="D25" s="19">
+      <c r="D25" s="47">
         <v>10</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="48">
         <v>9.5833333333333304</v>
       </c>
       <c r="F25" s="20">
@@ -2239,13 +2251,13 @@
       <c r="C27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
         <v>0</v>
       </c>
       <c r="G27">
@@ -5042,7 +5054,7 @@
   <dimension ref="C2:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+      <selection activeCell="E6" sqref="E6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
